--- a/data_month/zb/国内贸易/按经营地分社会消费品零售总额.xlsx
+++ b/data_month/zb/国内贸易/按经营地分社会消费品零售总额.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I135"/>
+  <dimension ref="A1:K135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,4079 +474,4893 @@
           <t>城镇社会消费品零售总额_累计增长</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>乡村社会消费品零售总额</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>城镇社会消费品零售总额</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2010年10月</t>
+          <t>2010-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16.8</v>
+        <v>13.7</v>
       </c>
       <c r="C2" t="n">
-        <v>1889.3</v>
+        <v>2201.1</v>
       </c>
       <c r="D2" t="n">
-        <v>16930.6</v>
+        <v>2201.1</v>
       </c>
       <c r="E2" t="n">
-        <v>15.9</v>
+        <v>13.7</v>
       </c>
       <c r="F2" t="n">
-        <v>18.9</v>
+        <v>14.1</v>
       </c>
       <c r="G2" t="n">
-        <v>12395.5</v>
+        <v>10517</v>
       </c>
       <c r="H2" t="n">
-        <v>108382.7</v>
+        <v>10517</v>
       </c>
       <c r="I2" t="n">
-        <v>18.7</v>
+        <v>14.1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2201.1</v>
+      </c>
+      <c r="K2" t="n">
+        <v>10517</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2010年11月</t>
+          <t>2010-02</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17</v>
+        <v>17.6</v>
       </c>
       <c r="C3" t="n">
-        <v>1864.5</v>
+        <v>2102.6</v>
       </c>
       <c r="D3" t="n">
-        <v>18795.1</v>
+        <v>4303.7</v>
       </c>
       <c r="E3" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="F3" t="n">
-        <v>19</v>
+        <v>23.1</v>
       </c>
       <c r="G3" t="n">
-        <v>12046.4</v>
+        <v>10231.6</v>
       </c>
       <c r="H3" t="n">
-        <v>120429.1</v>
+        <v>20748.6</v>
       </c>
       <c r="I3" t="n">
-        <v>18.7</v>
+        <v>18.4</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2102.6</v>
+      </c>
+      <c r="K3" t="n">
+        <v>10231.6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2010年12月</t>
+          <t>2010-03</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>17</v>
+        <v>15.1</v>
       </c>
       <c r="C4" t="n">
-        <v>2069.7</v>
+        <v>1499.6</v>
       </c>
       <c r="D4" t="n">
-        <v>20864.8</v>
+        <v>5803.3</v>
       </c>
       <c r="E4" t="n">
-        <v>16.1</v>
+        <v>15.4</v>
       </c>
       <c r="F4" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="G4" t="n">
-        <v>13259.8</v>
+        <v>9822.1</v>
       </c>
       <c r="H4" t="n">
-        <v>133688.9</v>
+        <v>30570.7</v>
       </c>
       <c r="I4" t="n">
-        <v>18.8</v>
+        <v>18.4</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1499.6</v>
+      </c>
+      <c r="K4" t="n">
+        <v>9822.100000000002</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2010年1月</t>
+          <t>2010-04</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>13.7</v>
+        <v>16</v>
       </c>
       <c r="C5" t="n">
-        <v>2201.1</v>
+        <v>1530.5</v>
       </c>
       <c r="D5" t="n">
-        <v>2201.1</v>
+        <v>7333.8</v>
       </c>
       <c r="E5" t="n">
-        <v>13.7</v>
+        <v>15.5</v>
       </c>
       <c r="F5" t="n">
-        <v>14.1</v>
+        <v>18.9</v>
       </c>
       <c r="G5" t="n">
-        <v>10517</v>
+        <v>9979.9</v>
       </c>
       <c r="H5" t="n">
-        <v>10517</v>
+        <v>40550.6</v>
       </c>
       <c r="I5" t="n">
-        <v>14.1</v>
+        <v>18.5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1530.5</v>
+      </c>
+      <c r="K5" t="n">
+        <v>9979.899999999998</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2010年2月</t>
+          <t>2010-05</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>17.6</v>
+        <v>15.8397672166244</v>
       </c>
       <c r="C6" t="n">
-        <v>2102.6</v>
+        <v>1636.782</v>
       </c>
       <c r="D6" t="n">
-        <v>4303.7</v>
+        <v>8970.582</v>
       </c>
       <c r="E6" t="n">
-        <v>15.5</v>
+        <v>15.6007169385152</v>
       </c>
       <c r="F6" t="n">
-        <v>23.1</v>
+        <v>19.0931473407281</v>
       </c>
       <c r="G6" t="n">
-        <v>10231.6</v>
+        <v>10818.2857</v>
       </c>
       <c r="H6" t="n">
-        <v>20748.6</v>
+        <v>51368.8857</v>
       </c>
       <c r="I6" t="n">
-        <v>18.4</v>
+        <v>18.6414534954003</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1636.782</v>
+      </c>
+      <c r="K6" t="n">
+        <v>10818.2857</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2010年3月</t>
+          <t>2010-06</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.1</v>
+        <v>15.9</v>
       </c>
       <c r="C7" t="n">
-        <v>1499.6</v>
+        <v>1614.7</v>
       </c>
       <c r="D7" t="n">
-        <v>5803.3</v>
+        <v>10009.7</v>
       </c>
       <c r="E7" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="F7" t="n">
-        <v>18.5</v>
+        <v>18.7</v>
       </c>
       <c r="G7" t="n">
-        <v>9822.1</v>
+        <v>10715.2</v>
       </c>
       <c r="H7" t="n">
-        <v>30570.7</v>
+        <v>62659.7</v>
       </c>
       <c r="I7" t="n">
-        <v>18.4</v>
+        <v>18.6</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1039.118</v>
+      </c>
+      <c r="K7" t="n">
+        <v>11290.8143</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2010年4月</t>
+          <t>2010-07</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16</v>
+        <v>16.137239223668</v>
       </c>
       <c r="C8" t="n">
-        <v>1530.5</v>
+        <v>1597.7</v>
       </c>
       <c r="D8" t="n">
-        <v>7333.8</v>
+        <v>11607.4</v>
       </c>
       <c r="E8" t="n">
-        <v>15.5</v>
+        <v>15.6368925461755</v>
       </c>
       <c r="F8" t="n">
-        <v>18.9</v>
+        <v>18.2244857199921</v>
       </c>
       <c r="G8" t="n">
-        <v>9979.9</v>
+        <v>10655.1</v>
       </c>
       <c r="H8" t="n">
-        <v>40550.6</v>
+        <v>73314.8</v>
       </c>
       <c r="I8" t="n">
-        <v>18.5</v>
+        <v>18.5784457228995</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1597.699999999999</v>
+      </c>
+      <c r="K8" t="n">
+        <v>10655.10000000001</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2010年5月</t>
+          <t>2010-08</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>15.8397672166244</v>
+        <v>15.9</v>
       </c>
       <c r="C9" t="n">
-        <v>1636.782</v>
+        <v>1639.9</v>
       </c>
       <c r="D9" t="n">
-        <v>8970.582</v>
+        <v>13247.3</v>
       </c>
       <c r="E9" t="n">
-        <v>15.6007169385152</v>
+        <v>15.7</v>
       </c>
       <c r="F9" t="n">
-        <v>19.0931473407281</v>
+        <v>18.8</v>
       </c>
       <c r="G9" t="n">
-        <v>10818.2857</v>
+        <v>10929.9</v>
       </c>
       <c r="H9" t="n">
-        <v>51368.8857</v>
+        <v>84244.7</v>
       </c>
       <c r="I9" t="n">
-        <v>18.6414534954003</v>
+        <v>18.6</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1639.9</v>
+      </c>
+      <c r="K9" t="n">
+        <v>10929.89999999999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2010年6月</t>
+          <t>2010-09</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15.9</v>
+        <v>17</v>
       </c>
       <c r="C10" t="n">
-        <v>1614.7</v>
+        <v>1794</v>
       </c>
       <c r="D10" t="n">
-        <v>10009.7</v>
+        <v>15041.3</v>
       </c>
       <c r="E10" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="F10" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="G10" t="n">
+        <v>11742.5</v>
+      </c>
+      <c r="H10" t="n">
+        <v>95987.2</v>
+      </c>
+      <c r="I10" t="n">
         <v>18.7</v>
       </c>
-      <c r="G10" t="n">
-        <v>10715.2</v>
-      </c>
-      <c r="H10" t="n">
-        <v>62659.7</v>
-      </c>
-      <c r="I10" t="n">
-        <v>18.6</v>
+      <c r="J10" t="n">
+        <v>1794</v>
+      </c>
+      <c r="K10" t="n">
+        <v>11742.5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2010年7月</t>
+          <t>2010-10</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>16.137239223668</v>
+        <v>16.8</v>
       </c>
       <c r="C11" t="n">
-        <v>1597.7</v>
+        <v>1889.3</v>
       </c>
       <c r="D11" t="n">
-        <v>11607.4</v>
+        <v>16930.6</v>
       </c>
       <c r="E11" t="n">
-        <v>15.6368925461755</v>
+        <v>15.9</v>
       </c>
       <c r="F11" t="n">
-        <v>18.2244857199921</v>
+        <v>18.9</v>
       </c>
       <c r="G11" t="n">
-        <v>10655.1</v>
+        <v>12395.5</v>
       </c>
       <c r="H11" t="n">
-        <v>73314.8</v>
+        <v>108382.7</v>
       </c>
       <c r="I11" t="n">
-        <v>18.5784457228995</v>
+        <v>18.7</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1889.299999999999</v>
+      </c>
+      <c r="K11" t="n">
+        <v>12395.5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年8月</t>
+          <t>2010-11</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>15.9</v>
+        <v>17</v>
       </c>
       <c r="C12" t="n">
-        <v>1639.9</v>
+        <v>1864.5</v>
       </c>
       <c r="D12" t="n">
-        <v>13247.3</v>
+        <v>18795.1</v>
       </c>
       <c r="E12" t="n">
-        <v>15.7</v>
+        <v>16</v>
       </c>
       <c r="F12" t="n">
-        <v>18.8</v>
+        <v>19</v>
       </c>
       <c r="G12" t="n">
-        <v>10929.9</v>
+        <v>12046.4</v>
       </c>
       <c r="H12" t="n">
-        <v>84244.7</v>
+        <v>120429.1</v>
       </c>
       <c r="I12" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1864.5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>12046.40000000001</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2010年9月</t>
+          <t>2010-12</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>17</v>
       </c>
       <c r="C13" t="n">
-        <v>1794</v>
+        <v>2069.7</v>
       </c>
       <c r="D13" t="n">
-        <v>15041.3</v>
+        <v>20864.8</v>
       </c>
       <c r="E13" t="n">
-        <v>15.8</v>
+        <v>16.1</v>
       </c>
       <c r="F13" t="n">
-        <v>19.1</v>
+        <v>19.5</v>
       </c>
       <c r="G13" t="n">
-        <v>11742.5</v>
+        <v>13259.8</v>
       </c>
       <c r="H13" t="n">
-        <v>95987.2</v>
+        <v>133688.9</v>
       </c>
       <c r="I13" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2069.700000000001</v>
+      </c>
+      <c r="K13" t="n">
+        <v>13259.79999999999</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2011年10月</t>
+          <t>2011-01</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>17.3929147693796</v>
+        <v>19.5631561581378</v>
       </c>
       <c r="C14" t="n">
-        <v>2191.4</v>
+        <v>1992.99825</v>
       </c>
       <c r="D14" t="n">
-        <v>19737</v>
+        <v>1992.99825</v>
       </c>
       <c r="E14" t="n">
-        <v>16.4821799789899</v>
+        <v>19.5631561581378</v>
       </c>
       <c r="F14" t="n">
-        <v>17.2279097457004</v>
+        <v>19.9507904119009</v>
       </c>
       <c r="G14" t="n">
-        <v>14355</v>
+        <v>13256.00175</v>
       </c>
       <c r="H14" t="n">
-        <v>127620.2</v>
+        <v>13256.00175</v>
       </c>
       <c r="I14" t="n">
-        <v>17.0783727034121</v>
+        <v>19.9507904119009</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1992.99825</v>
+      </c>
+      <c r="K14" t="n">
+        <v>13256.00175</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2011年11月</t>
+          <t>2011-02</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>17.2</v>
+        <v>11.2185454327067</v>
       </c>
       <c r="C15" t="n">
-        <v>2160.4</v>
+        <v>1851.9</v>
       </c>
       <c r="D15" t="n">
-        <v>21897.4</v>
+        <v>3844.89825</v>
       </c>
       <c r="E15" t="n">
-        <v>16.6</v>
+        <v>15.3931047418967</v>
       </c>
       <c r="F15" t="n">
-        <v>17.3</v>
+        <v>11.6982688324226</v>
       </c>
       <c r="G15" t="n">
-        <v>13968.5</v>
+        <v>11917.2</v>
       </c>
       <c r="H15" t="n">
-        <v>141588.7</v>
+        <v>25173.20175</v>
       </c>
       <c r="I15" t="n">
-        <v>17.1</v>
+        <v>15.8971181337274</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1851.9</v>
+      </c>
+      <c r="K15" t="n">
+        <v>11917.2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2011年12月</t>
+          <t>2011-03</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>17.8</v>
+        <v>16.7341606792946</v>
       </c>
       <c r="C16" t="n">
-        <v>2420.1</v>
+        <v>1787.2</v>
       </c>
       <c r="D16" t="n">
-        <v>24317.5</v>
+        <v>5674</v>
       </c>
       <c r="E16" t="n">
-        <v>16.7</v>
+        <v>15.8124630049191</v>
       </c>
       <c r="F16" t="n">
-        <v>18.2</v>
+        <v>17.5448731995936</v>
       </c>
       <c r="G16" t="n">
-        <v>15319.6</v>
+        <v>11800.8</v>
       </c>
       <c r="H16" t="n">
-        <v>156908.3</v>
+        <v>37247.8</v>
       </c>
       <c r="I16" t="n">
-        <v>17.2</v>
+        <v>16.4150182680798</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1829.10175</v>
+      </c>
+      <c r="K16" t="n">
+        <v>12074.59825</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2011年1月</t>
+          <t>2011-04</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19.5631561581378</v>
+        <v>16.2828204631959</v>
       </c>
       <c r="C17" t="n">
-        <v>1992.99825</v>
+        <v>1802.5</v>
       </c>
       <c r="D17" t="n">
-        <v>1992.99825</v>
+        <v>7476.5</v>
       </c>
       <c r="E17" t="n">
-        <v>19.5631561581378</v>
+        <v>15.9255124507706</v>
       </c>
       <c r="F17" t="n">
-        <v>19.9507904119009</v>
+        <v>17.2502870264064</v>
       </c>
       <c r="G17" t="n">
-        <v>13256.00175</v>
+        <v>11846.5</v>
       </c>
       <c r="H17" t="n">
-        <v>13256.00175</v>
+        <v>49094.3</v>
       </c>
       <c r="I17" t="n">
-        <v>19.9507904119009</v>
+        <v>16.6154781670954</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1802.5</v>
+      </c>
+      <c r="K17" t="n">
+        <v>11846.5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2011年2月</t>
+          <t>2011-05</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>11.2185454327067</v>
+        <v>16.5147599159183</v>
       </c>
       <c r="C18" t="n">
-        <v>1851.9</v>
+        <v>1924.94475</v>
       </c>
       <c r="D18" t="n">
-        <v>3844.89825</v>
+        <v>9401.444750000001</v>
       </c>
       <c r="E18" t="n">
-        <v>15.3931047418967</v>
+        <v>16.0456750761082</v>
       </c>
       <c r="F18" t="n">
-        <v>11.6982688324226</v>
+        <v>16.9580644085676</v>
       </c>
       <c r="G18" t="n">
-        <v>11917.2</v>
+        <v>12771.85525</v>
       </c>
       <c r="H18" t="n">
-        <v>25173.20175</v>
+        <v>61866.15525</v>
       </c>
       <c r="I18" t="n">
-        <v>15.8971181337274</v>
+        <v>16.6860383179867</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1924.944750000001</v>
+      </c>
+      <c r="K18" t="n">
+        <v>12771.85525</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2011年3月</t>
+          <t>2011-06</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>16.7341606792946</v>
+        <v>16.7939902120765</v>
       </c>
       <c r="C19" t="n">
-        <v>1787.2</v>
+        <v>1981.1</v>
       </c>
       <c r="D19" t="n">
-        <v>5674</v>
+        <v>11382.5</v>
       </c>
       <c r="E19" t="n">
-        <v>15.8124630049191</v>
+        <v>16.1752247976566</v>
       </c>
       <c r="F19" t="n">
-        <v>17.5448731995936</v>
+        <v>17.8284609007437</v>
       </c>
       <c r="G19" t="n">
-        <v>11800.8</v>
+        <v>12584</v>
       </c>
       <c r="H19" t="n">
-        <v>37247.8</v>
+        <v>74450.2</v>
       </c>
       <c r="I19" t="n">
-        <v>16.4150182680798</v>
+        <v>16.8775795024435</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1981.055249999999</v>
+      </c>
+      <c r="K19" t="n">
+        <v>12584.04474999999</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2011年4月</t>
+          <t>2011-07</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>16.2828204631959</v>
+        <v>16.4</v>
       </c>
       <c r="C20" t="n">
-        <v>1802.5</v>
+        <v>1918.5</v>
       </c>
       <c r="D20" t="n">
-        <v>7476.5</v>
+        <v>13301</v>
       </c>
       <c r="E20" t="n">
-        <v>15.9255124507706</v>
+        <v>16.2</v>
       </c>
       <c r="F20" t="n">
-        <v>17.2502870264064</v>
+        <v>17.3</v>
       </c>
       <c r="G20" t="n">
-        <v>11846.5</v>
+        <v>12489.5</v>
       </c>
       <c r="H20" t="n">
-        <v>49094.3</v>
+        <v>86939.7</v>
       </c>
       <c r="I20" t="n">
-        <v>16.6154781670954</v>
+        <v>16.9</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1918.5</v>
+      </c>
+      <c r="K20" t="n">
+        <v>12489.5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2011年5月</t>
+          <t>2011-08</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>16.5147599159183</v>
+        <v>16.4</v>
       </c>
       <c r="C21" t="n">
-        <v>1924.94475</v>
+        <v>1921.9</v>
       </c>
       <c r="D21" t="n">
-        <v>9401.444750000001</v>
+        <v>15222.9</v>
       </c>
       <c r="E21" t="n">
-        <v>16.0456750761082</v>
+        <v>16.2</v>
       </c>
       <c r="F21" t="n">
-        <v>16.9580644085676</v>
+        <v>17.1</v>
       </c>
       <c r="G21" t="n">
-        <v>12771.85525</v>
+        <v>12783.1</v>
       </c>
       <c r="H21" t="n">
-        <v>61866.15525</v>
+        <v>99722.8</v>
       </c>
       <c r="I21" t="n">
-        <v>16.6860383179867</v>
+        <v>17</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1921.9</v>
+      </c>
+      <c r="K21" t="n">
+        <v>12783.10000000001</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2011年6月</t>
+          <t>2011-09</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>16.7939902120765</v>
+        <v>17.3</v>
       </c>
       <c r="C22" t="n">
-        <v>1981.1</v>
+        <v>2322.6</v>
       </c>
       <c r="D22" t="n">
-        <v>11382.5</v>
+        <v>17545.6</v>
       </c>
       <c r="E22" t="n">
-        <v>16.1752247976566</v>
+        <v>16.4</v>
       </c>
       <c r="F22" t="n">
-        <v>17.8284609007437</v>
+        <v>17.8</v>
       </c>
       <c r="G22" t="n">
-        <v>12584</v>
+        <v>13542.5</v>
       </c>
       <c r="H22" t="n">
-        <v>74450.2</v>
+        <v>113265.2</v>
       </c>
       <c r="I22" t="n">
-        <v>16.8775795024435</v>
+        <v>17.1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2322.699999999999</v>
+      </c>
+      <c r="K22" t="n">
+        <v>13542.39999999999</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2011年7月</t>
+          <t>2011-10</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>16.4</v>
+        <v>17.3929147693796</v>
       </c>
       <c r="C23" t="n">
-        <v>1918.5</v>
+        <v>2191.4</v>
       </c>
       <c r="D23" t="n">
-        <v>13301</v>
+        <v>19737</v>
       </c>
       <c r="E23" t="n">
-        <v>16.2</v>
+        <v>16.4821799789899</v>
       </c>
       <c r="F23" t="n">
-        <v>17.3</v>
+        <v>17.2279097457004</v>
       </c>
       <c r="G23" t="n">
-        <v>12489.5</v>
+        <v>14355</v>
       </c>
       <c r="H23" t="n">
-        <v>86939.7</v>
+        <v>127620.2</v>
       </c>
       <c r="I23" t="n">
-        <v>16.9</v>
+        <v>17.0783727034121</v>
+      </c>
+      <c r="J23" t="n">
+        <v>2191.400000000001</v>
+      </c>
+      <c r="K23" t="n">
+        <v>14355</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2011年8月</t>
+          <t>2011-11</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>16.4</v>
+        <v>17.2</v>
       </c>
       <c r="C24" t="n">
-        <v>1921.9</v>
+        <v>2160.4</v>
       </c>
       <c r="D24" t="n">
-        <v>15222.9</v>
+        <v>21897.4</v>
       </c>
       <c r="E24" t="n">
-        <v>16.2</v>
+        <v>16.6</v>
       </c>
       <c r="F24" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="G24" t="n">
+        <v>13968.5</v>
+      </c>
+      <c r="H24" t="n">
+        <v>141588.7</v>
+      </c>
+      <c r="I24" t="n">
         <v>17.1</v>
       </c>
-      <c r="G24" t="n">
-        <v>12783.1</v>
-      </c>
-      <c r="H24" t="n">
-        <v>99722.8</v>
-      </c>
-      <c r="I24" t="n">
-        <v>17</v>
+      <c r="J24" t="n">
+        <v>2160.400000000001</v>
+      </c>
+      <c r="K24" t="n">
+        <v>13968.50000000001</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2011年9月</t>
+          <t>2011-12</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>17.3</v>
+        <v>17.8</v>
       </c>
       <c r="C25" t="n">
-        <v>2322.6</v>
+        <v>2420.1</v>
       </c>
       <c r="D25" t="n">
-        <v>17545.6</v>
+        <v>24317.5</v>
       </c>
       <c r="E25" t="n">
-        <v>16.4</v>
+        <v>16.7</v>
       </c>
       <c r="F25" t="n">
-        <v>17.8</v>
+        <v>18.2</v>
       </c>
       <c r="G25" t="n">
-        <v>13542.5</v>
+        <v>15319.6</v>
       </c>
       <c r="H25" t="n">
-        <v>113265.2</v>
+        <v>156908.3</v>
       </c>
       <c r="I25" t="n">
-        <v>17.1</v>
+        <v>17.2</v>
+      </c>
+      <c r="J25" t="n">
+        <v>2420.099999999999</v>
+      </c>
+      <c r="K25" t="n">
+        <v>15319.59999999998</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2012年10月</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="C26" t="n">
-        <v>2490.4</v>
-      </c>
+          <t>2012-02</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
       <c r="D26" t="n">
-        <v>22580.5</v>
+        <v>4543.7</v>
       </c>
       <c r="E26" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="F26" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="G26" t="n">
-        <v>16443.4</v>
-      </c>
+        <v>14.6</v>
+      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
       <c r="H26" t="n">
-        <v>145775.3</v>
+        <v>29124.9</v>
       </c>
       <c r="I26" t="n">
-        <v>14.1</v>
+        <v>14.7</v>
+      </c>
+      <c r="J26" t="n">
+        <v>4543.7</v>
+      </c>
+      <c r="K26" t="n">
+        <v>29124.9</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2012年11月</t>
+          <t>2012-03</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>14.6</v>
       </c>
       <c r="C27" t="n">
-        <v>2445.8</v>
+        <v>2086.8</v>
       </c>
       <c r="D27" t="n">
-        <v>25026.3</v>
+        <v>6630.5</v>
       </c>
       <c r="E27" t="n">
-        <v>14.4</v>
+        <v>14.6</v>
       </c>
       <c r="F27" t="n">
-        <v>15</v>
+        <v>15.2</v>
       </c>
       <c r="G27" t="n">
-        <v>16030.9</v>
+        <v>13563.4</v>
       </c>
       <c r="H27" t="n">
-        <v>161806.2</v>
+        <v>42688.3</v>
       </c>
       <c r="I27" t="n">
-        <v>14.2</v>
+        <v>14.9</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2086.8</v>
+      </c>
+      <c r="K27" t="n">
+        <v>13563.4</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2012年12月</t>
+          <t>2012-04</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>15.1</v>
+        <v>14.5344887780398</v>
       </c>
       <c r="C28" t="n">
-        <v>2822.8</v>
+        <v>2049.4</v>
       </c>
       <c r="D28" t="n">
-        <v>27849.1</v>
+        <v>8679.9</v>
       </c>
       <c r="E28" t="n">
-        <v>14.5</v>
+        <v>14.6068653935702</v>
       </c>
       <c r="F28" t="n">
-        <v>15.2</v>
+        <v>14.0102984328901</v>
       </c>
       <c r="G28" t="n">
-        <v>17511.4</v>
+        <v>13553.7</v>
       </c>
       <c r="H28" t="n">
-        <v>179317.6</v>
+        <v>56241.99313</v>
       </c>
       <c r="I28" t="n">
-        <v>14.3</v>
+        <v>14.666244133429</v>
+      </c>
+      <c r="J28" t="n">
+        <v>2049.4</v>
+      </c>
+      <c r="K28" t="n">
+        <v>13553.69313</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2012年2月</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr"/>
+          <t>2012-05</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>14.3210766255678</v>
+      </c>
+      <c r="C29" t="n">
+        <v>2178.8</v>
+      </c>
       <c r="D29" t="n">
-        <v>4543.7</v>
+        <v>10858.7</v>
       </c>
       <c r="E29" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
+        <v>14.5494075365562</v>
+      </c>
+      <c r="F29" t="n">
+        <v>13.7149516639455</v>
+      </c>
+      <c r="G29" t="n">
+        <v>14536</v>
+      </c>
       <c r="H29" t="n">
-        <v>29124.9</v>
+        <v>70778</v>
       </c>
       <c r="I29" t="n">
-        <v>14.7</v>
+        <v>14.4695763453791</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2178.800000000001</v>
+      </c>
+      <c r="K29" t="n">
+        <v>14536.00687</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2012年3月</t>
+          <t>2012-06</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>14.6</v>
+        <v>14</v>
       </c>
       <c r="C30" t="n">
-        <v>2086.8</v>
+        <v>2239.8</v>
       </c>
       <c r="D30" t="n">
-        <v>6630.5</v>
+        <v>13098.5</v>
       </c>
       <c r="E30" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="F30" t="n">
-        <v>15.2</v>
+        <v>13.7</v>
       </c>
       <c r="G30" t="n">
-        <v>13563.4</v>
+        <v>14345.1</v>
       </c>
       <c r="H30" t="n">
-        <v>42688.3</v>
+        <v>85123.10000000001</v>
       </c>
       <c r="I30" t="n">
-        <v>14.9</v>
+        <v>14.3</v>
+      </c>
+      <c r="J30" t="n">
+        <v>2239.799999999999</v>
+      </c>
+      <c r="K30" t="n">
+        <v>14345.10000000001</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2012年4月</t>
+          <t>2012-07</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>14.5344887780398</v>
+        <v>13.6</v>
       </c>
       <c r="C31" t="n">
-        <v>2049.4</v>
+        <v>2160.3</v>
       </c>
       <c r="D31" t="n">
-        <v>8679.9</v>
+        <v>15258.8</v>
       </c>
       <c r="E31" t="n">
-        <v>14.6068653935702</v>
+        <v>14.3</v>
       </c>
       <c r="F31" t="n">
-        <v>14.0102984328901</v>
+        <v>13.1</v>
       </c>
       <c r="G31" t="n">
-        <v>13553.7</v>
+        <v>14154.6</v>
       </c>
       <c r="H31" t="n">
-        <v>56241.99313</v>
+        <v>99277.7</v>
       </c>
       <c r="I31" t="n">
-        <v>14.666244133429</v>
+        <v>14.2</v>
+      </c>
+      <c r="J31" t="n">
+        <v>2160.299999999999</v>
+      </c>
+      <c r="K31" t="n">
+        <v>14154.59999999999</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2012年5月</t>
+          <t>2012-08</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>14.3210766255678</v>
+        <v>14.3</v>
       </c>
       <c r="C32" t="n">
-        <v>2178.8</v>
+        <v>2177</v>
       </c>
       <c r="D32" t="n">
-        <v>10858.7</v>
+        <v>17435.8</v>
       </c>
       <c r="E32" t="n">
-        <v>14.5494075365562</v>
+        <v>14.3</v>
       </c>
       <c r="F32" t="n">
-        <v>13.7149516639455</v>
+        <v>13.1</v>
       </c>
       <c r="G32" t="n">
-        <v>14536</v>
+        <v>14481.9</v>
       </c>
       <c r="H32" t="n">
-        <v>70778</v>
+        <v>113759.6</v>
       </c>
       <c r="I32" t="n">
-        <v>14.4695763453791</v>
+        <v>14</v>
+      </c>
+      <c r="J32" t="n">
+        <v>2177</v>
+      </c>
+      <c r="K32" t="n">
+        <v>14481.90000000001</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2012年6月</t>
+          <t>2012-09</t>
         </is>
       </c>
       <c r="B33" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="C33" t="n">
+        <v>2654.3</v>
+      </c>
+      <c r="D33" t="n">
+        <v>20090.1</v>
+      </c>
+      <c r="E33" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="F33" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="G33" t="n">
+        <v>15572.3</v>
+      </c>
+      <c r="H33" t="n">
+        <v>129331.9</v>
+      </c>
+      <c r="I33" t="n">
         <v>14</v>
       </c>
-      <c r="C33" t="n">
-        <v>2239.8</v>
-      </c>
-      <c r="D33" t="n">
-        <v>13098.5</v>
-      </c>
-      <c r="E33" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="F33" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="G33" t="n">
-        <v>14345.1</v>
-      </c>
-      <c r="H33" t="n">
-        <v>85123.10000000001</v>
-      </c>
-      <c r="I33" t="n">
-        <v>14.3</v>
+      <c r="J33" t="n">
+        <v>2654.299999999999</v>
+      </c>
+      <c r="K33" t="n">
+        <v>15572.29999999999</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2012年7月</t>
+          <t>2012-10</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>13.6</v>
+        <v>14.8</v>
       </c>
       <c r="C34" t="n">
-        <v>2160.3</v>
+        <v>2490.4</v>
       </c>
       <c r="D34" t="n">
-        <v>15258.8</v>
+        <v>22580.5</v>
       </c>
       <c r="E34" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="F34" t="n">
-        <v>13.1</v>
+        <v>14.5</v>
       </c>
       <c r="G34" t="n">
-        <v>14154.6</v>
+        <v>16443.4</v>
       </c>
       <c r="H34" t="n">
-        <v>99277.7</v>
+        <v>145775.3</v>
       </c>
       <c r="I34" t="n">
-        <v>14.2</v>
+        <v>14.1</v>
+      </c>
+      <c r="J34" t="n">
+        <v>2490.400000000001</v>
+      </c>
+      <c r="K34" t="n">
+        <v>16443.39999999999</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2012年8月</t>
+          <t>2012-11</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>14.3</v>
+        <v>14.6</v>
       </c>
       <c r="C35" t="n">
-        <v>2177</v>
+        <v>2445.8</v>
       </c>
       <c r="D35" t="n">
-        <v>17435.8</v>
+        <v>25026.3</v>
       </c>
       <c r="E35" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="F35" t="n">
-        <v>13.1</v>
+        <v>15</v>
       </c>
       <c r="G35" t="n">
-        <v>14481.9</v>
+        <v>16030.9</v>
       </c>
       <c r="H35" t="n">
-        <v>113759.6</v>
+        <v>161806.2</v>
       </c>
       <c r="I35" t="n">
-        <v>14</v>
+        <v>14.2</v>
+      </c>
+      <c r="J35" t="n">
+        <v>2445.799999999999</v>
+      </c>
+      <c r="K35" t="n">
+        <v>16030.90000000002</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2012年9月</t>
+          <t>2012-12</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>14.7</v>
+        <v>15.1</v>
       </c>
       <c r="C36" t="n">
-        <v>2654.3</v>
+        <v>2822.8</v>
       </c>
       <c r="D36" t="n">
-        <v>20090.1</v>
+        <v>27849.1</v>
       </c>
       <c r="E36" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="F36" t="n">
-        <v>14.2</v>
+        <v>15.2</v>
       </c>
       <c r="G36" t="n">
-        <v>15572.3</v>
+        <v>17511.4</v>
       </c>
       <c r="H36" t="n">
-        <v>129331.9</v>
+        <v>179317.6</v>
       </c>
       <c r="I36" t="n">
-        <v>14</v>
+        <v>14.3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2822.799999999999</v>
+      </c>
+      <c r="K36" t="n">
+        <v>17511.39999999999</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2013年10月</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>14.5625179578947</v>
-      </c>
-      <c r="C37" t="n">
-        <v>2857.78142953801</v>
-      </c>
+          <t>2013-02</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
       <c r="D37" t="n">
-        <v>25875.5621007089</v>
+        <v>5154.3933509</v>
       </c>
       <c r="E37" t="n">
-        <v>14.5113343830422</v>
-      </c>
-      <c r="F37" t="n">
-        <v>13.1319999064781</v>
-      </c>
-      <c r="G37" t="n">
-        <v>18633.5</v>
-      </c>
+        <v>13.4407091225201</v>
+      </c>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
       <c r="H37" t="n">
-        <v>164432.6644491</v>
+        <v>32655.4444491</v>
       </c>
       <c r="I37" t="n">
-        <v>12.7101707547316</v>
+        <v>12.1220826478374</v>
+      </c>
+      <c r="J37" t="n">
+        <v>5154.3933509</v>
+      </c>
+      <c r="K37" t="n">
+        <v>32655.4444491</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2013年11月</t>
+          <t>2013-03</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>14.7982024963169</v>
+        <v>15.0329591473365</v>
       </c>
       <c r="C38" t="n">
-        <v>2807.73443665492</v>
+        <v>2403.1</v>
       </c>
       <c r="D38" t="n">
-        <v>28683.2965373639</v>
+        <v>7557.4933509</v>
       </c>
       <c r="E38" t="n">
-        <v>14.539351850498</v>
+        <v>13.9422053415622</v>
       </c>
       <c r="F38" t="n">
-        <v>13.5569431535347</v>
+        <v>12.2260108788408</v>
       </c>
       <c r="G38" t="n">
-        <v>18204.2</v>
+        <v>15238.1</v>
       </c>
       <c r="H38" t="n">
-        <v>182636.8644491</v>
+        <v>47893.5444491</v>
       </c>
       <c r="I38" t="n">
-        <v>12.7940051380427</v>
+        <v>12.1551281979115</v>
+      </c>
+      <c r="J38" t="n">
+        <v>2403.1</v>
+      </c>
+      <c r="K38" t="n">
+        <v>15238.1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2013年12月</t>
+          <t>2013-04</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>14.8</v>
+        <v>13.8380404020688</v>
       </c>
       <c r="C39" t="n">
-        <v>3234.6</v>
+        <v>2332.9968</v>
       </c>
       <c r="D39" t="n">
-        <v>31917.9</v>
+        <v>9890.490150899999</v>
       </c>
       <c r="E39" t="n">
-        <v>14.6</v>
+        <v>13.9176174450686</v>
       </c>
       <c r="F39" t="n">
-        <v>13.4</v>
+        <v>12.6437799272523</v>
       </c>
       <c r="G39" t="n">
-        <v>19825.1</v>
+        <v>15267.3</v>
       </c>
       <c r="H39" t="n">
-        <v>202462</v>
+        <v>63160.8</v>
       </c>
       <c r="I39" t="n">
-        <v>12.9</v>
+        <v>12.2728572015041</v>
+      </c>
+      <c r="J39" t="n">
+        <v>2332.996799999999</v>
+      </c>
+      <c r="K39" t="n">
+        <v>15267.2555509</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2013年2月</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr"/>
-      <c r="C40" t="inlineStr"/>
+          <t>2013-05</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>14.8291030340009</v>
+      </c>
+      <c r="C40" t="n">
+        <v>2502.6</v>
+      </c>
       <c r="D40" t="n">
-        <v>5154.3933509</v>
+        <v>12393.0901509</v>
       </c>
       <c r="E40" t="n">
-        <v>13.4407091225201</v>
-      </c>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
+        <v>14.1005105164015</v>
+      </c>
+      <c r="F40" t="n">
+        <v>12.6020731589982</v>
+      </c>
+      <c r="G40" t="n">
+        <v>16383.7</v>
+      </c>
       <c r="H40" t="n">
-        <v>32655.4444491</v>
+        <v>79544.54444909999</v>
       </c>
       <c r="I40" t="n">
-        <v>12.1220826478374</v>
+        <v>12.3405078425381</v>
+      </c>
+      <c r="J40" t="n">
+        <v>2502.6</v>
+      </c>
+      <c r="K40" t="n">
+        <v>16383.74444909999</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2013年3月</t>
+          <t>2013-06</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>15.0329591473365</v>
+        <v>15.0741181118037</v>
       </c>
       <c r="C41" t="n">
-        <v>2403.1</v>
+        <v>2582.082611566</v>
       </c>
       <c r="D41" t="n">
-        <v>7557.4933509</v>
+        <v>14975.172762466</v>
       </c>
       <c r="E41" t="n">
-        <v>13.9422053415622</v>
+        <v>14.2672069089782</v>
       </c>
       <c r="F41" t="n">
-        <v>12.2260108788408</v>
+        <v>13.0374116566759</v>
       </c>
       <c r="G41" t="n">
-        <v>15238.1</v>
+        <v>16244.6</v>
       </c>
       <c r="H41" t="n">
-        <v>47893.5444491</v>
+        <v>95789.1444491</v>
       </c>
       <c r="I41" t="n">
-        <v>12.1551281979115</v>
+        <v>12.4580878832308</v>
+      </c>
+      <c r="J41" t="n">
+        <v>2582.082611566</v>
+      </c>
+      <c r="K41" t="n">
+        <v>16244.60000000001</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2013年4月</t>
+          <t>2013-07</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>13.8380404020688</v>
+        <v>14.9526988058055</v>
       </c>
       <c r="C42" t="n">
-        <v>2332.9968</v>
+        <v>2489.06154376249</v>
       </c>
       <c r="D42" t="n">
-        <v>9890.490150899999</v>
+        <v>17464.2343062285</v>
       </c>
       <c r="E42" t="n">
-        <v>13.9176174450686</v>
+        <v>14.3644055327727</v>
       </c>
       <c r="F42" t="n">
-        <v>12.6437799272523</v>
+        <v>12.9467264230893</v>
       </c>
       <c r="G42" t="n">
-        <v>15267.3</v>
+        <v>16024.1</v>
       </c>
       <c r="H42" t="n">
-        <v>63160.8</v>
+        <v>111813.3444491</v>
       </c>
       <c r="I42" t="n">
-        <v>12.2728572015041</v>
+        <v>12.5278555373995</v>
+      </c>
+      <c r="J42" t="n">
+        <v>2489.0615437625</v>
+      </c>
+      <c r="K42" t="n">
+        <v>16024.2</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2013年5月</t>
+          <t>2013-08</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>14.8291030340009</v>
+        <v>15.1444862276236</v>
       </c>
       <c r="C43" t="n">
-        <v>2502.6</v>
+        <v>2506.69546517537</v>
       </c>
       <c r="D43" t="n">
-        <v>12393.0901509</v>
+        <v>19970.9297714039</v>
       </c>
       <c r="E43" t="n">
-        <v>14.1005105164015</v>
+        <v>14.4617385111181</v>
       </c>
       <c r="F43" t="n">
-        <v>12.6020731589982</v>
+        <v>13.103391129617</v>
       </c>
       <c r="G43" t="n">
-        <v>16383.7</v>
+        <v>16379.52</v>
       </c>
       <c r="H43" t="n">
-        <v>79544.54444909999</v>
+        <v>128192.8444491</v>
       </c>
       <c r="I43" t="n">
-        <v>12.3405078425381</v>
+        <v>12.6010665448036</v>
+      </c>
+      <c r="J43" t="n">
+        <v>2506.695465175399</v>
+      </c>
+      <c r="K43" t="n">
+        <v>16379.5</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2013年6月</t>
+          <t>2013-09</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>15.0741181118037</v>
+        <v>14.7925138089376</v>
       </c>
       <c r="C44" t="n">
-        <v>2582.082611566</v>
+        <v>3046.93769403063</v>
       </c>
       <c r="D44" t="n">
-        <v>14975.172762466</v>
+        <v>23017.7806711709</v>
       </c>
       <c r="E44" t="n">
-        <v>14.2672069089782</v>
+        <v>14.5049828580205</v>
       </c>
       <c r="F44" t="n">
-        <v>13.0374116566759</v>
+        <v>13.0622965136814</v>
       </c>
       <c r="G44" t="n">
-        <v>16244.6</v>
+        <v>17606.4</v>
       </c>
       <c r="H44" t="n">
-        <v>95789.1444491</v>
+        <v>145799.1644491</v>
       </c>
       <c r="I44" t="n">
-        <v>12.4580878832308</v>
+        <v>12.6564865244916</v>
+      </c>
+      <c r="J44" t="n">
+        <v>3046.850899767003</v>
+      </c>
+      <c r="K44" t="n">
+        <v>17606.32000000001</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2013年7月</t>
+          <t>2013-10</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>14.9526988058055</v>
+        <v>14.5625179578947</v>
       </c>
       <c r="C45" t="n">
-        <v>2489.06154376249</v>
+        <v>2857.78142953801</v>
       </c>
       <c r="D45" t="n">
-        <v>17464.2343062285</v>
+        <v>25875.5621007089</v>
       </c>
       <c r="E45" t="n">
-        <v>14.3644055327727</v>
+        <v>14.5113343830422</v>
       </c>
       <c r="F45" t="n">
-        <v>12.9467264230893</v>
+        <v>13.1319999064781</v>
       </c>
       <c r="G45" t="n">
-        <v>16024.1</v>
+        <v>18633.5</v>
       </c>
       <c r="H45" t="n">
-        <v>111813.3444491</v>
+        <v>164432.6644491</v>
       </c>
       <c r="I45" t="n">
-        <v>12.5278555373995</v>
+        <v>12.7101707547316</v>
+      </c>
+      <c r="J45" t="n">
+        <v>2857.781429537998</v>
+      </c>
+      <c r="K45" t="n">
+        <v>18633.5</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2013年8月</t>
+          <t>2013-11</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>15.1444862276236</v>
+        <v>14.7982024963169</v>
       </c>
       <c r="C46" t="n">
-        <v>2506.69546517537</v>
+        <v>2807.73443665492</v>
       </c>
       <c r="D46" t="n">
-        <v>19970.9297714039</v>
+        <v>28683.2965373639</v>
       </c>
       <c r="E46" t="n">
-        <v>14.4617385111181</v>
+        <v>14.539351850498</v>
       </c>
       <c r="F46" t="n">
-        <v>13.103391129617</v>
+        <v>13.5569431535347</v>
       </c>
       <c r="G46" t="n">
-        <v>16379.52</v>
+        <v>18204.2</v>
       </c>
       <c r="H46" t="n">
-        <v>128192.8444491</v>
+        <v>182636.8644491</v>
       </c>
       <c r="I46" t="n">
-        <v>12.6010665448036</v>
+        <v>12.7940051380427</v>
+      </c>
+      <c r="J46" t="n">
+        <v>2807.734436655002</v>
+      </c>
+      <c r="K46" t="n">
+        <v>18204.19999999998</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2013年9月</t>
+          <t>2013-12</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>14.7925138089376</v>
+        <v>14.8</v>
       </c>
       <c r="C47" t="n">
-        <v>3046.93769403063</v>
+        <v>3234.6</v>
       </c>
       <c r="D47" t="n">
-        <v>23017.7806711709</v>
+        <v>31917.9</v>
       </c>
       <c r="E47" t="n">
-        <v>14.5049828580205</v>
+        <v>14.6</v>
       </c>
       <c r="F47" t="n">
-        <v>13.0622965136814</v>
+        <v>13.4</v>
       </c>
       <c r="G47" t="n">
-        <v>17606.4</v>
+        <v>19825.1</v>
       </c>
       <c r="H47" t="n">
-        <v>145799.1644491</v>
+        <v>202462</v>
       </c>
       <c r="I47" t="n">
-        <v>12.6564865244916</v>
+        <v>12.9</v>
+      </c>
+      <c r="J47" t="n">
+        <v>3234.6034626361</v>
+      </c>
+      <c r="K47" t="n">
+        <v>19825.13555090001</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2014年10月</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>12.4481459846006</v>
-      </c>
-      <c r="C48" t="n">
-        <v>3213.5222338077</v>
-      </c>
+          <t>2014-02</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr"/>
       <c r="D48" t="n">
-        <v>29232.4064474762</v>
+        <v>5814.42138844732</v>
       </c>
       <c r="E48" t="n">
-        <v>12.9726507193253</v>
-      </c>
-      <c r="F48" t="n">
-        <v>11.3784313199345</v>
-      </c>
-      <c r="G48" t="n">
-        <v>20753.7</v>
-      </c>
+        <v>12.8051546052858</v>
+      </c>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
       <c r="H48" t="n">
-        <v>183885.769116879</v>
+        <v>36466.2691168787</v>
       </c>
       <c r="I48" t="n">
-        <v>11.8304381510526</v>
+        <v>11.6697988101758</v>
+      </c>
+      <c r="J48" t="n">
+        <v>5814.42138844732</v>
+      </c>
+      <c r="K48" t="n">
+        <v>36466.2691168787</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2014年11月</t>
+          <t>2014-03</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>12.5106942955181</v>
+        <v>12.9147088078252</v>
       </c>
       <c r="C49" t="n">
-        <v>3159.0015086548</v>
+        <v>2713.45336736085</v>
       </c>
       <c r="D49" t="n">
-        <v>32391.407956131</v>
+        <v>8527.87475580816</v>
       </c>
       <c r="E49" t="n">
-        <v>12.9274311249573</v>
+        <v>12.839990190565</v>
       </c>
       <c r="F49" t="n">
-        <v>11.5986970039881</v>
+        <v>12.1340587081066</v>
       </c>
       <c r="G49" t="n">
-        <v>20315.65</v>
+        <v>17087.1</v>
       </c>
       <c r="H49" t="n">
-        <v>204201.419116879</v>
+        <v>53553.3691168787</v>
       </c>
       <c r="I49" t="n">
-        <v>11.807339516491</v>
+        <v>11.8175105494516</v>
+      </c>
+      <c r="J49" t="n">
+        <v>2713.453367360839</v>
+      </c>
+      <c r="K49" t="n">
+        <v>17087.1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2014年12月</t>
+          <t>2014-04</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>12.3846800060875</v>
+        <v>13.1939598399954</v>
       </c>
       <c r="C50" t="n">
-        <v>3635.21491074722</v>
+        <v>2640.81146086037</v>
       </c>
       <c r="D50" t="n">
-        <v>36026.6228668782</v>
+        <v>11168.6862166685</v>
       </c>
       <c r="E50" t="n">
-        <v>12.872427917108</v>
+        <v>12.9234855529605</v>
       </c>
       <c r="F50" t="n">
-        <v>11.8082632622282</v>
+        <v>11.7447092806194</v>
       </c>
       <c r="G50" t="n">
-        <v>22166.1</v>
+        <v>17060.4</v>
       </c>
       <c r="H50" t="n">
-        <v>226367.519116879</v>
+        <v>70613.7691168787</v>
       </c>
       <c r="I50" t="n">
-        <v>11.8074299697851</v>
+        <v>11.799912956808</v>
+      </c>
+      <c r="J50" t="n">
+        <v>2640.811460860341</v>
+      </c>
+      <c r="K50" t="n">
+        <v>17060.4</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2014年2月</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr"/>
-      <c r="C51" t="inlineStr"/>
+          <t>2014-05</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>13.8532608079722</v>
+      </c>
+      <c r="C51" t="n">
+        <v>2849.29170498031</v>
+      </c>
       <c r="D51" t="n">
-        <v>5814.42138844732</v>
+        <v>14017.9779216488</v>
       </c>
       <c r="E51" t="n">
-        <v>12.8051546052858</v>
-      </c>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr"/>
+        <v>13.1112398196414</v>
+      </c>
+      <c r="F51" t="n">
+        <v>12.3097957115914</v>
+      </c>
+      <c r="G51" t="n">
+        <v>18400.5</v>
+      </c>
       <c r="H51" t="n">
-        <v>36466.2691168787</v>
+        <v>89014.2691168787</v>
       </c>
       <c r="I51" t="n">
-        <v>11.6697988101758</v>
+        <v>11.9049329320609</v>
+      </c>
+      <c r="J51" t="n">
+        <v>2849.2917049803</v>
+      </c>
+      <c r="K51" t="n">
+        <v>18400.5</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2014年3月</t>
+          <t>2014-06</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>12.9147088078252</v>
+        <v>13.3871380711812</v>
       </c>
       <c r="C52" t="n">
-        <v>2713.45336736085</v>
+        <v>2927.7495758883</v>
       </c>
       <c r="D52" t="n">
-        <v>8527.87475580816</v>
+        <v>16945.7274975371</v>
       </c>
       <c r="E52" t="n">
-        <v>12.839990190565</v>
+        <v>13.1588113628324</v>
       </c>
       <c r="F52" t="n">
-        <v>12.1340587081066</v>
+        <v>12.2754638464474</v>
       </c>
       <c r="G52" t="n">
-        <v>17087.1</v>
+        <v>18238.7</v>
       </c>
       <c r="H52" t="n">
-        <v>53553.3691168787</v>
+        <v>107252.969116879</v>
       </c>
       <c r="I52" t="n">
-        <v>11.8175105494516</v>
+        <v>11.9677701828418</v>
+      </c>
+      <c r="J52" t="n">
+        <v>2927.7495758883</v>
+      </c>
+      <c r="K52" t="n">
+        <v>18238.7000000003</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2014年4月</t>
+          <t>2014-07</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>13.1939598399954</v>
+        <v>13.1788815026244</v>
       </c>
       <c r="C53" t="n">
-        <v>2640.81146086037</v>
+        <v>2817.09201514235</v>
       </c>
       <c r="D53" t="n">
-        <v>11168.6862166685</v>
+        <v>19762.8195126795</v>
       </c>
       <c r="E53" t="n">
-        <v>12.9234855529605</v>
+        <v>13.1616718268103</v>
       </c>
       <c r="F53" t="n">
-        <v>11.7447092806194</v>
+        <v>12.0730649459252</v>
       </c>
       <c r="G53" t="n">
-        <v>17060.4</v>
+        <v>17958.7</v>
       </c>
       <c r="H53" t="n">
-        <v>70613.7691168787</v>
+        <v>125211.669116879</v>
       </c>
       <c r="I53" t="n">
-        <v>11.799912956808</v>
+        <v>11.982860110886</v>
+      </c>
+      <c r="J53" t="n">
+        <v>2817.0920151424</v>
+      </c>
+      <c r="K53" t="n">
+        <v>17958.7</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2014年5月</t>
+          <t>2014-08</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>13.8532608079722</v>
+        <v>12.7991374371388</v>
       </c>
       <c r="C54" t="n">
-        <v>2849.29170498031</v>
+        <v>2827.53086289369</v>
       </c>
       <c r="D54" t="n">
-        <v>14017.9779216488</v>
+        <v>22590.3503755732</v>
       </c>
       <c r="E54" t="n">
-        <v>13.1112398196414</v>
+        <v>13.1161675202526</v>
       </c>
       <c r="F54" t="n">
-        <v>12.3097957115914</v>
+        <v>11.7639588950104</v>
       </c>
       <c r="G54" t="n">
-        <v>18400.5</v>
+        <v>18306.4</v>
       </c>
       <c r="H54" t="n">
-        <v>89014.2691168787</v>
+        <v>143518.069116879</v>
       </c>
       <c r="I54" t="n">
-        <v>11.9049329320609</v>
+        <v>11.954890538197</v>
+      </c>
+      <c r="J54" t="n">
+        <v>2827.530862893702</v>
+      </c>
+      <c r="K54" t="n">
+        <v>18306.39999999999</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2014年6月</t>
+          <t>2014-09</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>13.3871380711812</v>
+        <v>12.5206414562433</v>
       </c>
       <c r="C55" t="n">
-        <v>2927.7495758883</v>
+        <v>3428.43383809534</v>
       </c>
       <c r="D55" t="n">
-        <v>16945.7274975371</v>
+        <v>26018.8842136685</v>
       </c>
       <c r="E55" t="n">
-        <v>13.1588113628324</v>
+        <v>13.0377705612416</v>
       </c>
       <c r="F55" t="n">
-        <v>12.2754638464474</v>
+        <v>11.4026717557252</v>
       </c>
       <c r="G55" t="n">
-        <v>18238.7</v>
+        <v>19614</v>
       </c>
       <c r="H55" t="n">
-        <v>107252.969116879</v>
+        <v>163132.069116879</v>
       </c>
       <c r="I55" t="n">
-        <v>11.9677701828418</v>
+        <v>11.8882057611721</v>
+      </c>
+      <c r="J55" t="n">
+        <v>3428.5338380953</v>
+      </c>
+      <c r="K55" t="n">
+        <v>19614</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2014年7月</t>
+          <t>2014-10</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>13.1788815026244</v>
+        <v>12.4481459846006</v>
       </c>
       <c r="C56" t="n">
-        <v>2817.09201514235</v>
+        <v>3213.5222338077</v>
       </c>
       <c r="D56" t="n">
-        <v>19762.8195126795</v>
+        <v>29232.4064474762</v>
       </c>
       <c r="E56" t="n">
-        <v>13.1616718268103</v>
+        <v>12.9726507193253</v>
       </c>
       <c r="F56" t="n">
-        <v>12.0730649459252</v>
+        <v>11.3784313199345</v>
       </c>
       <c r="G56" t="n">
-        <v>17958.7</v>
+        <v>20753.7</v>
       </c>
       <c r="H56" t="n">
-        <v>125211.669116879</v>
+        <v>183885.769116879</v>
       </c>
       <c r="I56" t="n">
-        <v>11.982860110886</v>
+        <v>11.8304381510526</v>
+      </c>
+      <c r="J56" t="n">
+        <v>3213.5222338077</v>
+      </c>
+      <c r="K56" t="n">
+        <v>20753.70000000001</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>2014年8月</t>
+          <t>2014-11</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>12.7991374371388</v>
+        <v>12.5106942955181</v>
       </c>
       <c r="C57" t="n">
-        <v>2827.53086289369</v>
+        <v>3159.0015086548</v>
       </c>
       <c r="D57" t="n">
-        <v>22590.3503755732</v>
+        <v>32391.407956131</v>
       </c>
       <c r="E57" t="n">
-        <v>13.1161675202526</v>
+        <v>12.9274311249573</v>
       </c>
       <c r="F57" t="n">
-        <v>11.7639588950104</v>
+        <v>11.5986970039881</v>
       </c>
       <c r="G57" t="n">
-        <v>18306.4</v>
+        <v>20315.65</v>
       </c>
       <c r="H57" t="n">
-        <v>143518.069116879</v>
+        <v>204201.419116879</v>
       </c>
       <c r="I57" t="n">
-        <v>11.954890538197</v>
+        <v>11.807339516491</v>
+      </c>
+      <c r="J57" t="n">
+        <v>3159.001508654797</v>
+      </c>
+      <c r="K57" t="n">
+        <v>20315.64999999999</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>2014年9月</t>
+          <t>2014-12</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>12.5206414562433</v>
+        <v>12.3846800060875</v>
       </c>
       <c r="C58" t="n">
-        <v>3428.43383809534</v>
+        <v>3635.21491074722</v>
       </c>
       <c r="D58" t="n">
-        <v>26018.8842136685</v>
+        <v>36026.6228668782</v>
       </c>
       <c r="E58" t="n">
-        <v>13.0377705612416</v>
+        <v>12.872427917108</v>
       </c>
       <c r="F58" t="n">
-        <v>11.4026717557252</v>
+        <v>11.8082632622282</v>
       </c>
       <c r="G58" t="n">
-        <v>19614</v>
+        <v>22166.1</v>
       </c>
       <c r="H58" t="n">
-        <v>163132.069116879</v>
+        <v>226367.519116879</v>
       </c>
       <c r="I58" t="n">
-        <v>11.8882057611721</v>
+        <v>11.8074299697851</v>
+      </c>
+      <c r="J58" t="n">
+        <v>3635.2149107472</v>
+      </c>
+      <c r="K58" t="n">
+        <v>22166.10000000001</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2015年10月</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>12.2038056402043</v>
-      </c>
-      <c r="C59" t="n">
-        <v>3831.93960317683</v>
-      </c>
+          <t>2015-02</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr"/>
+      <c r="C59" t="inlineStr"/>
       <c r="D59" t="n">
-        <v>34069.2268943075</v>
+        <v>6857.46998169052</v>
       </c>
       <c r="E59" t="n">
-        <v>11.7930767351186</v>
-      </c>
-      <c r="F59" t="n">
-        <v>10.8407334639675</v>
-      </c>
-      <c r="G59" t="n">
-        <v>24446.95002</v>
-      </c>
+        <v>11.6354232673015</v>
+      </c>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
       <c r="H59" t="n">
-        <v>210289.549635794</v>
+        <v>41135.0390457941</v>
       </c>
       <c r="I59" t="n">
-        <v>10.3848752289372</v>
+        <v>10.5621260038795</v>
+      </c>
+      <c r="J59" t="n">
+        <v>6857.46998169052</v>
+      </c>
+      <c r="K59" t="n">
+        <v>41135.0390457941</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2015年11月</t>
+          <t>2015-03</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>12.1935996713585</v>
+        <v>11.4884540953736</v>
       </c>
       <c r="C60" t="n">
-        <v>3794.08162445686</v>
+        <v>3149.05322406633</v>
       </c>
       <c r="D60" t="n">
-        <v>37863.3085187644</v>
+        <v>10006.5232057568</v>
       </c>
       <c r="E60" t="n">
-        <v>11.8330820518005</v>
+        <v>11.5891302977236</v>
       </c>
       <c r="F60" t="n">
-        <v>11.013682897415</v>
+        <v>10.046995699134</v>
       </c>
       <c r="G60" t="n">
-        <v>24143.26421</v>
+        <v>19573.76171</v>
       </c>
       <c r="H60" t="n">
-        <v>234432.813845794</v>
+        <v>60708.8007557941</v>
       </c>
       <c r="I60" t="n">
-        <v>10.4493043030282</v>
+        <v>10.3955114371973</v>
+      </c>
+      <c r="J60" t="n">
+        <v>3149.053224066279</v>
+      </c>
+      <c r="K60" t="n">
+        <v>19573.76171</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>2015年12月</t>
+          <t>2015-04</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>12</v>
+        <v>11.4098161315497</v>
       </c>
       <c r="C61" t="n">
-        <v>4068.8</v>
+        <v>3039.17425200772</v>
       </c>
       <c r="D61" t="n">
-        <v>41932.1</v>
+        <v>13045.6974577646</v>
       </c>
       <c r="E61" t="n">
-        <v>11.8</v>
+        <v>11.5473050497502</v>
       </c>
       <c r="F61" t="n">
-        <v>10.9</v>
+        <v>9.784330548562661</v>
       </c>
       <c r="G61" t="n">
-        <v>24565.9</v>
+        <v>19347.5401</v>
       </c>
       <c r="H61" t="n">
-        <v>258998.7</v>
+        <v>80056.3408557941</v>
       </c>
       <c r="I61" t="n">
-        <v>10.5</v>
+        <v>10.2471821447184</v>
+      </c>
+      <c r="J61" t="n">
+        <v>3039.174252007801</v>
+      </c>
+      <c r="K61" t="n">
+        <v>19347.5401</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>2015年2月</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr"/>
-      <c r="C62" t="inlineStr"/>
+          <t>2015-05</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>11.5805887268406</v>
+      </c>
+      <c r="C62" t="n">
+        <v>3286.90288321282</v>
+      </c>
       <c r="D62" t="n">
-        <v>6857.46998169052</v>
+        <v>16332.6003409774</v>
       </c>
       <c r="E62" t="n">
-        <v>11.6354232673015</v>
-      </c>
-      <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr"/>
+        <v>11.5540017266075</v>
+      </c>
+      <c r="F62" t="n">
+        <v>9.9056196139629</v>
+      </c>
+      <c r="G62" t="n">
+        <v>20907.92018</v>
+      </c>
       <c r="H62" t="n">
-        <v>41135.0390457941</v>
+        <v>100964.261035794</v>
       </c>
       <c r="I62" t="n">
-        <v>10.5621260038795</v>
+        <v>10.1762763748825</v>
+      </c>
+      <c r="J62" t="n">
+        <v>3286.902883212801</v>
+      </c>
+      <c r="K62" t="n">
+        <v>20907.9201799999</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>2015年3月</t>
+          <t>2015-06</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>11.4884540953736</v>
+        <v>11.8130066342968</v>
       </c>
       <c r="C63" t="n">
-        <v>3149.05322406633</v>
+        <v>3394.3075375</v>
       </c>
       <c r="D63" t="n">
-        <v>10006.5232057568</v>
+        <v>19726.9078784774</v>
       </c>
       <c r="E63" t="n">
-        <v>11.5891302977236</v>
+        <v>11.5984818646379</v>
       </c>
       <c r="F63" t="n">
-        <v>10.046995699134</v>
+        <v>10.4423643473231</v>
       </c>
       <c r="G63" t="n">
-        <v>19573.76171</v>
+        <v>20885.96334</v>
       </c>
       <c r="H63" t="n">
-        <v>60708.8007557941</v>
+        <v>121850.224375794</v>
       </c>
       <c r="I63" t="n">
-        <v>10.3955114371973</v>
+        <v>10.221794587985</v>
+      </c>
+      <c r="J63" t="n">
+        <v>3394.307537499999</v>
+      </c>
+      <c r="K63" t="n">
+        <v>20885.96334</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>2015年4月</t>
+          <t>2015-07</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>11.4098161315497</v>
+        <v>11.9255191913319</v>
       </c>
       <c r="C64" t="n">
-        <v>3039.17425200772</v>
+        <v>3342.41687836049</v>
       </c>
       <c r="D64" t="n">
-        <v>13045.6974577646</v>
+        <v>23069.3247568379</v>
       </c>
       <c r="E64" t="n">
-        <v>11.5473050497502</v>
+        <v>11.6457464792568</v>
       </c>
       <c r="F64" t="n">
-        <v>9.784330548562661</v>
+        <v>10.2906419981768</v>
       </c>
       <c r="G64" t="n">
-        <v>19347.5401</v>
+        <v>20996.36074</v>
       </c>
       <c r="H64" t="n">
-        <v>80056.3408557941</v>
+        <v>142846.585115794</v>
       </c>
       <c r="I64" t="n">
-        <v>10.2471821447184</v>
+        <v>10.2319087623001</v>
+      </c>
+      <c r="J64" t="n">
+        <v>3342.416878360502</v>
+      </c>
+      <c r="K64" t="n">
+        <v>20996.36074</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>2015年5月</t>
+          <t>2015-08</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>11.5805887268406</v>
+        <v>11.9453933753401</v>
       </c>
       <c r="C65" t="n">
-        <v>3286.90288321282</v>
+        <v>3365.17192237167</v>
       </c>
       <c r="D65" t="n">
-        <v>16332.6003409774</v>
+        <v>26434.4966792095</v>
       </c>
       <c r="E65" t="n">
-        <v>11.5540017266075</v>
+        <v>11.6838030771723</v>
       </c>
       <c r="F65" t="n">
-        <v>9.9056196139629</v>
+        <v>10.6142174203929</v>
       </c>
       <c r="G65" t="n">
-        <v>20907.92018</v>
+        <v>21528.19282</v>
       </c>
       <c r="H65" t="n">
-        <v>100964.261035794</v>
+        <v>164374.777935794</v>
       </c>
       <c r="I65" t="n">
-        <v>10.1762763748825</v>
+        <v>10.2818293327415</v>
+      </c>
+      <c r="J65" t="n">
+        <v>3365.171922371599</v>
+      </c>
+      <c r="K65" t="n">
+        <v>21528.19282</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>2015年6月</t>
+          <t>2015-09</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>11.8130066342968</v>
+        <v>12.1</v>
       </c>
       <c r="C66" t="n">
-        <v>3394.3075375</v>
+        <v>3802.8</v>
       </c>
       <c r="D66" t="n">
-        <v>19726.9078784774</v>
+        <v>30237.3</v>
       </c>
       <c r="E66" t="n">
-        <v>11.5984818646379</v>
+        <v>11.7</v>
       </c>
       <c r="F66" t="n">
-        <v>10.4423643473231</v>
+        <v>10.7</v>
       </c>
       <c r="G66" t="n">
-        <v>20885.96334</v>
+        <v>21467.8</v>
       </c>
       <c r="H66" t="n">
-        <v>121850.224375794</v>
+        <v>185842.6</v>
       </c>
       <c r="I66" t="n">
-        <v>10.221794587985</v>
+        <v>10.3</v>
+      </c>
+      <c r="J66" t="n">
+        <v>3802.803320790499</v>
+      </c>
+      <c r="K66" t="n">
+        <v>21467.822064206</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>2015年7月</t>
+          <t>2015-10</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>11.9255191913319</v>
+        <v>12.2038056402043</v>
       </c>
       <c r="C67" t="n">
-        <v>3342.41687836049</v>
+        <v>3831.93960317683</v>
       </c>
       <c r="D67" t="n">
-        <v>23069.3247568379</v>
+        <v>34069.2268943075</v>
       </c>
       <c r="E67" t="n">
-        <v>11.6457464792568</v>
+        <v>11.7930767351186</v>
       </c>
       <c r="F67" t="n">
-        <v>10.2906419981768</v>
+        <v>10.8407334639675</v>
       </c>
       <c r="G67" t="n">
-        <v>20996.36074</v>
+        <v>24446.95002</v>
       </c>
       <c r="H67" t="n">
-        <v>142846.585115794</v>
+        <v>210289.549635794</v>
       </c>
       <c r="I67" t="n">
-        <v>10.2319087623001</v>
+        <v>10.3848752289372</v>
+      </c>
+      <c r="J67" t="n">
+        <v>3831.926894307504</v>
+      </c>
+      <c r="K67" t="n">
+        <v>24446.94963579401</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>2015年8月</t>
+          <t>2015-11</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>11.9453933753401</v>
+        <v>12.1935996713585</v>
       </c>
       <c r="C68" t="n">
-        <v>3365.17192237167</v>
+        <v>3794.08162445686</v>
       </c>
       <c r="D68" t="n">
-        <v>26434.4966792095</v>
+        <v>37863.3085187644</v>
       </c>
       <c r="E68" t="n">
-        <v>11.6838030771723</v>
+        <v>11.8330820518005</v>
       </c>
       <c r="F68" t="n">
-        <v>10.6142174203929</v>
+        <v>11.013682897415</v>
       </c>
       <c r="G68" t="n">
-        <v>21528.19282</v>
+        <v>24143.26421</v>
       </c>
       <c r="H68" t="n">
-        <v>164374.777935794</v>
+        <v>234432.813845794</v>
       </c>
       <c r="I68" t="n">
-        <v>10.2818293327415</v>
+        <v>10.4493043030282</v>
+      </c>
+      <c r="J68" t="n">
+        <v>3794.0816244569</v>
+      </c>
+      <c r="K68" t="n">
+        <v>24143.26420999999</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>2015年9月</t>
+          <t>2015-12</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="C69" t="n">
-        <v>3802.8</v>
+        <v>4068.8</v>
       </c>
       <c r="D69" t="n">
-        <v>30237.3</v>
+        <v>41932.1</v>
       </c>
       <c r="E69" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="F69" t="n">
-        <v>10.7</v>
+        <v>10.9</v>
       </c>
       <c r="G69" t="n">
-        <v>21467.8</v>
+        <v>24565.9</v>
       </c>
       <c r="H69" t="n">
-        <v>185842.6</v>
+        <v>258998.7</v>
       </c>
       <c r="I69" t="n">
-        <v>10.3</v>
+        <v>10.5</v>
+      </c>
+      <c r="J69" t="n">
+        <v>4068.791481235596</v>
+      </c>
+      <c r="K69" t="n">
+        <v>24565.886154206</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>2016年10月</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="C70" t="n">
-        <v>4226.1</v>
-      </c>
+          <t>2016-02</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr"/>
       <c r="D70" t="n">
-        <v>37768.1</v>
+        <v>7606.9</v>
       </c>
       <c r="E70" t="n">
         <v>10.9</v>
       </c>
-      <c r="F70" t="n">
-        <v>10</v>
-      </c>
-      <c r="G70" t="n">
-        <v>26893.1</v>
-      </c>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
       <c r="H70" t="n">
-        <v>231832.9</v>
+        <v>45303.4</v>
       </c>
       <c r="I70" t="n">
-        <v>10.2</v>
+        <v>10.1</v>
+      </c>
+      <c r="J70" t="n">
+        <v>7606.9</v>
+      </c>
+      <c r="K70" t="n">
+        <v>45303.4</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>2016年11月</t>
+          <t>2016-03</t>
         </is>
       </c>
       <c r="B71" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="C71" t="n">
+        <v>3498</v>
+      </c>
+      <c r="D71" t="n">
+        <v>11104.9</v>
+      </c>
+      <c r="E71" t="n">
         <v>11</v>
       </c>
-      <c r="C71" t="n">
-        <v>4210.4</v>
-      </c>
-      <c r="D71" t="n">
-        <v>41978.5</v>
-      </c>
-      <c r="E71" t="n">
-        <v>10.9</v>
-      </c>
       <c r="F71" t="n">
-        <v>10.8</v>
+        <v>10.4</v>
       </c>
       <c r="G71" t="n">
-        <v>26748.2</v>
+        <v>21616.1</v>
       </c>
       <c r="H71" t="n">
-        <v>258581.1</v>
+        <v>66919.5</v>
       </c>
       <c r="I71" t="n">
-        <v>10.3</v>
+        <v>10.2</v>
+      </c>
+      <c r="J71" t="n">
+        <v>3498</v>
+      </c>
+      <c r="K71" t="n">
+        <v>21616.1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>2016年12月</t>
+          <t>2016-04</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>11.2</v>
+        <v>10.9</v>
       </c>
       <c r="C72" t="n">
-        <v>4524</v>
+        <v>3371.6</v>
       </c>
       <c r="D72" t="n">
-        <v>46503</v>
+        <v>14476.4</v>
       </c>
       <c r="E72" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="F72" t="n">
-        <v>10.9</v>
+        <v>10</v>
       </c>
       <c r="G72" t="n">
-        <v>27233</v>
+        <v>21274.2</v>
       </c>
       <c r="H72" t="n">
-        <v>285814</v>
+        <v>88193.8</v>
       </c>
       <c r="I72" t="n">
-        <v>10.4</v>
+        <v>10.2</v>
+      </c>
+      <c r="J72" t="n">
+        <v>3371.5</v>
+      </c>
+      <c r="K72" t="n">
+        <v>21274.3</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>2016年2月</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr"/>
-      <c r="C73" t="inlineStr"/>
+          <t>2016-05</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="C73" t="n">
+        <v>3637.8</v>
+      </c>
       <c r="D73" t="n">
-        <v>7606.9</v>
+        <v>18114.2</v>
       </c>
       <c r="E73" t="n">
         <v>10.9</v>
       </c>
-      <c r="F73" t="inlineStr"/>
-      <c r="G73" t="inlineStr"/>
+      <c r="F73" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="G73" t="n">
+        <v>22972.9</v>
+      </c>
       <c r="H73" t="n">
-        <v>45303.4</v>
+        <v>111166.7</v>
       </c>
       <c r="I73" t="n">
         <v>10.1</v>
       </c>
+      <c r="J73" t="n">
+        <v>3637.800000000001</v>
+      </c>
+      <c r="K73" t="n">
+        <v>22972.89999999999</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>2016年3月</t>
+          <t>2016-06</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="C74" t="n">
-        <v>3498</v>
+        <v>3775.3</v>
       </c>
       <c r="D74" t="n">
-        <v>11104.9</v>
+        <v>21889.5</v>
       </c>
       <c r="E74" t="n">
         <v>11</v>
       </c>
       <c r="F74" t="n">
-        <v>10.4</v>
+        <v>10.5</v>
       </c>
       <c r="G74" t="n">
-        <v>21616.1</v>
+        <v>23082.1</v>
       </c>
       <c r="H74" t="n">
-        <v>66919.5</v>
+        <v>134248.8</v>
       </c>
       <c r="I74" t="n">
         <v>10.2</v>
       </c>
+      <c r="J74" t="n">
+        <v>3775.299999999999</v>
+      </c>
+      <c r="K74" t="n">
+        <v>23082.09999999999</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>2016年4月</t>
+          <t>2016-07</t>
         </is>
       </c>
       <c r="B75" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="C75" t="n">
+        <v>3701.4</v>
+      </c>
+      <c r="D75" t="n">
+        <v>25590.9</v>
+      </c>
+      <c r="E75" t="n">
         <v>10.9</v>
       </c>
-      <c r="C75" t="n">
-        <v>3371.6</v>
-      </c>
-      <c r="D75" t="n">
-        <v>14476.4</v>
-      </c>
-      <c r="E75" t="n">
-        <v>11</v>
-      </c>
       <c r="F75" t="n">
-        <v>10</v>
+        <v>10.1</v>
       </c>
       <c r="G75" t="n">
-        <v>21274.2</v>
+        <v>23126.1</v>
       </c>
       <c r="H75" t="n">
-        <v>88193.8</v>
+        <v>157374.9</v>
       </c>
       <c r="I75" t="n">
         <v>10.2</v>
       </c>
+      <c r="J75" t="n">
+        <v>3701.400000000001</v>
+      </c>
+      <c r="K75" t="n">
+        <v>23126.10000000001</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>2016年5月</t>
+          <t>2016-08</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>10.7</v>
+        <v>10.9</v>
       </c>
       <c r="C76" t="n">
-        <v>3637.8</v>
+        <v>3731.9</v>
       </c>
       <c r="D76" t="n">
-        <v>18114.2</v>
+        <v>29322.8</v>
       </c>
       <c r="E76" t="n">
         <v>10.9</v>
       </c>
       <c r="F76" t="n">
-        <v>9.9</v>
+        <v>10.6</v>
       </c>
       <c r="G76" t="n">
-        <v>22972.9</v>
+        <v>23807.7</v>
       </c>
       <c r="H76" t="n">
-        <v>111166.7</v>
+        <v>181182.6</v>
       </c>
       <c r="I76" t="n">
-        <v>10.1</v>
+        <v>10.2</v>
+      </c>
+      <c r="J76" t="n">
+        <v>3731.899999999998</v>
+      </c>
+      <c r="K76" t="n">
+        <v>23807.70000000001</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>2016年6月</t>
+          <t>2016-09</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>11.2</v>
+        <v>11</v>
       </c>
       <c r="C77" t="n">
-        <v>3775.3</v>
+        <v>4219.2</v>
       </c>
       <c r="D77" t="n">
-        <v>21889.5</v>
+        <v>33542</v>
       </c>
       <c r="E77" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="F77" t="n">
-        <v>10.5</v>
+        <v>10.7</v>
       </c>
       <c r="G77" t="n">
-        <v>23082.1</v>
+        <v>23757.2</v>
       </c>
       <c r="H77" t="n">
-        <v>134248.8</v>
+        <v>204939.8</v>
       </c>
       <c r="I77" t="n">
-        <v>10.2</v>
+        <v>10.3</v>
+      </c>
+      <c r="J77" t="n">
+        <v>4219.200000000001</v>
+      </c>
+      <c r="K77" t="n">
+        <v>23757.19999999998</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>2016年7月</t>
+          <t>2016-10</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>10.7</v>
+        <v>10.3</v>
       </c>
       <c r="C78" t="n">
-        <v>3701.4</v>
+        <v>4226.1</v>
       </c>
       <c r="D78" t="n">
-        <v>25590.9</v>
+        <v>37768.1</v>
       </c>
       <c r="E78" t="n">
         <v>10.9</v>
       </c>
       <c r="F78" t="n">
-        <v>10.1</v>
+        <v>10</v>
       </c>
       <c r="G78" t="n">
-        <v>23126.1</v>
+        <v>26893.1</v>
       </c>
       <c r="H78" t="n">
-        <v>157374.9</v>
+        <v>231832.9</v>
       </c>
       <c r="I78" t="n">
         <v>10.2</v>
       </c>
+      <c r="J78" t="n">
+        <v>4226.099999999999</v>
+      </c>
+      <c r="K78" t="n">
+        <v>26893.10000000001</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>2016年8月</t>
+          <t>2016-11</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="C79" t="n">
-        <v>3731.9</v>
+        <v>4210.4</v>
       </c>
       <c r="D79" t="n">
-        <v>29322.8</v>
+        <v>41978.5</v>
       </c>
       <c r="E79" t="n">
         <v>10.9</v>
       </c>
       <c r="F79" t="n">
-        <v>10.6</v>
+        <v>10.8</v>
       </c>
       <c r="G79" t="n">
-        <v>23807.7</v>
+        <v>26748.2</v>
       </c>
       <c r="H79" t="n">
-        <v>181182.6</v>
+        <v>258581.1</v>
       </c>
       <c r="I79" t="n">
-        <v>10.2</v>
+        <v>10.3</v>
+      </c>
+      <c r="J79" t="n">
+        <v>4210.400000000001</v>
+      </c>
+      <c r="K79" t="n">
+        <v>26748.20000000001</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>2016年9月</t>
+          <t>2016-12</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>11</v>
+        <v>11.2</v>
       </c>
       <c r="C80" t="n">
-        <v>4219.2</v>
+        <v>4524</v>
       </c>
       <c r="D80" t="n">
-        <v>33542</v>
+        <v>46503</v>
       </c>
       <c r="E80" t="n">
         <v>10.9</v>
       </c>
       <c r="F80" t="n">
-        <v>10.7</v>
+        <v>10.9</v>
       </c>
       <c r="G80" t="n">
-        <v>23757.2</v>
+        <v>27233</v>
       </c>
       <c r="H80" t="n">
-        <v>204939.8</v>
+        <v>285814</v>
       </c>
       <c r="I80" t="n">
-        <v>10.3</v>
+        <v>10.4</v>
+      </c>
+      <c r="J80" t="n">
+        <v>4524.5</v>
+      </c>
+      <c r="K80" t="n">
+        <v>27232.89999999999</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>2017年10月</t>
-        </is>
-      </c>
-      <c r="B81" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="C81" t="n">
-        <v>4704.3</v>
-      </c>
+          <t>2017-02</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr"/>
+      <c r="C81" t="inlineStr"/>
       <c r="D81" t="n">
-        <v>42290.2</v>
+        <v>8501.700000000001</v>
       </c>
       <c r="E81" t="n">
-        <v>12</v>
-      </c>
-      <c r="F81" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="G81" t="n">
-        <v>29536.6</v>
-      </c>
+        <v>11.8</v>
+      </c>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
       <c r="H81" t="n">
-        <v>255129.1</v>
+        <v>49457.9</v>
       </c>
       <c r="I81" t="n">
-        <v>10</v>
+        <v>9.199999999999999</v>
+      </c>
+      <c r="J81" t="n">
+        <v>8501.700000000001</v>
+      </c>
+      <c r="K81" t="n">
+        <v>49457.9</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>2017年11月</t>
+          <t>2017-03</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>11.7</v>
+        <v>12.2</v>
       </c>
       <c r="C82" t="n">
-        <v>4701.1</v>
+        <v>3923.9</v>
       </c>
       <c r="D82" t="n">
-        <v>46991.3</v>
+        <v>12425.6</v>
       </c>
       <c r="E82" t="n">
         <v>11.9</v>
       </c>
       <c r="F82" t="n">
-        <v>9.9</v>
+        <v>10.7</v>
       </c>
       <c r="G82" t="n">
-        <v>29407.1</v>
+        <v>23939.8</v>
       </c>
       <c r="H82" t="n">
-        <v>284536.1</v>
+        <v>73397.7</v>
       </c>
       <c r="I82" t="n">
-        <v>10</v>
+        <v>9.699999999999999</v>
+      </c>
+      <c r="J82" t="n">
+        <v>3923.9</v>
+      </c>
+      <c r="K82" t="n">
+        <v>23939.8</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>2017年12月</t>
+          <t>2017-04</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>10.1</v>
+        <v>12.6</v>
       </c>
       <c r="C83" t="n">
-        <v>4980.6</v>
+        <v>3795.3</v>
       </c>
       <c r="D83" t="n">
-        <v>51971.9</v>
+        <v>16220.9</v>
       </c>
       <c r="E83" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="F83" t="n">
-        <v>9.300000000000001</v>
+        <v>10.4</v>
       </c>
       <c r="G83" t="n">
-        <v>29753.5</v>
+        <v>23483.2</v>
       </c>
       <c r="H83" t="n">
-        <v>314289.7</v>
+        <v>96880.89999999999</v>
       </c>
       <c r="I83" t="n">
-        <v>10</v>
+        <v>9.9</v>
+      </c>
+      <c r="J83" t="n">
+        <v>3795.299999999999</v>
+      </c>
+      <c r="K83" t="n">
+        <v>23483.2</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>2017年2月</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr"/>
-      <c r="C84" t="inlineStr"/>
+          <t>2017-05</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="C84" t="n">
+        <v>4099.1</v>
+      </c>
       <c r="D84" t="n">
-        <v>8501.700000000001</v>
+        <v>20320</v>
       </c>
       <c r="E84" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F84" t="inlineStr"/>
-      <c r="G84" t="inlineStr"/>
+        <v>12.2</v>
+      </c>
+      <c r="F84" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="G84" t="n">
+        <v>25360.1</v>
+      </c>
       <c r="H84" t="n">
-        <v>49457.9</v>
+        <v>122241</v>
       </c>
       <c r="I84" t="n">
-        <v>9.199999999999999</v>
+        <v>10</v>
+      </c>
+      <c r="J84" t="n">
+        <v>4099.1</v>
+      </c>
+      <c r="K84" t="n">
+        <v>25360.10000000001</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>2017年3月</t>
+          <t>2017-06</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>12.2</v>
+        <v>12.9</v>
       </c>
       <c r="C85" t="n">
-        <v>3923.9</v>
+        <v>4262.8</v>
       </c>
       <c r="D85" t="n">
-        <v>12425.6</v>
+        <v>24582.8</v>
       </c>
       <c r="E85" t="n">
-        <v>11.9</v>
+        <v>12.3</v>
       </c>
       <c r="F85" t="n">
         <v>10.7</v>
       </c>
       <c r="G85" t="n">
-        <v>23939.8</v>
+        <v>25544.8</v>
       </c>
       <c r="H85" t="n">
-        <v>73397.7</v>
+        <v>147785.8</v>
       </c>
       <c r="I85" t="n">
-        <v>9.699999999999999</v>
+        <v>10.1</v>
+      </c>
+      <c r="J85" t="n">
+        <v>4262.799999999999</v>
+      </c>
+      <c r="K85" t="n">
+        <v>25544.79999999999</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>2017年4月</t>
+          <t>2017-07</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>12.6</v>
+        <v>11.7</v>
       </c>
       <c r="C86" t="n">
-        <v>3795.3</v>
+        <v>4136.3</v>
       </c>
       <c r="D86" t="n">
-        <v>16220.9</v>
+        <v>28719</v>
       </c>
       <c r="E86" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="F86" t="n">
-        <v>10.4</v>
+        <v>10.2</v>
       </c>
       <c r="G86" t="n">
-        <v>23483.2</v>
+        <v>25473.5</v>
       </c>
       <c r="H86" t="n">
-        <v>96880.89999999999</v>
+        <v>173259.4</v>
       </c>
       <c r="I86" t="n">
-        <v>9.9</v>
+        <v>10.1</v>
+      </c>
+      <c r="J86" t="n">
+        <v>4136.200000000001</v>
+      </c>
+      <c r="K86" t="n">
+        <v>25473.60000000001</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>2017年5月</t>
+          <t>2017-08</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>12.7</v>
+        <v>11.5</v>
       </c>
       <c r="C87" t="n">
-        <v>4099.1</v>
+        <v>4160.6</v>
       </c>
       <c r="D87" t="n">
-        <v>20320</v>
+        <v>32879.7</v>
       </c>
       <c r="E87" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="F87" t="n">
-        <v>10.4</v>
+        <v>9.9</v>
       </c>
       <c r="G87" t="n">
-        <v>25360.1</v>
+        <v>26169.1</v>
       </c>
       <c r="H87" t="n">
-        <v>122241</v>
+        <v>199428.4</v>
       </c>
       <c r="I87" t="n">
-        <v>10</v>
+        <v>10.1</v>
+      </c>
+      <c r="J87" t="n">
+        <v>4160.699999999997</v>
+      </c>
+      <c r="K87" t="n">
+        <v>26169</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>2017年6月</t>
+          <t>2017-09</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>12.9</v>
+        <v>11.5</v>
       </c>
       <c r="C88" t="n">
-        <v>4262.8</v>
+        <v>4706.2</v>
       </c>
       <c r="D88" t="n">
-        <v>24582.8</v>
+        <v>37585.9</v>
       </c>
       <c r="E88" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="F88" t="n">
-        <v>10.7</v>
+        <v>10.1</v>
       </c>
       <c r="G88" t="n">
-        <v>25544.8</v>
+        <v>26164.1</v>
       </c>
       <c r="H88" t="n">
-        <v>147785.8</v>
+        <v>225592.5</v>
       </c>
       <c r="I88" t="n">
         <v>10.1</v>
       </c>
+      <c r="J88" t="n">
+        <v>4706.200000000004</v>
+      </c>
+      <c r="K88" t="n">
+        <v>26164.10000000001</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>2017年7月</t>
+          <t>2017-10</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>11.7</v>
+        <v>11.3</v>
       </c>
       <c r="C89" t="n">
-        <v>4136.3</v>
+        <v>4704.3</v>
       </c>
       <c r="D89" t="n">
-        <v>28719</v>
+        <v>42290.2</v>
       </c>
       <c r="E89" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="F89" t="n">
-        <v>10.2</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="G89" t="n">
-        <v>25473.5</v>
+        <v>29536.6</v>
       </c>
       <c r="H89" t="n">
-        <v>173259.4</v>
+        <v>255129.1</v>
       </c>
       <c r="I89" t="n">
-        <v>10.1</v>
+        <v>10</v>
+      </c>
+      <c r="J89" t="n">
+        <v>4704.299999999996</v>
+      </c>
+      <c r="K89" t="n">
+        <v>29536.60000000001</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>2017年8月</t>
+          <t>2017-11</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>11.5</v>
+        <v>11.7</v>
       </c>
       <c r="C90" t="n">
-        <v>4160.6</v>
+        <v>4701.1</v>
       </c>
       <c r="D90" t="n">
-        <v>32879.7</v>
+        <v>46991.3</v>
       </c>
       <c r="E90" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="F90" t="n">
         <v>9.9</v>
       </c>
       <c r="G90" t="n">
-        <v>26169.1</v>
+        <v>29407.1</v>
       </c>
       <c r="H90" t="n">
-        <v>199428.4</v>
+        <v>284536.1</v>
       </c>
       <c r="I90" t="n">
-        <v>10.1</v>
+        <v>10</v>
+      </c>
+      <c r="J90" t="n">
+        <v>4701.100000000006</v>
+      </c>
+      <c r="K90" t="n">
+        <v>29406.99999999997</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>2017年9月</t>
+          <t>2017-12</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>11.5</v>
+        <v>10.1</v>
       </c>
       <c r="C91" t="n">
-        <v>4706.2</v>
+        <v>4980.6</v>
       </c>
       <c r="D91" t="n">
-        <v>37585.9</v>
+        <v>51971.9</v>
       </c>
       <c r="E91" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="F91" t="n">
-        <v>10.1</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="G91" t="n">
-        <v>26164.1</v>
+        <v>29753.5</v>
       </c>
       <c r="H91" t="n">
-        <v>225592.5</v>
+        <v>314289.7</v>
       </c>
       <c r="I91" t="n">
-        <v>10.1</v>
+        <v>10</v>
+      </c>
+      <c r="J91" t="n">
+        <v>4980.599999999999</v>
+      </c>
+      <c r="K91" t="n">
+        <v>29753.60000000003</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>2018年10月</t>
-        </is>
-      </c>
-      <c r="B92" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="C92" t="n">
-        <v>4933.8</v>
-      </c>
+          <t>2018-02</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr"/>
+      <c r="C92" t="inlineStr"/>
       <c r="D92" t="n">
-        <v>44515.6</v>
+        <v>9035.6</v>
       </c>
       <c r="E92" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="F92" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="G92" t="n">
-        <v>30600.6</v>
-      </c>
+        <v>10.7</v>
+      </c>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr"/>
       <c r="H92" t="n">
-        <v>265318</v>
+        <v>52046.2</v>
       </c>
       <c r="I92" t="n">
-        <v>9</v>
+        <v>9.6</v>
+      </c>
+      <c r="J92" t="n">
+        <v>9035.6</v>
+      </c>
+      <c r="K92" t="n">
+        <v>52046.2</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>2018年11月</t>
+          <t>2018-03</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>9.300000000000001</v>
+        <v>10.9</v>
       </c>
       <c r="C93" t="n">
-        <v>5269.7</v>
+        <v>4143.4</v>
       </c>
       <c r="D93" t="n">
-        <v>49785.3</v>
+        <v>13178.9</v>
       </c>
       <c r="E93" t="n">
-        <v>10.2</v>
+        <v>10.7</v>
       </c>
       <c r="F93" t="n">
-        <v>7.9</v>
+        <v>9.9</v>
       </c>
       <c r="G93" t="n">
-        <v>29990</v>
+        <v>25050.3</v>
       </c>
       <c r="H93" t="n">
-        <v>295308</v>
+        <v>77096.5</v>
       </c>
       <c r="I93" t="n">
-        <v>8.9</v>
+        <v>9.699999999999999</v>
+      </c>
+      <c r="J93" t="n">
+        <v>4143.299999999999</v>
+      </c>
+      <c r="K93" t="n">
+        <v>25050.3</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>2018年12月</t>
+          <t>2018-04</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>9.3172962657</v>
+        <v>10.6</v>
       </c>
       <c r="C94" t="n">
-        <v>5564.6310358266</v>
+        <v>4014.2</v>
       </c>
       <c r="D94" t="n">
-        <v>55349.9527985133</v>
+        <v>17193.1</v>
       </c>
       <c r="E94" t="n">
-        <v>10.1188141254</v>
+        <v>10.7</v>
       </c>
       <c r="F94" t="n">
-        <v>7.9512778175</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="G94" t="n">
-        <v>30328.8673</v>
+        <v>24527.7</v>
       </c>
       <c r="H94" t="n">
-        <v>325636.899374254</v>
+        <v>101624.2</v>
       </c>
       <c r="I94" t="n">
-        <v>8.7908494588</v>
+        <v>9.6</v>
+      </c>
+      <c r="J94" t="n">
+        <v>4014.199999999999</v>
+      </c>
+      <c r="K94" t="n">
+        <v>24527.7</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>2018年2月</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr"/>
-      <c r="C95" t="inlineStr"/>
+          <t>2018-05</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="C95" t="n">
+        <v>4266.9</v>
+      </c>
       <c r="D95" t="n">
-        <v>9035.6</v>
+        <v>21460</v>
       </c>
       <c r="E95" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="F95" t="inlineStr"/>
-      <c r="G95" t="inlineStr"/>
+        <v>10.5</v>
+      </c>
+      <c r="F95" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="G95" t="n">
+        <v>26092.2</v>
+      </c>
       <c r="H95" t="n">
-        <v>52046.2</v>
+        <v>127716.4</v>
       </c>
       <c r="I95" t="n">
-        <v>9.6</v>
+        <v>9.300000000000001</v>
+      </c>
+      <c r="J95" t="n">
+        <v>4266.900000000001</v>
+      </c>
+      <c r="K95" t="n">
+        <v>26092.2</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>2018年3月</t>
+          <t>2018-06</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>10.9</v>
+        <v>10.4</v>
       </c>
       <c r="C96" t="n">
-        <v>4143.4</v>
+        <v>4466.6</v>
       </c>
       <c r="D96" t="n">
-        <v>13178.9</v>
+        <v>25926.6</v>
       </c>
       <c r="E96" t="n">
-        <v>10.7</v>
+        <v>10.5</v>
       </c>
       <c r="F96" t="n">
-        <v>9.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G96" t="n">
-        <v>25050.3</v>
+        <v>26374.9</v>
       </c>
       <c r="H96" t="n">
-        <v>77096.5</v>
+        <v>154091.3</v>
       </c>
       <c r="I96" t="n">
-        <v>9.699999999999999</v>
+        <v>9.199999999999999</v>
+      </c>
+      <c r="J96" t="n">
+        <v>4466.599999999999</v>
+      </c>
+      <c r="K96" t="n">
+        <v>26374.89999999999</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>2018年4月</t>
+          <t>2018-07</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>10.6</v>
+        <v>10.1</v>
       </c>
       <c r="C97" t="n">
-        <v>4014.2</v>
+        <v>4345.5</v>
       </c>
       <c r="D97" t="n">
-        <v>17193.1</v>
+        <v>30272.1</v>
       </c>
       <c r="E97" t="n">
-        <v>10.7</v>
+        <v>10.4</v>
       </c>
       <c r="F97" t="n">
-        <v>9.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="G97" t="n">
-        <v>24527.7</v>
+        <v>26388.2</v>
       </c>
       <c r="H97" t="n">
-        <v>101624.2</v>
+        <v>180479.6</v>
       </c>
       <c r="I97" t="n">
-        <v>9.6</v>
+        <v>9.1</v>
+      </c>
+      <c r="J97" t="n">
+        <v>4345.5</v>
+      </c>
+      <c r="K97" t="n">
+        <v>26388.30000000002</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>2018年5月</t>
+          <t>2018-08</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>9.6</v>
+        <v>10.2</v>
       </c>
       <c r="C98" t="n">
-        <v>4266.9</v>
+        <v>4373.3</v>
       </c>
       <c r="D98" t="n">
-        <v>21460</v>
+        <v>34645.4</v>
       </c>
       <c r="E98" t="n">
-        <v>10.5</v>
+        <v>10.4</v>
       </c>
       <c r="F98" t="n">
-        <v>8.300000000000001</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G98" t="n">
-        <v>26092.2</v>
+        <v>27169</v>
       </c>
       <c r="H98" t="n">
-        <v>127716.4</v>
+        <v>207648.5</v>
       </c>
       <c r="I98" t="n">
-        <v>9.300000000000001</v>
+        <v>9.1</v>
+      </c>
+      <c r="J98" t="n">
+        <v>4373.300000000003</v>
+      </c>
+      <c r="K98" t="n">
+        <v>27168.89999999999</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>2018年6月</t>
+          <t>2018-09</t>
         </is>
       </c>
       <c r="B99" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="C99" t="n">
+        <v>4936.4</v>
+      </c>
+      <c r="D99" t="n">
+        <v>39581.8</v>
+      </c>
+      <c r="E99" t="n">
         <v>10.4</v>
       </c>
-      <c r="C99" t="n">
-        <v>4466.6</v>
-      </c>
-      <c r="D99" t="n">
-        <v>25926.6</v>
-      </c>
-      <c r="E99" t="n">
-        <v>10.5</v>
-      </c>
       <c r="F99" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="G99" t="n">
-        <v>26374.9</v>
+        <v>27069</v>
       </c>
       <c r="H99" t="n">
-        <v>154091.3</v>
+        <v>234717.5</v>
       </c>
       <c r="I99" t="n">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>4936.400000000001</v>
+      </c>
+      <c r="K99" t="n">
+        <v>27069</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>2018年7月</t>
+          <t>2018-10</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>10.1</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C100" t="n">
-        <v>4345.5</v>
+        <v>4933.8</v>
       </c>
       <c r="D100" t="n">
-        <v>30272.1</v>
+        <v>44515.6</v>
       </c>
       <c r="E100" t="n">
-        <v>10.4</v>
+        <v>10.3</v>
       </c>
       <c r="F100" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="G100" t="n">
-        <v>26388.2</v>
+        <v>30600.6</v>
       </c>
       <c r="H100" t="n">
-        <v>180479.6</v>
+        <v>265318</v>
       </c>
       <c r="I100" t="n">
-        <v>9.1</v>
+        <v>9</v>
+      </c>
+      <c r="J100" t="n">
+        <v>4933.799999999996</v>
+      </c>
+      <c r="K100" t="n">
+        <v>30600.5</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>2018年8月</t>
+          <t>2018-11</t>
         </is>
       </c>
       <c r="B101" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="C101" t="n">
+        <v>5269.7</v>
+      </c>
+      <c r="D101" t="n">
+        <v>49785.3</v>
+      </c>
+      <c r="E101" t="n">
         <v>10.2</v>
       </c>
-      <c r="C101" t="n">
-        <v>4373.3</v>
-      </c>
-      <c r="D101" t="n">
-        <v>34645.4</v>
-      </c>
-      <c r="E101" t="n">
-        <v>10.4</v>
-      </c>
       <c r="F101" t="n">
-        <v>8.800000000000001</v>
+        <v>7.9</v>
       </c>
       <c r="G101" t="n">
-        <v>27169</v>
+        <v>29990</v>
       </c>
       <c r="H101" t="n">
-        <v>207648.5</v>
+        <v>295308</v>
       </c>
       <c r="I101" t="n">
-        <v>9.1</v>
+        <v>8.9</v>
+      </c>
+      <c r="J101" t="n">
+        <v>5269.700000000004</v>
+      </c>
+      <c r="K101" t="n">
+        <v>29990</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>2018年9月</t>
+          <t>2018-12</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>10.5</v>
+        <v>9.3172962657</v>
       </c>
       <c r="C102" t="n">
-        <v>4936.4</v>
+        <v>5564.6310358266</v>
       </c>
       <c r="D102" t="n">
-        <v>39581.8</v>
+        <v>55349.9527985133</v>
       </c>
       <c r="E102" t="n">
-        <v>10.4</v>
+        <v>10.1188141254</v>
       </c>
       <c r="F102" t="n">
-        <v>9</v>
+        <v>7.9512778175</v>
       </c>
       <c r="G102" t="n">
-        <v>27069</v>
+        <v>30328.8673</v>
       </c>
       <c r="H102" t="n">
-        <v>234717.5</v>
+        <v>325636.899374254</v>
       </c>
       <c r="I102" t="n">
-        <v>9.1</v>
+        <v>8.7908494588</v>
+      </c>
+      <c r="J102" t="n">
+        <v>5564.6527985133</v>
+      </c>
+      <c r="K102" t="n">
+        <v>30328.89937425399</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>2019年10月</t>
-        </is>
-      </c>
-      <c r="B103" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="C103" t="n">
-        <v>5360.2</v>
-      </c>
+          <t>2019-02</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr"/>
+      <c r="C103" t="inlineStr"/>
       <c r="D103" t="n">
-        <v>48510.2</v>
+        <v>9854</v>
       </c>
       <c r="E103" t="n">
-        <v>9</v>
-      </c>
-      <c r="F103" t="n">
-        <v>7</v>
-      </c>
-      <c r="G103" t="n">
-        <v>32744.1</v>
-      </c>
+        <v>9.1</v>
+      </c>
+      <c r="F103" t="inlineStr"/>
+      <c r="G103" t="inlineStr"/>
       <c r="H103" t="n">
-        <v>286268.3</v>
+        <v>56210</v>
       </c>
       <c r="I103" t="n">
-        <v>7.9</v>
+        <v>8</v>
+      </c>
+      <c r="J103" t="n">
+        <v>9854</v>
+      </c>
+      <c r="K103" t="n">
+        <v>56210</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>2019年11月</t>
+          <t>2019-03</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>9.1</v>
+        <v>9.4</v>
       </c>
       <c r="C104" t="n">
-        <v>5748.4</v>
+        <v>4533.9</v>
       </c>
       <c r="D104" t="n">
-        <v>54258.6</v>
+        <v>14388</v>
       </c>
       <c r="E104" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="F104" t="n">
-        <v>7.9</v>
+        <v>8.5</v>
       </c>
       <c r="G104" t="n">
-        <v>32345.4</v>
+        <v>27191.8</v>
       </c>
       <c r="H104" t="n">
-        <v>318613.7</v>
+        <v>83401.7</v>
       </c>
       <c r="I104" t="n">
-        <v>7.9</v>
+        <v>8.199999999999999</v>
+      </c>
+      <c r="J104" t="n">
+        <v>4534</v>
+      </c>
+      <c r="K104" t="n">
+        <v>27191.7</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>2019年12月</t>
+          <t>2019-04</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>9.1</v>
+        <v>7.8</v>
       </c>
       <c r="C105" t="n">
-        <v>6072.9</v>
+        <v>4327.1</v>
       </c>
       <c r="D105" t="n">
-        <v>60331.5</v>
+        <v>18715.1</v>
       </c>
       <c r="E105" t="n">
-        <v>9</v>
+        <v>8.9</v>
       </c>
       <c r="F105" t="n">
-        <v>7.8</v>
+        <v>7.1</v>
       </c>
       <c r="G105" t="n">
-        <v>32703.8</v>
+        <v>26259</v>
       </c>
       <c r="H105" t="n">
-        <v>351317.5</v>
+        <v>109660.8</v>
       </c>
       <c r="I105" t="n">
         <v>7.9</v>
       </c>
+      <c r="J105" t="n">
+        <v>4327.099999999999</v>
+      </c>
+      <c r="K105" t="n">
+        <v>26259.10000000001</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>2019年2月</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr"/>
-      <c r="C106" t="inlineStr"/>
+          <t>2019-05</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>9</v>
+      </c>
+      <c r="C106" t="n">
+        <v>4651.8</v>
+      </c>
       <c r="D106" t="n">
-        <v>9854</v>
+        <v>23366.9</v>
       </c>
       <c r="E106" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="F106" t="inlineStr"/>
-      <c r="G106" t="inlineStr"/>
+        <v>8.9</v>
+      </c>
+      <c r="F106" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="G106" t="n">
+        <v>28303.9</v>
+      </c>
       <c r="H106" t="n">
-        <v>56210</v>
+        <v>137964.7</v>
       </c>
       <c r="I106" t="n">
         <v>8</v>
       </c>
+      <c r="J106" t="n">
+        <v>4651.800000000003</v>
+      </c>
+      <c r="K106" t="n">
+        <v>28303.90000000001</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>2019年3月</t>
+          <t>2019-06</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>9.4</v>
+        <v>10.1</v>
       </c>
       <c r="C107" t="n">
-        <v>4533.9</v>
+        <v>4919.2</v>
       </c>
       <c r="D107" t="n">
-        <v>14388</v>
+        <v>28286</v>
       </c>
       <c r="E107" t="n">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="F107" t="n">
-        <v>8.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="G107" t="n">
-        <v>27191.8</v>
+        <v>28959</v>
       </c>
       <c r="H107" t="n">
-        <v>83401.7</v>
+        <v>166923.7</v>
       </c>
       <c r="I107" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
+      </c>
+      <c r="J107" t="n">
+        <v>4919.099999999999</v>
+      </c>
+      <c r="K107" t="n">
+        <v>28959</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>2019年4月</t>
+          <t>2019-07</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>7.8</v>
+        <v>8.6</v>
       </c>
       <c r="C108" t="n">
-        <v>4327.1</v>
+        <v>4719.5</v>
       </c>
       <c r="D108" t="n">
-        <v>18715.1</v>
+        <v>33005.5</v>
       </c>
       <c r="E108" t="n">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="F108" t="n">
-        <v>7.1</v>
+        <v>7.4</v>
       </c>
       <c r="G108" t="n">
-        <v>26259</v>
+        <v>28353.8</v>
       </c>
       <c r="H108" t="n">
-        <v>109660.8</v>
+        <v>195277.5</v>
       </c>
       <c r="I108" t="n">
-        <v>7.9</v>
+        <v>8.199999999999999</v>
+      </c>
+      <c r="J108" t="n">
+        <v>4719.5</v>
+      </c>
+      <c r="K108" t="n">
+        <v>28353.79999999999</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>2019年5月</t>
+          <t>2019-08</t>
         </is>
       </c>
       <c r="B109" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="C109" t="n">
+        <v>4762.1</v>
+      </c>
+      <c r="D109" t="n">
+        <v>37767.6</v>
+      </c>
+      <c r="E109" t="n">
         <v>9</v>
       </c>
-      <c r="C109" t="n">
-        <v>4651.8</v>
-      </c>
-      <c r="D109" t="n">
-        <v>23366.9</v>
-      </c>
-      <c r="E109" t="n">
-        <v>8.9</v>
-      </c>
       <c r="F109" t="n">
-        <v>8.5</v>
+        <v>7.2</v>
       </c>
       <c r="G109" t="n">
-        <v>28303.9</v>
+        <v>29134.3</v>
       </c>
       <c r="H109" t="n">
-        <v>137964.7</v>
+        <v>224411.7</v>
       </c>
       <c r="I109" t="n">
-        <v>8</v>
+        <v>8.1</v>
+      </c>
+      <c r="J109" t="n">
+        <v>4762.099999999999</v>
+      </c>
+      <c r="K109" t="n">
+        <v>29134.20000000001</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>2019年6月</t>
+          <t>2019-09</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>10.1</v>
+        <v>9</v>
       </c>
       <c r="C110" t="n">
-        <v>4919.2</v>
+        <v>5382.5</v>
       </c>
       <c r="D110" t="n">
-        <v>28286</v>
+        <v>43150</v>
       </c>
       <c r="E110" t="n">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="F110" t="n">
-        <v>9.800000000000001</v>
+        <v>7.5</v>
       </c>
       <c r="G110" t="n">
-        <v>28959</v>
+        <v>29112.4</v>
       </c>
       <c r="H110" t="n">
-        <v>166923.7</v>
+        <v>253524.1</v>
       </c>
       <c r="I110" t="n">
-        <v>8.300000000000001</v>
+        <v>8</v>
+      </c>
+      <c r="J110" t="n">
+        <v>5382.400000000001</v>
+      </c>
+      <c r="K110" t="n">
+        <v>29112.39999999999</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>2019年7月</t>
+          <t>2019-10</t>
         </is>
       </c>
       <c r="B111" t="n">
         <v>8.6</v>
       </c>
       <c r="C111" t="n">
-        <v>4719.5</v>
+        <v>5360.2</v>
       </c>
       <c r="D111" t="n">
-        <v>33005.5</v>
+        <v>48510.2</v>
       </c>
       <c r="E111" t="n">
         <v>9</v>
       </c>
       <c r="F111" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="G111" t="n">
-        <v>28353.8</v>
+        <v>32744.1</v>
       </c>
       <c r="H111" t="n">
-        <v>195277.5</v>
+        <v>286268.3</v>
       </c>
       <c r="I111" t="n">
-        <v>8.199999999999999</v>
+        <v>7.9</v>
+      </c>
+      <c r="J111" t="n">
+        <v>5360.199999999997</v>
+      </c>
+      <c r="K111" t="n">
+        <v>32744.19999999998</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>2019年8月</t>
+          <t>2019-11</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>8.9</v>
+        <v>9.1</v>
       </c>
       <c r="C112" t="n">
-        <v>4762.1</v>
+        <v>5748.4</v>
       </c>
       <c r="D112" t="n">
-        <v>37767.6</v>
+        <v>54258.6</v>
       </c>
       <c r="E112" t="n">
         <v>9</v>
       </c>
       <c r="F112" t="n">
-        <v>7.2</v>
+        <v>7.9</v>
       </c>
       <c r="G112" t="n">
-        <v>29134.3</v>
+        <v>32345.4</v>
       </c>
       <c r="H112" t="n">
-        <v>224411.7</v>
+        <v>318613.7</v>
       </c>
       <c r="I112" t="n">
-        <v>8.1</v>
+        <v>7.9</v>
+      </c>
+      <c r="J112" t="n">
+        <v>5748.400000000001</v>
+      </c>
+      <c r="K112" t="n">
+        <v>32345.40000000002</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>2019年9月</t>
+          <t>2019-12</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="C113" t="n">
-        <v>5382.5</v>
+        <v>6072.9</v>
       </c>
       <c r="D113" t="n">
-        <v>43150</v>
+        <v>60331.5</v>
       </c>
       <c r="E113" t="n">
         <v>9</v>
       </c>
       <c r="F113" t="n">
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
       <c r="G113" t="n">
-        <v>29112.4</v>
+        <v>32703.8</v>
       </c>
       <c r="H113" t="n">
-        <v>253524.1</v>
+        <v>351317.5</v>
       </c>
       <c r="I113" t="n">
-        <v>8</v>
+        <v>7.9</v>
+      </c>
+      <c r="J113" t="n">
+        <v>6072.900000000001</v>
+      </c>
+      <c r="K113" t="n">
+        <v>32703.79999999999</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>2020年10月</t>
-        </is>
-      </c>
-      <c r="B114" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="C114" t="n">
-        <v>5078.5</v>
-      </c>
+          <t>2020-02</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr"/>
+      <c r="C114" t="inlineStr"/>
       <c r="D114" t="n">
-        <v>41559.4</v>
+        <v>7248.8</v>
       </c>
       <c r="E114" t="n">
-        <v>-5.4</v>
-      </c>
-      <c r="F114" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="G114" t="n">
-        <v>33498</v>
-      </c>
+        <v>-19</v>
+      </c>
+      <c r="F114" t="inlineStr"/>
+      <c r="G114" t="inlineStr"/>
       <c r="H114" t="n">
-        <v>270341.1</v>
+        <v>44881.1</v>
       </c>
       <c r="I114" t="n">
-        <v>-6</v>
+        <v>-20.7</v>
+      </c>
+      <c r="J114" t="n">
+        <v>7248.8</v>
+      </c>
+      <c r="K114" t="n">
+        <v>44881.1</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>2020年11月</t>
+          <t>2020-03</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>5.6</v>
+        <v>-15.1</v>
       </c>
       <c r="C115" t="n">
-        <v>5442.3</v>
+        <v>3475.9</v>
       </c>
       <c r="D115" t="n">
-        <v>47001.7</v>
+        <v>10724.7</v>
       </c>
       <c r="E115" t="n">
-        <v>-4.3</v>
+        <v>-17.7</v>
       </c>
       <c r="F115" t="n">
-        <v>4.9</v>
+        <v>-15.9</v>
       </c>
       <c r="G115" t="n">
-        <v>34071.9</v>
+        <v>22974</v>
       </c>
       <c r="H115" t="n">
-        <v>304413</v>
+        <v>67855</v>
       </c>
       <c r="I115" t="n">
-        <v>-4.9</v>
+        <v>-19.1</v>
+      </c>
+      <c r="J115" t="n">
+        <v>3475.900000000001</v>
+      </c>
+      <c r="K115" t="n">
+        <v>22973.9</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>2020年12月</t>
+          <t>2020-04</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>5.9</v>
+        <v>-7.7</v>
       </c>
       <c r="C116" t="n">
-        <v>5860</v>
+        <v>3620.1</v>
       </c>
       <c r="D116" t="n">
-        <v>52861.7</v>
+        <v>14344.8</v>
       </c>
       <c r="E116" t="n">
-        <v>-3.2</v>
+        <v>-15.4</v>
       </c>
       <c r="F116" t="n">
-        <v>4.4</v>
+        <v>-7.5</v>
       </c>
       <c r="G116" t="n">
-        <v>34706</v>
+        <v>24557.7</v>
       </c>
       <c r="H116" t="n">
-        <v>339119</v>
+        <v>92412.7</v>
       </c>
       <c r="I116" t="n">
-        <v>-4</v>
+        <v>-16.3</v>
+      </c>
+      <c r="J116" t="n">
+        <v>3620.099999999999</v>
+      </c>
+      <c r="K116" t="n">
+        <v>24557.7</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>2020年2月</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr"/>
-      <c r="C117" t="inlineStr"/>
+          <t>2020-05</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>-3.2</v>
+      </c>
+      <c r="C117" t="n">
+        <v>4091.8</v>
+      </c>
       <c r="D117" t="n">
-        <v>7248.8</v>
+        <v>18436.6</v>
       </c>
       <c r="E117" t="n">
-        <v>-19</v>
-      </c>
-      <c r="F117" t="inlineStr"/>
-      <c r="G117" t="inlineStr"/>
+        <v>-13</v>
+      </c>
+      <c r="F117" t="n">
+        <v>-2.8</v>
+      </c>
+      <c r="G117" t="n">
+        <v>27880.9</v>
+      </c>
       <c r="H117" t="n">
-        <v>44881.1</v>
+        <v>120293.7</v>
       </c>
       <c r="I117" t="n">
-        <v>-20.7</v>
+        <v>-13.5</v>
+      </c>
+      <c r="J117" t="n">
+        <v>4091.799999999999</v>
+      </c>
+      <c r="K117" t="n">
+        <v>27881</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>2020年3月</t>
+          <t>2020-06</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>-15.1</v>
+        <v>-1.2</v>
       </c>
       <c r="C118" t="n">
-        <v>3475.9</v>
+        <v>4474.3</v>
       </c>
       <c r="D118" t="n">
-        <v>10724.7</v>
+        <v>22910.9</v>
       </c>
       <c r="E118" t="n">
-        <v>-17.7</v>
+        <v>-10.9</v>
       </c>
       <c r="F118" t="n">
-        <v>-15.9</v>
+        <v>-2</v>
       </c>
       <c r="G118" t="n">
-        <v>22974</v>
+        <v>29051.6</v>
       </c>
       <c r="H118" t="n">
-        <v>67855</v>
+        <v>149345.3</v>
       </c>
       <c r="I118" t="n">
-        <v>-19.1</v>
+        <v>-11.5</v>
+      </c>
+      <c r="J118" t="n">
+        <v>4474.300000000003</v>
+      </c>
+      <c r="K118" t="n">
+        <v>29051.59999999999</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>2020年4月</t>
+          <t>2020-07</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>-7.7</v>
+        <v>-1.3</v>
       </c>
       <c r="C119" t="n">
-        <v>3620.1</v>
+        <v>4177.5</v>
       </c>
       <c r="D119" t="n">
-        <v>14344.8</v>
+        <v>27088.4</v>
       </c>
       <c r="E119" t="n">
-        <v>-15.4</v>
+        <v>-9.5</v>
       </c>
       <c r="F119" t="n">
-        <v>-7.5</v>
+        <v>-1.1</v>
       </c>
       <c r="G119" t="n">
-        <v>24557.7</v>
+        <v>28025</v>
       </c>
       <c r="H119" t="n">
-        <v>92412.7</v>
+        <v>177370.3</v>
       </c>
       <c r="I119" t="n">
-        <v>-16.3</v>
+        <v>-10</v>
+      </c>
+      <c r="J119" t="n">
+        <v>4177.5</v>
+      </c>
+      <c r="K119" t="n">
+        <v>28025</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>2020年5月</t>
+          <t>2020-08</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>-3.2</v>
+        <v>0.7</v>
       </c>
       <c r="C120" t="n">
-        <v>4091.8</v>
+        <v>4297.9</v>
       </c>
       <c r="D120" t="n">
-        <v>18436.6</v>
+        <v>31386.4</v>
       </c>
       <c r="E120" t="n">
-        <v>-13</v>
+        <v>-8.300000000000001</v>
       </c>
       <c r="F120" t="n">
-        <v>-2.8</v>
+        <v>0.5</v>
       </c>
       <c r="G120" t="n">
-        <v>27880.9</v>
+        <v>29272.7</v>
       </c>
       <c r="H120" t="n">
-        <v>120293.7</v>
+        <v>206643</v>
       </c>
       <c r="I120" t="n">
-        <v>-13.5</v>
+        <v>-8.699999999999999</v>
+      </c>
+      <c r="J120" t="n">
+        <v>4298</v>
+      </c>
+      <c r="K120" t="n">
+        <v>29272.70000000001</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>2020年6月</t>
+          <t>2020-09</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>-1.2</v>
+        <v>4</v>
       </c>
       <c r="C121" t="n">
-        <v>4474.3</v>
+        <v>5094.6</v>
       </c>
       <c r="D121" t="n">
-        <v>22910.9</v>
+        <v>36480.9</v>
       </c>
       <c r="E121" t="n">
-        <v>-10.9</v>
+        <v>-6.7</v>
       </c>
       <c r="F121" t="n">
-        <v>-2</v>
+        <v>3.2</v>
       </c>
       <c r="G121" t="n">
-        <v>29051.6</v>
+        <v>30200.1</v>
       </c>
       <c r="H121" t="n">
-        <v>149345.3</v>
+        <v>236843.1</v>
       </c>
       <c r="I121" t="n">
-        <v>-11.5</v>
+        <v>-7.3</v>
+      </c>
+      <c r="J121" t="n">
+        <v>5094.5</v>
+      </c>
+      <c r="K121" t="n">
+        <v>30200.10000000001</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>2020年7月</t>
+          <t>2020-10</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>-1.3</v>
+        <v>5.1</v>
       </c>
       <c r="C122" t="n">
-        <v>4177.5</v>
+        <v>5078.5</v>
       </c>
       <c r="D122" t="n">
-        <v>27088.4</v>
+        <v>41559.4</v>
       </c>
       <c r="E122" t="n">
-        <v>-9.5</v>
+        <v>-5.4</v>
       </c>
       <c r="F122" t="n">
-        <v>-1.1</v>
+        <v>4.2</v>
       </c>
       <c r="G122" t="n">
-        <v>28025</v>
+        <v>33498</v>
       </c>
       <c r="H122" t="n">
-        <v>177370.3</v>
+        <v>270341.1</v>
       </c>
       <c r="I122" t="n">
-        <v>-10</v>
+        <v>-6</v>
+      </c>
+      <c r="J122" t="n">
+        <v>5078.5</v>
+      </c>
+      <c r="K122" t="n">
+        <v>33497.99999999997</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>2020年8月</t>
+          <t>2020-11</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0.7</v>
+        <v>5.6</v>
       </c>
       <c r="C123" t="n">
-        <v>4297.9</v>
+        <v>5442.3</v>
       </c>
       <c r="D123" t="n">
-        <v>31386.4</v>
+        <v>47001.7</v>
       </c>
       <c r="E123" t="n">
-        <v>-8.300000000000001</v>
+        <v>-4.3</v>
       </c>
       <c r="F123" t="n">
-        <v>0.5</v>
+        <v>4.9</v>
       </c>
       <c r="G123" t="n">
-        <v>29272.7</v>
+        <v>34071.9</v>
       </c>
       <c r="H123" t="n">
-        <v>206643</v>
+        <v>304413</v>
       </c>
       <c r="I123" t="n">
-        <v>-8.699999999999999</v>
+        <v>-4.9</v>
+      </c>
+      <c r="J123" t="n">
+        <v>5442.299999999996</v>
+      </c>
+      <c r="K123" t="n">
+        <v>34071.90000000002</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>2020年9月</t>
+          <t>2020-12</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>4</v>
+        <v>5.9</v>
       </c>
       <c r="C124" t="n">
-        <v>5094.6</v>
+        <v>5860</v>
       </c>
       <c r="D124" t="n">
-        <v>36480.9</v>
+        <v>52861.7</v>
       </c>
       <c r="E124" t="n">
-        <v>-6.7</v>
+        <v>-3.2</v>
       </c>
       <c r="F124" t="n">
-        <v>3.2</v>
+        <v>4.4</v>
       </c>
       <c r="G124" t="n">
-        <v>30200.1</v>
+        <v>34706</v>
       </c>
       <c r="H124" t="n">
-        <v>236843.1</v>
+        <v>339119</v>
       </c>
       <c r="I124" t="n">
-        <v>-7.3</v>
+        <v>-4</v>
+      </c>
+      <c r="J124" t="n">
+        <v>5860</v>
+      </c>
+      <c r="K124" t="n">
+        <v>34706</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>2021年10月</t>
-        </is>
-      </c>
-      <c r="B125" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="C125" t="n">
-        <v>5364</v>
-      </c>
+          <t>2021-02</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr"/>
+      <c r="C125" t="inlineStr"/>
       <c r="D125" t="n">
-        <v>47533</v>
+        <v>9185.200000000001</v>
       </c>
       <c r="E125" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="F125" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="G125" t="n">
-        <v>35089.9</v>
-      </c>
+        <v>26.7</v>
+      </c>
+      <c r="F125" t="inlineStr"/>
+      <c r="G125" t="inlineStr"/>
       <c r="H125" t="n">
-        <v>310978.1</v>
+        <v>60551.6</v>
       </c>
       <c r="I125" t="n">
-        <v>15</v>
+        <v>34.9</v>
+      </c>
+      <c r="J125" t="n">
+        <v>9185.200000000001</v>
+      </c>
+      <c r="K125" t="n">
+        <v>60551.6</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>2021年11月</t>
+          <t>2021-03</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>4.8</v>
+        <v>34.9</v>
       </c>
       <c r="C126" t="n">
-        <v>5705.7</v>
+        <v>4690.2</v>
       </c>
       <c r="D126" t="n">
-        <v>53238.7</v>
+        <v>13875.4</v>
       </c>
       <c r="E126" t="n">
-        <v>13.3</v>
+        <v>29.4</v>
       </c>
       <c r="F126" t="n">
-        <v>3.7</v>
+        <v>34</v>
       </c>
       <c r="G126" t="n">
-        <v>35337.5</v>
+        <v>30793.8</v>
       </c>
       <c r="H126" t="n">
-        <v>346315.6</v>
+        <v>91345.39999999999</v>
       </c>
       <c r="I126" t="n">
-        <v>13.8</v>
+        <v>34.6</v>
+      </c>
+      <c r="J126" t="n">
+        <v>4690.199999999999</v>
+      </c>
+      <c r="K126" t="n">
+        <v>30793.8</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>2021年12月</t>
+          <t>2021-04</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>2.8</v>
+        <v>17.8</v>
       </c>
       <c r="C127" t="n">
-        <v>6026.1</v>
+        <v>4264.6</v>
       </c>
       <c r="D127" t="n">
-        <v>59264.8</v>
+        <v>18140.1</v>
       </c>
       <c r="E127" t="n">
-        <v>12.1</v>
+        <v>26.5</v>
       </c>
       <c r="F127" t="n">
-        <v>1.5</v>
+        <v>17.6</v>
       </c>
       <c r="G127" t="n">
-        <v>35242.8</v>
+        <v>28888</v>
       </c>
       <c r="H127" t="n">
-        <v>381558.4</v>
+        <v>120233.4</v>
       </c>
       <c r="I127" t="n">
-        <v>12.5</v>
+        <v>30.1</v>
+      </c>
+      <c r="J127" t="n">
+        <v>4264.699999999999</v>
+      </c>
+      <c r="K127" t="n">
+        <v>28888</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>2021年2月</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr"/>
-      <c r="C128" t="inlineStr"/>
+          <t>2021-05</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="C128" t="n">
+        <v>4632.4</v>
+      </c>
       <c r="D128" t="n">
-        <v>9185.200000000001</v>
+        <v>22772.5</v>
       </c>
       <c r="E128" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="F128" t="inlineStr"/>
-      <c r="G128" t="inlineStr"/>
+        <v>23.5</v>
+      </c>
+      <c r="F128" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="G128" t="n">
+        <v>31312.7</v>
+      </c>
       <c r="H128" t="n">
-        <v>60551.6</v>
+        <v>151546.1</v>
       </c>
       <c r="I128" t="n">
-        <v>34.9</v>
+        <v>26</v>
+      </c>
+      <c r="J128" t="n">
+        <v>4632.400000000001</v>
+      </c>
+      <c r="K128" t="n">
+        <v>31312.70000000001</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>2021年3月</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>34.9</v>
+        <v>12.5</v>
       </c>
       <c r="C129" t="n">
-        <v>4690.2</v>
+        <v>5034.3</v>
       </c>
       <c r="D129" t="n">
-        <v>13875.4</v>
+        <v>27806.7</v>
       </c>
       <c r="E129" t="n">
-        <v>29.4</v>
+        <v>21.4</v>
       </c>
       <c r="F129" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="G129" t="n">
-        <v>30793.8</v>
+        <v>32551.5</v>
       </c>
       <c r="H129" t="n">
-        <v>91345.39999999999</v>
+        <v>184097.6</v>
       </c>
       <c r="I129" t="n">
-        <v>34.6</v>
+        <v>23.3</v>
+      </c>
+      <c r="J129" t="n">
+        <v>5034.200000000001</v>
+      </c>
+      <c r="K129" t="n">
+        <v>32551.5</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>2021年4月</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>17.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="C130" t="n">
-        <v>4264.6</v>
+        <v>4546.5</v>
       </c>
       <c r="D130" t="n">
-        <v>18140.1</v>
+        <v>32353.3</v>
       </c>
       <c r="E130" t="n">
-        <v>26.5</v>
+        <v>19.4</v>
       </c>
       <c r="F130" t="n">
-        <v>17.6</v>
+        <v>8.4</v>
       </c>
       <c r="G130" t="n">
-        <v>28888</v>
+        <v>30378.5</v>
       </c>
       <c r="H130" t="n">
-        <v>120233.4</v>
+        <v>214476.1</v>
       </c>
       <c r="I130" t="n">
-        <v>30.1</v>
+        <v>20.9</v>
+      </c>
+      <c r="J130" t="n">
+        <v>4546.599999999999</v>
+      </c>
+      <c r="K130" t="n">
+        <v>30378.5</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>2021年5月</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>13.2</v>
+        <v>3.4</v>
       </c>
       <c r="C131" t="n">
-        <v>4632.4</v>
+        <v>4444.5</v>
       </c>
       <c r="D131" t="n">
-        <v>22772.5</v>
+        <v>36797.8</v>
       </c>
       <c r="E131" t="n">
-        <v>23.5</v>
+        <v>17.2</v>
       </c>
       <c r="F131" t="n">
-        <v>12.3</v>
+        <v>2.3</v>
       </c>
       <c r="G131" t="n">
-        <v>31312.7</v>
+        <v>29950.3</v>
       </c>
       <c r="H131" t="n">
-        <v>151546.1</v>
+        <v>244426.4</v>
       </c>
       <c r="I131" t="n">
-        <v>26</v>
+        <v>18.3</v>
+      </c>
+      <c r="J131" t="n">
+        <v>4444.500000000004</v>
+      </c>
+      <c r="K131" t="n">
+        <v>29950.29999999999</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>2021年6月</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>12.5</v>
+        <v>5.4</v>
       </c>
       <c r="C132" t="n">
-        <v>5034.3</v>
+        <v>5371.2</v>
       </c>
       <c r="D132" t="n">
-        <v>27806.7</v>
+        <v>42169</v>
       </c>
       <c r="E132" t="n">
-        <v>21.4</v>
+        <v>15.6</v>
       </c>
       <c r="F132" t="n">
-        <v>12</v>
+        <v>4.2</v>
       </c>
       <c r="G132" t="n">
-        <v>32551.5</v>
+        <v>31461.8</v>
       </c>
       <c r="H132" t="n">
-        <v>184097.6</v>
+        <v>275888.2</v>
       </c>
       <c r="I132" t="n">
-        <v>23.3</v>
+        <v>16.5</v>
+      </c>
+      <c r="J132" t="n">
+        <v>5371.199999999997</v>
+      </c>
+      <c r="K132" t="n">
+        <v>31461.80000000002</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>2021年7月</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>8.800000000000001</v>
+        <v>5.6</v>
       </c>
       <c r="C133" t="n">
-        <v>4546.5</v>
+        <v>5364</v>
       </c>
       <c r="D133" t="n">
-        <v>32353.3</v>
+        <v>47533</v>
       </c>
       <c r="E133" t="n">
-        <v>19.4</v>
+        <v>14.4</v>
       </c>
       <c r="F133" t="n">
-        <v>8.4</v>
+        <v>4.8</v>
       </c>
       <c r="G133" t="n">
-        <v>30378.5</v>
+        <v>35089.9</v>
       </c>
       <c r="H133" t="n">
-        <v>214476.1</v>
+        <v>310978.1</v>
       </c>
       <c r="I133" t="n">
-        <v>20.9</v>
+        <v>15</v>
+      </c>
+      <c r="J133" t="n">
+        <v>5364</v>
+      </c>
+      <c r="K133" t="n">
+        <v>35089.89999999997</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>2021年8月</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>3.4</v>
+        <v>4.8</v>
       </c>
       <c r="C134" t="n">
-        <v>4444.5</v>
+        <v>5705.7</v>
       </c>
       <c r="D134" t="n">
-        <v>36797.8</v>
+        <v>53238.7</v>
       </c>
       <c r="E134" t="n">
-        <v>17.2</v>
+        <v>13.3</v>
       </c>
       <c r="F134" t="n">
-        <v>2.3</v>
+        <v>3.7</v>
       </c>
       <c r="G134" t="n">
-        <v>29950.3</v>
+        <v>35337.5</v>
       </c>
       <c r="H134" t="n">
-        <v>244426.4</v>
+        <v>346315.6</v>
       </c>
       <c r="I134" t="n">
-        <v>18.3</v>
+        <v>13.8</v>
+      </c>
+      <c r="J134" t="n">
+        <v>5705.699999999997</v>
+      </c>
+      <c r="K134" t="n">
+        <v>35337.5</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>2021年9月</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>5.4</v>
+        <v>2.8</v>
       </c>
       <c r="C135" t="n">
-        <v>5371.2</v>
+        <v>6026.1</v>
       </c>
       <c r="D135" t="n">
-        <v>42169</v>
+        <v>59264.8</v>
       </c>
       <c r="E135" t="n">
-        <v>15.6</v>
+        <v>12.1</v>
       </c>
       <c r="F135" t="n">
-        <v>4.2</v>
+        <v>1.5</v>
       </c>
       <c r="G135" t="n">
-        <v>31461.8</v>
+        <v>35242.8</v>
       </c>
       <c r="H135" t="n">
-        <v>275888.2</v>
+        <v>381558.4</v>
       </c>
       <c r="I135" t="n">
-        <v>16.5</v>
+        <v>12.5</v>
+      </c>
+      <c r="J135" t="n">
+        <v>6026.100000000006</v>
+      </c>
+      <c r="K135" t="n">
+        <v>35242.80000000005</v>
       </c>
     </row>
   </sheetData>

--- a/data_month/zb/国内贸易/按经营地分社会消费品零售总额.xlsx
+++ b/data_month/zb/国内贸易/按经营地分社会消费品零售总额.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K135"/>
+  <dimension ref="A1:I151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,4893 +474,4559 @@
           <t>城镇社会消费品零售总额_累计增长</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>乡村社会消费品零售总额</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>城镇社会消费品零售总额</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2010-01</t>
+          <t>2010-10</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13.7</v>
+        <v>16.8</v>
       </c>
       <c r="C2" t="n">
-        <v>2201.1</v>
+        <v>1889.3</v>
       </c>
       <c r="D2" t="n">
-        <v>2201.1</v>
+        <v>16930.6</v>
       </c>
       <c r="E2" t="n">
-        <v>13.7</v>
+        <v>15.9</v>
       </c>
       <c r="F2" t="n">
-        <v>14.1</v>
+        <v>18.9</v>
       </c>
       <c r="G2" t="n">
-        <v>10517</v>
+        <v>12395.5</v>
       </c>
       <c r="H2" t="n">
-        <v>10517</v>
+        <v>108382.7</v>
       </c>
       <c r="I2" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>2201.1</v>
-      </c>
-      <c r="K2" t="n">
-        <v>10517</v>
+        <v>18.7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2010-02</t>
+          <t>2010-11</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.6</v>
+        <v>17</v>
       </c>
       <c r="C3" t="n">
-        <v>2102.6</v>
+        <v>1864.5</v>
       </c>
       <c r="D3" t="n">
-        <v>4303.7</v>
+        <v>18795.1</v>
       </c>
       <c r="E3" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="F3" t="n">
-        <v>23.1</v>
+        <v>19</v>
       </c>
       <c r="G3" t="n">
-        <v>10231.6</v>
+        <v>12046.4</v>
       </c>
       <c r="H3" t="n">
-        <v>20748.6</v>
+        <v>120429.1</v>
       </c>
       <c r="I3" t="n">
-        <v>18.4</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2102.6</v>
-      </c>
-      <c r="K3" t="n">
-        <v>10231.6</v>
+        <v>18.7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2010-03</t>
+          <t>2010-12</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.1</v>
+        <v>17</v>
       </c>
       <c r="C4" t="n">
-        <v>1499.6</v>
+        <v>2069.7</v>
       </c>
       <c r="D4" t="n">
-        <v>5803.3</v>
+        <v>20864.8</v>
       </c>
       <c r="E4" t="n">
-        <v>15.4</v>
+        <v>16.1</v>
       </c>
       <c r="F4" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="G4" t="n">
-        <v>9822.1</v>
+        <v>13259.8</v>
       </c>
       <c r="H4" t="n">
-        <v>30570.7</v>
+        <v>133688.9</v>
       </c>
       <c r="I4" t="n">
-        <v>18.4</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1499.6</v>
-      </c>
-      <c r="K4" t="n">
-        <v>9822.100000000002</v>
+        <v>18.8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2010-04</t>
+          <t>2010-01</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>16</v>
+        <v>13.7</v>
       </c>
       <c r="C5" t="n">
-        <v>1530.5</v>
+        <v>2201.1</v>
       </c>
       <c r="D5" t="n">
-        <v>7333.8</v>
+        <v>2201.1</v>
       </c>
       <c r="E5" t="n">
-        <v>15.5</v>
+        <v>13.7</v>
       </c>
       <c r="F5" t="n">
-        <v>18.9</v>
+        <v>14.1</v>
       </c>
       <c r="G5" t="n">
-        <v>9979.9</v>
+        <v>10517</v>
       </c>
       <c r="H5" t="n">
-        <v>40550.6</v>
+        <v>10517</v>
       </c>
       <c r="I5" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1530.5</v>
-      </c>
-      <c r="K5" t="n">
-        <v>9979.899999999998</v>
+        <v>14.1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2010-05</t>
+          <t>2010-02</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>15.8397672166244</v>
+        <v>17.6</v>
       </c>
       <c r="C6" t="n">
-        <v>1636.782</v>
+        <v>2102.6</v>
       </c>
       <c r="D6" t="n">
-        <v>8970.582</v>
+        <v>4303.7</v>
       </c>
       <c r="E6" t="n">
-        <v>15.6007169385152</v>
+        <v>15.5</v>
       </c>
       <c r="F6" t="n">
-        <v>19.0931473407281</v>
+        <v>23.1</v>
       </c>
       <c r="G6" t="n">
-        <v>10818.2857</v>
+        <v>10231.6</v>
       </c>
       <c r="H6" t="n">
-        <v>51368.8857</v>
+        <v>20748.6</v>
       </c>
       <c r="I6" t="n">
-        <v>18.6414534954003</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1636.782</v>
-      </c>
-      <c r="K6" t="n">
-        <v>10818.2857</v>
+        <v>18.4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2010-06</t>
+          <t>2010-03</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.9</v>
+        <v>15.1</v>
       </c>
       <c r="C7" t="n">
-        <v>1614.7</v>
+        <v>1499.6</v>
       </c>
       <c r="D7" t="n">
-        <v>10009.7</v>
+        <v>5803.3</v>
       </c>
       <c r="E7" t="n">
-        <v>15.6</v>
+        <v>15.4</v>
       </c>
       <c r="F7" t="n">
-        <v>18.7</v>
+        <v>18.5</v>
       </c>
       <c r="G7" t="n">
-        <v>10715.2</v>
+        <v>9822.1</v>
       </c>
       <c r="H7" t="n">
-        <v>62659.7</v>
+        <v>30570.7</v>
       </c>
       <c r="I7" t="n">
-        <v>18.6</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1039.118</v>
-      </c>
-      <c r="K7" t="n">
-        <v>11290.8143</v>
+        <v>18.4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2010-07</t>
+          <t>2010-04</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16.137239223668</v>
+        <v>16</v>
       </c>
       <c r="C8" t="n">
-        <v>1597.7</v>
+        <v>1530.5</v>
       </c>
       <c r="D8" t="n">
-        <v>11607.4</v>
+        <v>7333.8</v>
       </c>
       <c r="E8" t="n">
-        <v>15.6368925461755</v>
+        <v>15.5</v>
       </c>
       <c r="F8" t="n">
-        <v>18.2244857199921</v>
+        <v>18.9</v>
       </c>
       <c r="G8" t="n">
-        <v>10655.1</v>
+        <v>9979.9</v>
       </c>
       <c r="H8" t="n">
-        <v>73314.8</v>
+        <v>40550.6</v>
       </c>
       <c r="I8" t="n">
-        <v>18.5784457228995</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1597.699999999999</v>
-      </c>
-      <c r="K8" t="n">
-        <v>10655.10000000001</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2010-08</t>
+          <t>2010-05</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>15.9</v>
+        <v>15.8397672166244</v>
       </c>
       <c r="C9" t="n">
-        <v>1639.9</v>
+        <v>1636.782</v>
       </c>
       <c r="D9" t="n">
-        <v>13247.3</v>
+        <v>8970.582</v>
       </c>
       <c r="E9" t="n">
-        <v>15.7</v>
+        <v>15.6007169385152</v>
       </c>
       <c r="F9" t="n">
-        <v>18.8</v>
+        <v>19.0931473407281</v>
       </c>
       <c r="G9" t="n">
-        <v>10929.9</v>
+        <v>10818.2857</v>
       </c>
       <c r="H9" t="n">
-        <v>84244.7</v>
+        <v>51368.8857</v>
       </c>
       <c r="I9" t="n">
-        <v>18.6</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1639.9</v>
-      </c>
-      <c r="K9" t="n">
-        <v>10929.89999999999</v>
+        <v>18.6414534954003</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2010-09</t>
+          <t>2010-06</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>17</v>
+        <v>15.9</v>
       </c>
       <c r="C10" t="n">
-        <v>1794</v>
+        <v>1614.7</v>
       </c>
       <c r="D10" t="n">
-        <v>15041.3</v>
+        <v>10009.7</v>
       </c>
       <c r="E10" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="F10" t="n">
-        <v>19.1</v>
+        <v>18.7</v>
       </c>
       <c r="G10" t="n">
-        <v>11742.5</v>
+        <v>10715.2</v>
       </c>
       <c r="H10" t="n">
-        <v>95987.2</v>
+        <v>62659.7</v>
       </c>
       <c r="I10" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1794</v>
-      </c>
-      <c r="K10" t="n">
-        <v>11742.5</v>
+        <v>18.6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2010-10</t>
+          <t>2010-07</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>16.8</v>
+        <v>16.137239223668</v>
       </c>
       <c r="C11" t="n">
-        <v>1889.3</v>
+        <v>1597.7</v>
       </c>
       <c r="D11" t="n">
-        <v>16930.6</v>
+        <v>11607.4</v>
       </c>
       <c r="E11" t="n">
-        <v>15.9</v>
+        <v>15.6368925461755</v>
       </c>
       <c r="F11" t="n">
-        <v>18.9</v>
+        <v>18.2244857199921</v>
       </c>
       <c r="G11" t="n">
-        <v>12395.5</v>
+        <v>10655.1</v>
       </c>
       <c r="H11" t="n">
-        <v>108382.7</v>
+        <v>73314.8</v>
       </c>
       <c r="I11" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1889.299999999999</v>
-      </c>
-      <c r="K11" t="n">
-        <v>12395.5</v>
+        <v>18.5784457228995</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010-11</t>
+          <t>2010-08</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>17</v>
+        <v>15.9</v>
       </c>
       <c r="C12" t="n">
-        <v>1864.5</v>
+        <v>1639.9</v>
       </c>
       <c r="D12" t="n">
-        <v>18795.1</v>
+        <v>13247.3</v>
       </c>
       <c r="E12" t="n">
-        <v>16</v>
+        <v>15.7</v>
       </c>
       <c r="F12" t="n">
-        <v>19</v>
+        <v>18.8</v>
       </c>
       <c r="G12" t="n">
-        <v>12046.4</v>
+        <v>10929.9</v>
       </c>
       <c r="H12" t="n">
-        <v>120429.1</v>
+        <v>84244.7</v>
       </c>
       <c r="I12" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1864.5</v>
-      </c>
-      <c r="K12" t="n">
-        <v>12046.40000000001</v>
+        <v>18.6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2010-12</t>
+          <t>2010-09</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>17</v>
       </c>
       <c r="C13" t="n">
-        <v>2069.7</v>
+        <v>1794</v>
       </c>
       <c r="D13" t="n">
-        <v>20864.8</v>
+        <v>15041.3</v>
       </c>
       <c r="E13" t="n">
-        <v>16.1</v>
+        <v>15.8</v>
       </c>
       <c r="F13" t="n">
-        <v>19.5</v>
+        <v>19.1</v>
       </c>
       <c r="G13" t="n">
-        <v>13259.8</v>
+        <v>11742.5</v>
       </c>
       <c r="H13" t="n">
-        <v>133688.9</v>
+        <v>95987.2</v>
       </c>
       <c r="I13" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2069.700000000001</v>
-      </c>
-      <c r="K13" t="n">
-        <v>13259.79999999999</v>
+        <v>18.7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2011-01</t>
+          <t>2011-10</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>19.5631561581378</v>
+        <v>17.3929147693796</v>
       </c>
       <c r="C14" t="n">
-        <v>1992.99825</v>
+        <v>2191.4</v>
       </c>
       <c r="D14" t="n">
-        <v>1992.99825</v>
+        <v>19737</v>
       </c>
       <c r="E14" t="n">
-        <v>19.5631561581378</v>
+        <v>16.4821799789899</v>
       </c>
       <c r="F14" t="n">
-        <v>19.9507904119009</v>
+        <v>17.2279097457004</v>
       </c>
       <c r="G14" t="n">
-        <v>13256.00175</v>
+        <v>14355</v>
       </c>
       <c r="H14" t="n">
-        <v>13256.00175</v>
+        <v>127620.2</v>
       </c>
       <c r="I14" t="n">
-        <v>19.9507904119009</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1992.99825</v>
-      </c>
-      <c r="K14" t="n">
-        <v>13256.00175</v>
+        <v>17.0783727034121</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2011-02</t>
+          <t>2011-11</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>11.2185454327067</v>
+        <v>17.2</v>
       </c>
       <c r="C15" t="n">
-        <v>1851.9</v>
+        <v>2160.4</v>
       </c>
       <c r="D15" t="n">
-        <v>3844.89825</v>
+        <v>21897.4</v>
       </c>
       <c r="E15" t="n">
-        <v>15.3931047418967</v>
+        <v>16.6</v>
       </c>
       <c r="F15" t="n">
-        <v>11.6982688324226</v>
+        <v>17.3</v>
       </c>
       <c r="G15" t="n">
-        <v>11917.2</v>
+        <v>13968.5</v>
       </c>
       <c r="H15" t="n">
-        <v>25173.20175</v>
+        <v>141588.7</v>
       </c>
       <c r="I15" t="n">
-        <v>15.8971181337274</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1851.9</v>
-      </c>
-      <c r="K15" t="n">
-        <v>11917.2</v>
+        <v>17.1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2011-03</t>
+          <t>2011-12</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>16.7341606792946</v>
+        <v>17.8</v>
       </c>
       <c r="C16" t="n">
-        <v>1787.2</v>
+        <v>2420.1</v>
       </c>
       <c r="D16" t="n">
-        <v>5674</v>
+        <v>24317.5</v>
       </c>
       <c r="E16" t="n">
-        <v>15.8124630049191</v>
+        <v>16.7</v>
       </c>
       <c r="F16" t="n">
-        <v>17.5448731995936</v>
+        <v>18.2</v>
       </c>
       <c r="G16" t="n">
-        <v>11800.8</v>
+        <v>15319.6</v>
       </c>
       <c r="H16" t="n">
-        <v>37247.8</v>
+        <v>156908.3</v>
       </c>
       <c r="I16" t="n">
-        <v>16.4150182680798</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1829.10175</v>
-      </c>
-      <c r="K16" t="n">
-        <v>12074.59825</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2011-04</t>
+          <t>2011-01</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>16.2828204631959</v>
+        <v>19.5631561581378</v>
       </c>
       <c r="C17" t="n">
-        <v>1802.5</v>
+        <v>1992.99825</v>
       </c>
       <c r="D17" t="n">
-        <v>7476.5</v>
+        <v>1992.99825</v>
       </c>
       <c r="E17" t="n">
-        <v>15.9255124507706</v>
+        <v>19.5631561581378</v>
       </c>
       <c r="F17" t="n">
-        <v>17.2502870264064</v>
+        <v>19.9507904119009</v>
       </c>
       <c r="G17" t="n">
-        <v>11846.5</v>
+        <v>13256.00175</v>
       </c>
       <c r="H17" t="n">
-        <v>49094.3</v>
+        <v>13256.00175</v>
       </c>
       <c r="I17" t="n">
-        <v>16.6154781670954</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1802.5</v>
-      </c>
-      <c r="K17" t="n">
-        <v>11846.5</v>
+        <v>19.9507904119009</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2011-05</t>
+          <t>2011-02</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>16.5147599159183</v>
+        <v>11.2185454327067</v>
       </c>
       <c r="C18" t="n">
-        <v>1924.94475</v>
+        <v>1851.9</v>
       </c>
       <c r="D18" t="n">
-        <v>9401.444750000001</v>
+        <v>3844.89825</v>
       </c>
       <c r="E18" t="n">
-        <v>16.0456750761082</v>
+        <v>15.3931047418967</v>
       </c>
       <c r="F18" t="n">
-        <v>16.9580644085676</v>
+        <v>11.6982688324226</v>
       </c>
       <c r="G18" t="n">
-        <v>12771.85525</v>
+        <v>11917.2</v>
       </c>
       <c r="H18" t="n">
-        <v>61866.15525</v>
+        <v>25173.20175</v>
       </c>
       <c r="I18" t="n">
-        <v>16.6860383179867</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1924.944750000001</v>
-      </c>
-      <c r="K18" t="n">
-        <v>12771.85525</v>
+        <v>15.8971181337274</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2011-06</t>
+          <t>2011-03</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>16.7939902120765</v>
+        <v>16.7341606792946</v>
       </c>
       <c r="C19" t="n">
-        <v>1981.1</v>
+        <v>1787.2</v>
       </c>
       <c r="D19" t="n">
-        <v>11382.5</v>
+        <v>5674</v>
       </c>
       <c r="E19" t="n">
-        <v>16.1752247976566</v>
+        <v>15.8124630049191</v>
       </c>
       <c r="F19" t="n">
-        <v>17.8284609007437</v>
+        <v>17.5448731995936</v>
       </c>
       <c r="G19" t="n">
-        <v>12584</v>
+        <v>11800.8</v>
       </c>
       <c r="H19" t="n">
-        <v>74450.2</v>
+        <v>37247.8</v>
       </c>
       <c r="I19" t="n">
-        <v>16.8775795024435</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1981.055249999999</v>
-      </c>
-      <c r="K19" t="n">
-        <v>12584.04474999999</v>
+        <v>16.4150182680798</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2011-07</t>
+          <t>2011-04</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>16.4</v>
+        <v>16.2828204631959</v>
       </c>
       <c r="C20" t="n">
-        <v>1918.5</v>
+        <v>1802.5</v>
       </c>
       <c r="D20" t="n">
-        <v>13301</v>
+        <v>7476.5</v>
       </c>
       <c r="E20" t="n">
-        <v>16.2</v>
+        <v>15.9255124507706</v>
       </c>
       <c r="F20" t="n">
-        <v>17.3</v>
+        <v>17.2502870264064</v>
       </c>
       <c r="G20" t="n">
-        <v>12489.5</v>
+        <v>11846.5</v>
       </c>
       <c r="H20" t="n">
-        <v>86939.7</v>
+        <v>49094.3</v>
       </c>
       <c r="I20" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1918.5</v>
-      </c>
-      <c r="K20" t="n">
-        <v>12489.5</v>
+        <v>16.6154781670954</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2011-08</t>
+          <t>2011-05</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>16.4</v>
+        <v>16.5147599159183</v>
       </c>
       <c r="C21" t="n">
-        <v>1921.9</v>
+        <v>1924.94475</v>
       </c>
       <c r="D21" t="n">
-        <v>15222.9</v>
+        <v>9401.444750000001</v>
       </c>
       <c r="E21" t="n">
-        <v>16.2</v>
+        <v>16.0456750761082</v>
       </c>
       <c r="F21" t="n">
-        <v>17.1</v>
+        <v>16.9580644085676</v>
       </c>
       <c r="G21" t="n">
-        <v>12783.1</v>
+        <v>12771.85525</v>
       </c>
       <c r="H21" t="n">
-        <v>99722.8</v>
+        <v>61866.15525</v>
       </c>
       <c r="I21" t="n">
-        <v>17</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1921.9</v>
-      </c>
-      <c r="K21" t="n">
-        <v>12783.10000000001</v>
+        <v>16.6860383179867</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2011-09</t>
+          <t>2011-06</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>17.3</v>
+        <v>16.7939902120765</v>
       </c>
       <c r="C22" t="n">
-        <v>2322.6</v>
+        <v>1981.1</v>
       </c>
       <c r="D22" t="n">
-        <v>17545.6</v>
+        <v>11382.5</v>
       </c>
       <c r="E22" t="n">
-        <v>16.4</v>
+        <v>16.1752247976566</v>
       </c>
       <c r="F22" t="n">
-        <v>17.8</v>
+        <v>17.8284609007437</v>
       </c>
       <c r="G22" t="n">
-        <v>13542.5</v>
+        <v>12584</v>
       </c>
       <c r="H22" t="n">
-        <v>113265.2</v>
+        <v>74450.2</v>
       </c>
       <c r="I22" t="n">
-        <v>17.1</v>
-      </c>
-      <c r="J22" t="n">
-        <v>2322.699999999999</v>
-      </c>
-      <c r="K22" t="n">
-        <v>13542.39999999999</v>
+        <v>16.8775795024435</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2011-10</t>
+          <t>2011-07</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>17.3929147693796</v>
+        <v>16.4</v>
       </c>
       <c r="C23" t="n">
-        <v>2191.4</v>
+        <v>1918.5</v>
       </c>
       <c r="D23" t="n">
-        <v>19737</v>
+        <v>13301</v>
       </c>
       <c r="E23" t="n">
-        <v>16.4821799789899</v>
+        <v>16.2</v>
       </c>
       <c r="F23" t="n">
-        <v>17.2279097457004</v>
+        <v>17.3</v>
       </c>
       <c r="G23" t="n">
-        <v>14355</v>
+        <v>12489.5</v>
       </c>
       <c r="H23" t="n">
-        <v>127620.2</v>
+        <v>86939.7</v>
       </c>
       <c r="I23" t="n">
-        <v>17.0783727034121</v>
-      </c>
-      <c r="J23" t="n">
-        <v>2191.400000000001</v>
-      </c>
-      <c r="K23" t="n">
-        <v>14355</v>
+        <v>16.9</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2011-11</t>
+          <t>2011-08</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>17.2</v>
+        <v>16.4</v>
       </c>
       <c r="C24" t="n">
-        <v>2160.4</v>
+        <v>1921.9</v>
       </c>
       <c r="D24" t="n">
-        <v>21897.4</v>
+        <v>15222.9</v>
       </c>
       <c r="E24" t="n">
-        <v>16.6</v>
+        <v>16.2</v>
       </c>
       <c r="F24" t="n">
-        <v>17.3</v>
+        <v>17.1</v>
       </c>
       <c r="G24" t="n">
-        <v>13968.5</v>
+        <v>12783.1</v>
       </c>
       <c r="H24" t="n">
-        <v>141588.7</v>
+        <v>99722.8</v>
       </c>
       <c r="I24" t="n">
-        <v>17.1</v>
-      </c>
-      <c r="J24" t="n">
-        <v>2160.400000000001</v>
-      </c>
-      <c r="K24" t="n">
-        <v>13968.50000000001</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2011-12</t>
+          <t>2011-09</t>
         </is>
       </c>
       <c r="B25" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2322.6</v>
+      </c>
+      <c r="D25" t="n">
+        <v>17545.6</v>
+      </c>
+      <c r="E25" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="F25" t="n">
         <v>17.8</v>
       </c>
-      <c r="C25" t="n">
-        <v>2420.1</v>
-      </c>
-      <c r="D25" t="n">
-        <v>24317.5</v>
-      </c>
-      <c r="E25" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="F25" t="n">
-        <v>18.2</v>
-      </c>
       <c r="G25" t="n">
-        <v>15319.6</v>
+        <v>13542.5</v>
       </c>
       <c r="H25" t="n">
-        <v>156908.3</v>
+        <v>113265.2</v>
       </c>
       <c r="I25" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="J25" t="n">
-        <v>2420.099999999999</v>
-      </c>
-      <c r="K25" t="n">
-        <v>15319.59999999998</v>
+        <v>17.1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2012-02</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
+          <t>2012-10</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="C26" t="n">
+        <v>2490.4</v>
+      </c>
       <c r="D26" t="n">
-        <v>4543.7</v>
+        <v>22580.5</v>
       </c>
       <c r="E26" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
+        <v>14.4</v>
+      </c>
+      <c r="F26" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="G26" t="n">
+        <v>16443.4</v>
+      </c>
       <c r="H26" t="n">
-        <v>29124.9</v>
+        <v>145775.3</v>
       </c>
       <c r="I26" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="J26" t="n">
-        <v>4543.7</v>
-      </c>
-      <c r="K26" t="n">
-        <v>29124.9</v>
+        <v>14.1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2012-03</t>
+          <t>2012-11</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>14.6</v>
       </c>
       <c r="C27" t="n">
-        <v>2086.8</v>
+        <v>2445.8</v>
       </c>
       <c r="D27" t="n">
-        <v>6630.5</v>
+        <v>25026.3</v>
       </c>
       <c r="E27" t="n">
-        <v>14.6</v>
+        <v>14.4</v>
       </c>
       <c r="F27" t="n">
-        <v>15.2</v>
+        <v>15</v>
       </c>
       <c r="G27" t="n">
-        <v>13563.4</v>
+        <v>16030.9</v>
       </c>
       <c r="H27" t="n">
-        <v>42688.3</v>
+        <v>161806.2</v>
       </c>
       <c r="I27" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2086.8</v>
-      </c>
-      <c r="K27" t="n">
-        <v>13563.4</v>
+        <v>14.2</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2012-04</t>
+          <t>2012-12</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>14.5344887780398</v>
+        <v>15.1</v>
       </c>
       <c r="C28" t="n">
-        <v>2049.4</v>
+        <v>2822.8</v>
       </c>
       <c r="D28" t="n">
-        <v>8679.9</v>
+        <v>27849.1</v>
       </c>
       <c r="E28" t="n">
-        <v>14.6068653935702</v>
+        <v>14.5</v>
       </c>
       <c r="F28" t="n">
-        <v>14.0102984328901</v>
+        <v>15.2</v>
       </c>
       <c r="G28" t="n">
-        <v>13553.7</v>
+        <v>17511.4</v>
       </c>
       <c r="H28" t="n">
-        <v>56241.99313</v>
+        <v>179317.6</v>
       </c>
       <c r="I28" t="n">
-        <v>14.666244133429</v>
-      </c>
-      <c r="J28" t="n">
-        <v>2049.4</v>
-      </c>
-      <c r="K28" t="n">
-        <v>13553.69313</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2012-05</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>14.3210766255678</v>
-      </c>
-      <c r="C29" t="n">
-        <v>2178.8</v>
-      </c>
+          <t>2012-02</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
       <c r="D29" t="n">
-        <v>10858.7</v>
+        <v>4543.7</v>
       </c>
       <c r="E29" t="n">
-        <v>14.5494075365562</v>
-      </c>
-      <c r="F29" t="n">
-        <v>13.7149516639455</v>
-      </c>
-      <c r="G29" t="n">
-        <v>14536</v>
-      </c>
+        <v>14.6</v>
+      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
       <c r="H29" t="n">
-        <v>70778</v>
+        <v>29124.9</v>
       </c>
       <c r="I29" t="n">
-        <v>14.4695763453791</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2178.800000000001</v>
-      </c>
-      <c r="K29" t="n">
-        <v>14536.00687</v>
+        <v>14.7</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2012-06</t>
+          <t>2012-03</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>14</v>
+        <v>14.6</v>
       </c>
       <c r="C30" t="n">
-        <v>2239.8</v>
+        <v>2086.8</v>
       </c>
       <c r="D30" t="n">
-        <v>13098.5</v>
+        <v>6630.5</v>
       </c>
       <c r="E30" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="F30" t="n">
-        <v>13.7</v>
+        <v>15.2</v>
       </c>
       <c r="G30" t="n">
-        <v>14345.1</v>
+        <v>13563.4</v>
       </c>
       <c r="H30" t="n">
-        <v>85123.10000000001</v>
+        <v>42688.3</v>
       </c>
       <c r="I30" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="J30" t="n">
-        <v>2239.799999999999</v>
-      </c>
-      <c r="K30" t="n">
-        <v>14345.10000000001</v>
+        <v>14.9</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2012-07</t>
+          <t>2012-04</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>13.6</v>
+        <v>14.5344887780398</v>
       </c>
       <c r="C31" t="n">
-        <v>2160.3</v>
+        <v>2049.4</v>
       </c>
       <c r="D31" t="n">
-        <v>15258.8</v>
+        <v>8679.9</v>
       </c>
       <c r="E31" t="n">
-        <v>14.3</v>
+        <v>14.6068653935702</v>
       </c>
       <c r="F31" t="n">
-        <v>13.1</v>
+        <v>14.0102984328901</v>
       </c>
       <c r="G31" t="n">
-        <v>14154.6</v>
+        <v>13553.7</v>
       </c>
       <c r="H31" t="n">
-        <v>99277.7</v>
+        <v>56241.99313</v>
       </c>
       <c r="I31" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="J31" t="n">
-        <v>2160.299999999999</v>
-      </c>
-      <c r="K31" t="n">
-        <v>14154.59999999999</v>
+        <v>14.666244133429</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2012-08</t>
+          <t>2012-05</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>14.3</v>
+        <v>14.3210766255678</v>
       </c>
       <c r="C32" t="n">
-        <v>2177</v>
+        <v>2178.8</v>
       </c>
       <c r="D32" t="n">
-        <v>17435.8</v>
+        <v>10858.7</v>
       </c>
       <c r="E32" t="n">
-        <v>14.3</v>
+        <v>14.5494075365562</v>
       </c>
       <c r="F32" t="n">
-        <v>13.1</v>
+        <v>13.7149516639455</v>
       </c>
       <c r="G32" t="n">
-        <v>14481.9</v>
+        <v>14536</v>
       </c>
       <c r="H32" t="n">
-        <v>113759.6</v>
+        <v>70778</v>
       </c>
       <c r="I32" t="n">
-        <v>14</v>
-      </c>
-      <c r="J32" t="n">
-        <v>2177</v>
-      </c>
-      <c r="K32" t="n">
-        <v>14481.90000000001</v>
+        <v>14.4695763453791</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2012-09</t>
+          <t>2012-06</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>14.7</v>
+        <v>14</v>
       </c>
       <c r="C33" t="n">
-        <v>2654.3</v>
+        <v>2239.8</v>
       </c>
       <c r="D33" t="n">
-        <v>20090.1</v>
+        <v>13098.5</v>
       </c>
       <c r="E33" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="F33" t="n">
-        <v>14.2</v>
+        <v>13.7</v>
       </c>
       <c r="G33" t="n">
-        <v>15572.3</v>
+        <v>14345.1</v>
       </c>
       <c r="H33" t="n">
-        <v>129331.9</v>
+        <v>85123.10000000001</v>
       </c>
       <c r="I33" t="n">
-        <v>14</v>
-      </c>
-      <c r="J33" t="n">
-        <v>2654.299999999999</v>
-      </c>
-      <c r="K33" t="n">
-        <v>15572.29999999999</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2012-10</t>
+          <t>2012-07</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>14.8</v>
+        <v>13.6</v>
       </c>
       <c r="C34" t="n">
-        <v>2490.4</v>
+        <v>2160.3</v>
       </c>
       <c r="D34" t="n">
-        <v>22580.5</v>
+        <v>15258.8</v>
       </c>
       <c r="E34" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="F34" t="n">
-        <v>14.5</v>
+        <v>13.1</v>
       </c>
       <c r="G34" t="n">
-        <v>16443.4</v>
+        <v>14154.6</v>
       </c>
       <c r="H34" t="n">
-        <v>145775.3</v>
+        <v>99277.7</v>
       </c>
       <c r="I34" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="J34" t="n">
-        <v>2490.400000000001</v>
-      </c>
-      <c r="K34" t="n">
-        <v>16443.39999999999</v>
+        <v>14.2</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2012-11</t>
+          <t>2012-08</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>14.6</v>
+        <v>14.3</v>
       </c>
       <c r="C35" t="n">
-        <v>2445.8</v>
+        <v>2177</v>
       </c>
       <c r="D35" t="n">
-        <v>25026.3</v>
+        <v>17435.8</v>
       </c>
       <c r="E35" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="F35" t="n">
-        <v>15</v>
+        <v>13.1</v>
       </c>
       <c r="G35" t="n">
-        <v>16030.9</v>
+        <v>14481.9</v>
       </c>
       <c r="H35" t="n">
-        <v>161806.2</v>
+        <v>113759.6</v>
       </c>
       <c r="I35" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="J35" t="n">
-        <v>2445.799999999999</v>
-      </c>
-      <c r="K35" t="n">
-        <v>16030.90000000002</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2012-12</t>
+          <t>2012-09</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>15.1</v>
+        <v>14.7</v>
       </c>
       <c r="C36" t="n">
-        <v>2822.8</v>
+        <v>2654.3</v>
       </c>
       <c r="D36" t="n">
-        <v>27849.1</v>
+        <v>20090.1</v>
       </c>
       <c r="E36" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="F36" t="n">
-        <v>15.2</v>
+        <v>14.2</v>
       </c>
       <c r="G36" t="n">
-        <v>17511.4</v>
+        <v>15572.3</v>
       </c>
       <c r="H36" t="n">
-        <v>179317.6</v>
+        <v>129331.9</v>
       </c>
       <c r="I36" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="J36" t="n">
-        <v>2822.799999999999</v>
-      </c>
-      <c r="K36" t="n">
-        <v>17511.39999999999</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2013-02</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr"/>
-      <c r="C37" t="inlineStr"/>
+          <t>2013-10</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>14.5625179578947</v>
+      </c>
+      <c r="C37" t="n">
+        <v>2857.78142953801</v>
+      </c>
       <c r="D37" t="n">
-        <v>5154.3933509</v>
+        <v>25875.5621007089</v>
       </c>
       <c r="E37" t="n">
-        <v>13.4407091225201</v>
-      </c>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
+        <v>14.5113343830422</v>
+      </c>
+      <c r="F37" t="n">
+        <v>13.1319999064781</v>
+      </c>
+      <c r="G37" t="n">
+        <v>18633.5</v>
+      </c>
       <c r="H37" t="n">
-        <v>32655.4444491</v>
+        <v>164432.6644491</v>
       </c>
       <c r="I37" t="n">
-        <v>12.1220826478374</v>
-      </c>
-      <c r="J37" t="n">
-        <v>5154.3933509</v>
-      </c>
-      <c r="K37" t="n">
-        <v>32655.4444491</v>
+        <v>12.7101707547316</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2013-03</t>
+          <t>2013-11</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>15.0329591473365</v>
+        <v>14.7982024963169</v>
       </c>
       <c r="C38" t="n">
-        <v>2403.1</v>
+        <v>2807.73443665492</v>
       </c>
       <c r="D38" t="n">
-        <v>7557.4933509</v>
+        <v>28683.2965373639</v>
       </c>
       <c r="E38" t="n">
-        <v>13.9422053415622</v>
+        <v>14.539351850498</v>
       </c>
       <c r="F38" t="n">
-        <v>12.2260108788408</v>
+        <v>13.5569431535347</v>
       </c>
       <c r="G38" t="n">
-        <v>15238.1</v>
+        <v>18204.2</v>
       </c>
       <c r="H38" t="n">
-        <v>47893.5444491</v>
+        <v>182636.8644491</v>
       </c>
       <c r="I38" t="n">
-        <v>12.1551281979115</v>
-      </c>
-      <c r="J38" t="n">
-        <v>2403.1</v>
-      </c>
-      <c r="K38" t="n">
-        <v>15238.1</v>
+        <v>12.7940051380427</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2013-04</t>
+          <t>2013-12</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>13.8380404020688</v>
+        <v>14.8</v>
       </c>
       <c r="C39" t="n">
-        <v>2332.9968</v>
+        <v>3234.6</v>
       </c>
       <c r="D39" t="n">
-        <v>9890.490150899999</v>
+        <v>31917.9</v>
       </c>
       <c r="E39" t="n">
-        <v>13.9176174450686</v>
+        <v>14.6</v>
       </c>
       <c r="F39" t="n">
-        <v>12.6437799272523</v>
+        <v>13.4</v>
       </c>
       <c r="G39" t="n">
-        <v>15267.3</v>
+        <v>19825.1</v>
       </c>
       <c r="H39" t="n">
-        <v>63160.8</v>
+        <v>202462</v>
       </c>
       <c r="I39" t="n">
-        <v>12.2728572015041</v>
-      </c>
-      <c r="J39" t="n">
-        <v>2332.996799999999</v>
-      </c>
-      <c r="K39" t="n">
-        <v>15267.2555509</v>
+        <v>12.9</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2013-05</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>14.8291030340009</v>
-      </c>
-      <c r="C40" t="n">
-        <v>2502.6</v>
-      </c>
+          <t>2013-02</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
       <c r="D40" t="n">
-        <v>12393.0901509</v>
+        <v>5154.3933509</v>
       </c>
       <c r="E40" t="n">
-        <v>14.1005105164015</v>
-      </c>
-      <c r="F40" t="n">
-        <v>12.6020731589982</v>
-      </c>
-      <c r="G40" t="n">
-        <v>16383.7</v>
-      </c>
+        <v>13.4407091225201</v>
+      </c>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
       <c r="H40" t="n">
-        <v>79544.54444909999</v>
+        <v>32655.4444491</v>
       </c>
       <c r="I40" t="n">
-        <v>12.3405078425381</v>
-      </c>
-      <c r="J40" t="n">
-        <v>2502.6</v>
-      </c>
-      <c r="K40" t="n">
-        <v>16383.74444909999</v>
+        <v>12.1220826478374</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2013-06</t>
+          <t>2013-03</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>15.0741181118037</v>
+        <v>15.0329591473365</v>
       </c>
       <c r="C41" t="n">
-        <v>2582.082611566</v>
+        <v>2403.1</v>
       </c>
       <c r="D41" t="n">
-        <v>14975.172762466</v>
+        <v>7557.4933509</v>
       </c>
       <c r="E41" t="n">
-        <v>14.2672069089782</v>
+        <v>13.9422053415622</v>
       </c>
       <c r="F41" t="n">
-        <v>13.0374116566759</v>
+        <v>12.2260108788408</v>
       </c>
       <c r="G41" t="n">
-        <v>16244.6</v>
+        <v>15238.1</v>
       </c>
       <c r="H41" t="n">
-        <v>95789.1444491</v>
+        <v>47893.5444491</v>
       </c>
       <c r="I41" t="n">
-        <v>12.4580878832308</v>
-      </c>
-      <c r="J41" t="n">
-        <v>2582.082611566</v>
-      </c>
-      <c r="K41" t="n">
-        <v>16244.60000000001</v>
+        <v>12.1551281979115</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2013-07</t>
+          <t>2013-04</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>14.9526988058055</v>
+        <v>13.8380404020688</v>
       </c>
       <c r="C42" t="n">
-        <v>2489.06154376249</v>
+        <v>2332.9968</v>
       </c>
       <c r="D42" t="n">
-        <v>17464.2343062285</v>
+        <v>9890.490150899999</v>
       </c>
       <c r="E42" t="n">
-        <v>14.3644055327727</v>
+        <v>13.9176174450686</v>
       </c>
       <c r="F42" t="n">
-        <v>12.9467264230893</v>
+        <v>12.6437799272523</v>
       </c>
       <c r="G42" t="n">
-        <v>16024.1</v>
+        <v>15267.3</v>
       </c>
       <c r="H42" t="n">
-        <v>111813.3444491</v>
+        <v>63160.8</v>
       </c>
       <c r="I42" t="n">
-        <v>12.5278555373995</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2489.0615437625</v>
-      </c>
-      <c r="K42" t="n">
-        <v>16024.2</v>
+        <v>12.2728572015041</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2013-08</t>
+          <t>2013-05</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>15.1444862276236</v>
+        <v>14.8291030340009</v>
       </c>
       <c r="C43" t="n">
-        <v>2506.69546517537</v>
+        <v>2502.6</v>
       </c>
       <c r="D43" t="n">
-        <v>19970.9297714039</v>
+        <v>12393.0901509</v>
       </c>
       <c r="E43" t="n">
-        <v>14.4617385111181</v>
+        <v>14.1005105164015</v>
       </c>
       <c r="F43" t="n">
-        <v>13.103391129617</v>
+        <v>12.6020731589982</v>
       </c>
       <c r="G43" t="n">
-        <v>16379.52</v>
+        <v>16383.7</v>
       </c>
       <c r="H43" t="n">
-        <v>128192.8444491</v>
+        <v>79544.54444909999</v>
       </c>
       <c r="I43" t="n">
-        <v>12.6010665448036</v>
-      </c>
-      <c r="J43" t="n">
-        <v>2506.695465175399</v>
-      </c>
-      <c r="K43" t="n">
-        <v>16379.5</v>
+        <v>12.3405078425381</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2013-09</t>
+          <t>2013-06</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>14.7925138089376</v>
+        <v>15.0741181118037</v>
       </c>
       <c r="C44" t="n">
-        <v>3046.93769403063</v>
+        <v>2582.082611566</v>
       </c>
       <c r="D44" t="n">
-        <v>23017.7806711709</v>
+        <v>14975.172762466</v>
       </c>
       <c r="E44" t="n">
-        <v>14.5049828580205</v>
+        <v>14.2672069089782</v>
       </c>
       <c r="F44" t="n">
-        <v>13.0622965136814</v>
+        <v>13.0374116566759</v>
       </c>
       <c r="G44" t="n">
-        <v>17606.4</v>
+        <v>16244.6</v>
       </c>
       <c r="H44" t="n">
-        <v>145799.1644491</v>
+        <v>95789.1444491</v>
       </c>
       <c r="I44" t="n">
-        <v>12.6564865244916</v>
-      </c>
-      <c r="J44" t="n">
-        <v>3046.850899767003</v>
-      </c>
-      <c r="K44" t="n">
-        <v>17606.32000000001</v>
+        <v>12.4580878832308</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2013-10</t>
+          <t>2013-07</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>14.5625179578947</v>
+        <v>14.9526988058055</v>
       </c>
       <c r="C45" t="n">
-        <v>2857.78142953801</v>
+        <v>2489.06154376249</v>
       </c>
       <c r="D45" t="n">
-        <v>25875.5621007089</v>
+        <v>17464.2343062285</v>
       </c>
       <c r="E45" t="n">
-        <v>14.5113343830422</v>
+        <v>14.3644055327727</v>
       </c>
       <c r="F45" t="n">
-        <v>13.1319999064781</v>
+        <v>12.9467264230893</v>
       </c>
       <c r="G45" t="n">
-        <v>18633.5</v>
+        <v>16024.1</v>
       </c>
       <c r="H45" t="n">
-        <v>164432.6644491</v>
+        <v>111813.3444491</v>
       </c>
       <c r="I45" t="n">
-        <v>12.7101707547316</v>
-      </c>
-      <c r="J45" t="n">
-        <v>2857.781429537998</v>
-      </c>
-      <c r="K45" t="n">
-        <v>18633.5</v>
+        <v>12.5278555373995</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2013-11</t>
+          <t>2013-08</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>14.7982024963169</v>
+        <v>15.1444862276236</v>
       </c>
       <c r="C46" t="n">
-        <v>2807.73443665492</v>
+        <v>2506.69546517537</v>
       </c>
       <c r="D46" t="n">
-        <v>28683.2965373639</v>
+        <v>19970.9297714039</v>
       </c>
       <c r="E46" t="n">
-        <v>14.539351850498</v>
+        <v>14.4617385111181</v>
       </c>
       <c r="F46" t="n">
-        <v>13.5569431535347</v>
+        <v>13.103391129617</v>
       </c>
       <c r="G46" t="n">
-        <v>18204.2</v>
+        <v>16379.52</v>
       </c>
       <c r="H46" t="n">
-        <v>182636.8644491</v>
+        <v>128192.8444491</v>
       </c>
       <c r="I46" t="n">
-        <v>12.7940051380427</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2807.734436655002</v>
-      </c>
-      <c r="K46" t="n">
-        <v>18204.19999999998</v>
+        <v>12.6010665448036</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2013-12</t>
+          <t>2013-09</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>14.8</v>
+        <v>14.7925138089376</v>
       </c>
       <c r="C47" t="n">
-        <v>3234.6</v>
+        <v>3046.93769403063</v>
       </c>
       <c r="D47" t="n">
-        <v>31917.9</v>
+        <v>23017.7806711709</v>
       </c>
       <c r="E47" t="n">
-        <v>14.6</v>
+        <v>14.5049828580205</v>
       </c>
       <c r="F47" t="n">
-        <v>13.4</v>
+        <v>13.0622965136814</v>
       </c>
       <c r="G47" t="n">
-        <v>19825.1</v>
+        <v>17606.4</v>
       </c>
       <c r="H47" t="n">
-        <v>202462</v>
+        <v>145799.1644491</v>
       </c>
       <c r="I47" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="J47" t="n">
-        <v>3234.6034626361</v>
-      </c>
-      <c r="K47" t="n">
-        <v>19825.13555090001</v>
+        <v>12.6564865244916</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2014-02</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr"/>
-      <c r="C48" t="inlineStr"/>
+          <t>2014-10</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>12.4481459846006</v>
+      </c>
+      <c r="C48" t="n">
+        <v>3213.5222338077</v>
+      </c>
       <c r="D48" t="n">
-        <v>5814.42138844732</v>
+        <v>29232.4064474762</v>
       </c>
       <c r="E48" t="n">
-        <v>12.8051546052858</v>
-      </c>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
+        <v>12.9726507193253</v>
+      </c>
+      <c r="F48" t="n">
+        <v>11.3784313199345</v>
+      </c>
+      <c r="G48" t="n">
+        <v>20753.7</v>
+      </c>
       <c r="H48" t="n">
-        <v>36466.2691168787</v>
+        <v>183885.769116879</v>
       </c>
       <c r="I48" t="n">
-        <v>11.6697988101758</v>
-      </c>
-      <c r="J48" t="n">
-        <v>5814.42138844732</v>
-      </c>
-      <c r="K48" t="n">
-        <v>36466.2691168787</v>
+        <v>11.8304381510526</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2014-03</t>
+          <t>2014-11</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>12.9147088078252</v>
+        <v>12.5106942955181</v>
       </c>
       <c r="C49" t="n">
-        <v>2713.45336736085</v>
+        <v>3159.0015086548</v>
       </c>
       <c r="D49" t="n">
-        <v>8527.87475580816</v>
+        <v>32391.407956131</v>
       </c>
       <c r="E49" t="n">
-        <v>12.839990190565</v>
+        <v>12.9274311249573</v>
       </c>
       <c r="F49" t="n">
-        <v>12.1340587081066</v>
+        <v>11.5986970039881</v>
       </c>
       <c r="G49" t="n">
-        <v>17087.1</v>
+        <v>20315.65</v>
       </c>
       <c r="H49" t="n">
-        <v>53553.3691168787</v>
+        <v>204201.419116879</v>
       </c>
       <c r="I49" t="n">
-        <v>11.8175105494516</v>
-      </c>
-      <c r="J49" t="n">
-        <v>2713.453367360839</v>
-      </c>
-      <c r="K49" t="n">
-        <v>17087.1</v>
+        <v>11.807339516491</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2014-04</t>
+          <t>2014-12</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>13.1939598399954</v>
+        <v>12.3846800060875</v>
       </c>
       <c r="C50" t="n">
-        <v>2640.81146086037</v>
+        <v>3635.21491074722</v>
       </c>
       <c r="D50" t="n">
-        <v>11168.6862166685</v>
+        <v>36026.6228668782</v>
       </c>
       <c r="E50" t="n">
-        <v>12.9234855529605</v>
+        <v>12.872427917108</v>
       </c>
       <c r="F50" t="n">
-        <v>11.7447092806194</v>
+        <v>11.8082632622282</v>
       </c>
       <c r="G50" t="n">
-        <v>17060.4</v>
+        <v>22166.1</v>
       </c>
       <c r="H50" t="n">
-        <v>70613.7691168787</v>
+        <v>226367.519116879</v>
       </c>
       <c r="I50" t="n">
-        <v>11.799912956808</v>
-      </c>
-      <c r="J50" t="n">
-        <v>2640.811460860341</v>
-      </c>
-      <c r="K50" t="n">
-        <v>17060.4</v>
+        <v>11.8074299697851</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2014-05</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>13.8532608079722</v>
-      </c>
-      <c r="C51" t="n">
-        <v>2849.29170498031</v>
-      </c>
+          <t>2014-02</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr"/>
+      <c r="C51" t="inlineStr"/>
       <c r="D51" t="n">
-        <v>14017.9779216488</v>
+        <v>5814.42138844732</v>
       </c>
       <c r="E51" t="n">
-        <v>13.1112398196414</v>
-      </c>
-      <c r="F51" t="n">
-        <v>12.3097957115914</v>
-      </c>
-      <c r="G51" t="n">
-        <v>18400.5</v>
-      </c>
+        <v>12.8051546052858</v>
+      </c>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
       <c r="H51" t="n">
-        <v>89014.2691168787</v>
+        <v>36466.2691168787</v>
       </c>
       <c r="I51" t="n">
-        <v>11.9049329320609</v>
-      </c>
-      <c r="J51" t="n">
-        <v>2849.2917049803</v>
-      </c>
-      <c r="K51" t="n">
-        <v>18400.5</v>
+        <v>11.6697988101758</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2014-06</t>
+          <t>2014-03</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>13.3871380711812</v>
+        <v>12.9147088078252</v>
       </c>
       <c r="C52" t="n">
-        <v>2927.7495758883</v>
+        <v>2713.45336736085</v>
       </c>
       <c r="D52" t="n">
-        <v>16945.7274975371</v>
+        <v>8527.87475580816</v>
       </c>
       <c r="E52" t="n">
-        <v>13.1588113628324</v>
+        <v>12.839990190565</v>
       </c>
       <c r="F52" t="n">
-        <v>12.2754638464474</v>
+        <v>12.1340587081066</v>
       </c>
       <c r="G52" t="n">
-        <v>18238.7</v>
+        <v>17087.1</v>
       </c>
       <c r="H52" t="n">
-        <v>107252.969116879</v>
+        <v>53553.3691168787</v>
       </c>
       <c r="I52" t="n">
-        <v>11.9677701828418</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2927.7495758883</v>
-      </c>
-      <c r="K52" t="n">
-        <v>18238.7000000003</v>
+        <v>11.8175105494516</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2014-07</t>
+          <t>2014-04</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>13.1788815026244</v>
+        <v>13.1939598399954</v>
       </c>
       <c r="C53" t="n">
-        <v>2817.09201514235</v>
+        <v>2640.81146086037</v>
       </c>
       <c r="D53" t="n">
-        <v>19762.8195126795</v>
+        <v>11168.6862166685</v>
       </c>
       <c r="E53" t="n">
-        <v>13.1616718268103</v>
+        <v>12.9234855529605</v>
       </c>
       <c r="F53" t="n">
-        <v>12.0730649459252</v>
+        <v>11.7447092806194</v>
       </c>
       <c r="G53" t="n">
-        <v>17958.7</v>
+        <v>17060.4</v>
       </c>
       <c r="H53" t="n">
-        <v>125211.669116879</v>
+        <v>70613.7691168787</v>
       </c>
       <c r="I53" t="n">
-        <v>11.982860110886</v>
-      </c>
-      <c r="J53" t="n">
-        <v>2817.0920151424</v>
-      </c>
-      <c r="K53" t="n">
-        <v>17958.7</v>
+        <v>11.799912956808</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2014-08</t>
+          <t>2014-05</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>12.7991374371388</v>
+        <v>13.8532608079722</v>
       </c>
       <c r="C54" t="n">
-        <v>2827.53086289369</v>
+        <v>2849.29170498031</v>
       </c>
       <c r="D54" t="n">
-        <v>22590.3503755732</v>
+        <v>14017.9779216488</v>
       </c>
       <c r="E54" t="n">
-        <v>13.1161675202526</v>
+        <v>13.1112398196414</v>
       </c>
       <c r="F54" t="n">
-        <v>11.7639588950104</v>
+        <v>12.3097957115914</v>
       </c>
       <c r="G54" t="n">
-        <v>18306.4</v>
+        <v>18400.5</v>
       </c>
       <c r="H54" t="n">
-        <v>143518.069116879</v>
+        <v>89014.2691168787</v>
       </c>
       <c r="I54" t="n">
-        <v>11.954890538197</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2827.530862893702</v>
-      </c>
-      <c r="K54" t="n">
-        <v>18306.39999999999</v>
+        <v>11.9049329320609</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2014-09</t>
+          <t>2014-06</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>12.5206414562433</v>
+        <v>13.3871380711812</v>
       </c>
       <c r="C55" t="n">
-        <v>3428.43383809534</v>
+        <v>2927.7495758883</v>
       </c>
       <c r="D55" t="n">
-        <v>26018.8842136685</v>
+        <v>16945.7274975371</v>
       </c>
       <c r="E55" t="n">
-        <v>13.0377705612416</v>
+        <v>13.1588113628324</v>
       </c>
       <c r="F55" t="n">
-        <v>11.4026717557252</v>
+        <v>12.2754638464474</v>
       </c>
       <c r="G55" t="n">
-        <v>19614</v>
+        <v>18238.7</v>
       </c>
       <c r="H55" t="n">
-        <v>163132.069116879</v>
+        <v>107252.969116879</v>
       </c>
       <c r="I55" t="n">
-        <v>11.8882057611721</v>
-      </c>
-      <c r="J55" t="n">
-        <v>3428.5338380953</v>
-      </c>
-      <c r="K55" t="n">
-        <v>19614</v>
+        <v>11.9677701828418</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2014-10</t>
+          <t>2014-07</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>12.4481459846006</v>
+        <v>13.1788815026244</v>
       </c>
       <c r="C56" t="n">
-        <v>3213.5222338077</v>
+        <v>2817.09201514235</v>
       </c>
       <c r="D56" t="n">
-        <v>29232.4064474762</v>
+        <v>19762.8195126795</v>
       </c>
       <c r="E56" t="n">
-        <v>12.9726507193253</v>
+        <v>13.1616718268103</v>
       </c>
       <c r="F56" t="n">
-        <v>11.3784313199345</v>
+        <v>12.0730649459252</v>
       </c>
       <c r="G56" t="n">
-        <v>20753.7</v>
+        <v>17958.7</v>
       </c>
       <c r="H56" t="n">
-        <v>183885.769116879</v>
+        <v>125211.669116879</v>
       </c>
       <c r="I56" t="n">
-        <v>11.8304381510526</v>
-      </c>
-      <c r="J56" t="n">
-        <v>3213.5222338077</v>
-      </c>
-      <c r="K56" t="n">
-        <v>20753.70000000001</v>
+        <v>11.982860110886</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>2014-11</t>
+          <t>2014-08</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>12.5106942955181</v>
+        <v>12.7991374371388</v>
       </c>
       <c r="C57" t="n">
-        <v>3159.0015086548</v>
+        <v>2827.53086289369</v>
       </c>
       <c r="D57" t="n">
-        <v>32391.407956131</v>
+        <v>22590.3503755732</v>
       </c>
       <c r="E57" t="n">
-        <v>12.9274311249573</v>
+        <v>13.1161675202526</v>
       </c>
       <c r="F57" t="n">
-        <v>11.5986970039881</v>
+        <v>11.7639588950104</v>
       </c>
       <c r="G57" t="n">
-        <v>20315.65</v>
+        <v>18306.4</v>
       </c>
       <c r="H57" t="n">
-        <v>204201.419116879</v>
+        <v>143518.069116879</v>
       </c>
       <c r="I57" t="n">
-        <v>11.807339516491</v>
-      </c>
-      <c r="J57" t="n">
-        <v>3159.001508654797</v>
-      </c>
-      <c r="K57" t="n">
-        <v>20315.64999999999</v>
+        <v>11.954890538197</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>2014-12</t>
+          <t>2014-09</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>12.3846800060875</v>
+        <v>12.5206414562433</v>
       </c>
       <c r="C58" t="n">
-        <v>3635.21491074722</v>
+        <v>3428.43383809534</v>
       </c>
       <c r="D58" t="n">
-        <v>36026.6228668782</v>
+        <v>26018.8842136685</v>
       </c>
       <c r="E58" t="n">
-        <v>12.872427917108</v>
+        <v>13.0377705612416</v>
       </c>
       <c r="F58" t="n">
-        <v>11.8082632622282</v>
+        <v>11.4026717557252</v>
       </c>
       <c r="G58" t="n">
-        <v>22166.1</v>
+        <v>19614</v>
       </c>
       <c r="H58" t="n">
-        <v>226367.519116879</v>
+        <v>163132.069116879</v>
       </c>
       <c r="I58" t="n">
-        <v>11.8074299697851</v>
-      </c>
-      <c r="J58" t="n">
-        <v>3635.2149107472</v>
-      </c>
-      <c r="K58" t="n">
-        <v>22166.10000000001</v>
+        <v>11.8882057611721</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2015-02</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr"/>
-      <c r="C59" t="inlineStr"/>
+          <t>2015-10</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>12.2038056402043</v>
+      </c>
+      <c r="C59" t="n">
+        <v>3831.93960317683</v>
+      </c>
       <c r="D59" t="n">
-        <v>6857.46998169052</v>
+        <v>34069.2268943075</v>
       </c>
       <c r="E59" t="n">
-        <v>11.6354232673015</v>
-      </c>
-      <c r="F59" t="inlineStr"/>
-      <c r="G59" t="inlineStr"/>
+        <v>11.7930767351186</v>
+      </c>
+      <c r="F59" t="n">
+        <v>10.8407334639675</v>
+      </c>
+      <c r="G59" t="n">
+        <v>24446.95002</v>
+      </c>
       <c r="H59" t="n">
-        <v>41135.0390457941</v>
+        <v>210289.549635794</v>
       </c>
       <c r="I59" t="n">
-        <v>10.5621260038795</v>
-      </c>
-      <c r="J59" t="n">
-        <v>6857.46998169052</v>
-      </c>
-      <c r="K59" t="n">
-        <v>41135.0390457941</v>
+        <v>10.3848752289372</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2015-03</t>
+          <t>2015-11</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>11.4884540953736</v>
+        <v>12.1935996713585</v>
       </c>
       <c r="C60" t="n">
-        <v>3149.05322406633</v>
+        <v>3794.08162445686</v>
       </c>
       <c r="D60" t="n">
-        <v>10006.5232057568</v>
+        <v>37863.3085187644</v>
       </c>
       <c r="E60" t="n">
-        <v>11.5891302977236</v>
+        <v>11.8330820518005</v>
       </c>
       <c r="F60" t="n">
-        <v>10.046995699134</v>
+        <v>11.013682897415</v>
       </c>
       <c r="G60" t="n">
-        <v>19573.76171</v>
+        <v>24143.26421</v>
       </c>
       <c r="H60" t="n">
-        <v>60708.8007557941</v>
+        <v>234432.813845794</v>
       </c>
       <c r="I60" t="n">
-        <v>10.3955114371973</v>
-      </c>
-      <c r="J60" t="n">
-        <v>3149.053224066279</v>
-      </c>
-      <c r="K60" t="n">
-        <v>19573.76171</v>
+        <v>10.4493043030282</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>2015-04</t>
+          <t>2015-12</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>11.4098161315497</v>
+        <v>12</v>
       </c>
       <c r="C61" t="n">
-        <v>3039.17425200772</v>
+        <v>4068.8</v>
       </c>
       <c r="D61" t="n">
-        <v>13045.6974577646</v>
+        <v>41932.1</v>
       </c>
       <c r="E61" t="n">
-        <v>11.5473050497502</v>
+        <v>11.8</v>
       </c>
       <c r="F61" t="n">
-        <v>9.784330548562661</v>
+        <v>10.9</v>
       </c>
       <c r="G61" t="n">
-        <v>19347.5401</v>
+        <v>24565.9</v>
       </c>
       <c r="H61" t="n">
-        <v>80056.3408557941</v>
+        <v>258998.7</v>
       </c>
       <c r="I61" t="n">
-        <v>10.2471821447184</v>
-      </c>
-      <c r="J61" t="n">
-        <v>3039.174252007801</v>
-      </c>
-      <c r="K61" t="n">
-        <v>19347.5401</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>2015-05</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>11.5805887268406</v>
-      </c>
-      <c r="C62" t="n">
-        <v>3286.90288321282</v>
-      </c>
+          <t>2015-02</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr"/>
+      <c r="C62" t="inlineStr"/>
       <c r="D62" t="n">
-        <v>16332.6003409774</v>
+        <v>6857.46998169052</v>
       </c>
       <c r="E62" t="n">
-        <v>11.5540017266075</v>
-      </c>
-      <c r="F62" t="n">
-        <v>9.9056196139629</v>
-      </c>
-      <c r="G62" t="n">
-        <v>20907.92018</v>
-      </c>
+        <v>11.6354232673015</v>
+      </c>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
       <c r="H62" t="n">
-        <v>100964.261035794</v>
+        <v>41135.0390457941</v>
       </c>
       <c r="I62" t="n">
-        <v>10.1762763748825</v>
-      </c>
-      <c r="J62" t="n">
-        <v>3286.902883212801</v>
-      </c>
-      <c r="K62" t="n">
-        <v>20907.9201799999</v>
+        <v>10.5621260038795</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>2015-06</t>
+          <t>2015-03</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>11.8130066342968</v>
+        <v>11.4884540953736</v>
       </c>
       <c r="C63" t="n">
-        <v>3394.3075375</v>
+        <v>3149.05322406633</v>
       </c>
       <c r="D63" t="n">
-        <v>19726.9078784774</v>
+        <v>10006.5232057568</v>
       </c>
       <c r="E63" t="n">
-        <v>11.5984818646379</v>
+        <v>11.5891302977236</v>
       </c>
       <c r="F63" t="n">
-        <v>10.4423643473231</v>
+        <v>10.046995699134</v>
       </c>
       <c r="G63" t="n">
-        <v>20885.96334</v>
+        <v>19573.76171</v>
       </c>
       <c r="H63" t="n">
-        <v>121850.224375794</v>
+        <v>60708.8007557941</v>
       </c>
       <c r="I63" t="n">
-        <v>10.221794587985</v>
-      </c>
-      <c r="J63" t="n">
-        <v>3394.307537499999</v>
-      </c>
-      <c r="K63" t="n">
-        <v>20885.96334</v>
+        <v>10.3955114371973</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>2015-07</t>
+          <t>2015-04</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>11.9255191913319</v>
+        <v>11.4098161315497</v>
       </c>
       <c r="C64" t="n">
-        <v>3342.41687836049</v>
+        <v>3039.17425200772</v>
       </c>
       <c r="D64" t="n">
-        <v>23069.3247568379</v>
+        <v>13045.6974577646</v>
       </c>
       <c r="E64" t="n">
-        <v>11.6457464792568</v>
+        <v>11.5473050497502</v>
       </c>
       <c r="F64" t="n">
-        <v>10.2906419981768</v>
+        <v>9.784330548562661</v>
       </c>
       <c r="G64" t="n">
-        <v>20996.36074</v>
+        <v>19347.5401</v>
       </c>
       <c r="H64" t="n">
-        <v>142846.585115794</v>
+        <v>80056.3408557941</v>
       </c>
       <c r="I64" t="n">
-        <v>10.2319087623001</v>
-      </c>
-      <c r="J64" t="n">
-        <v>3342.416878360502</v>
-      </c>
-      <c r="K64" t="n">
-        <v>20996.36074</v>
+        <v>10.2471821447184</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>2015-08</t>
+          <t>2015-05</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>11.9453933753401</v>
+        <v>11.5805887268406</v>
       </c>
       <c r="C65" t="n">
-        <v>3365.17192237167</v>
+        <v>3286.90288321282</v>
       </c>
       <c r="D65" t="n">
-        <v>26434.4966792095</v>
+        <v>16332.6003409774</v>
       </c>
       <c r="E65" t="n">
-        <v>11.6838030771723</v>
+        <v>11.5540017266075</v>
       </c>
       <c r="F65" t="n">
-        <v>10.6142174203929</v>
+        <v>9.9056196139629</v>
       </c>
       <c r="G65" t="n">
-        <v>21528.19282</v>
+        <v>20907.92018</v>
       </c>
       <c r="H65" t="n">
-        <v>164374.777935794</v>
+        <v>100964.261035794</v>
       </c>
       <c r="I65" t="n">
-        <v>10.2818293327415</v>
-      </c>
-      <c r="J65" t="n">
-        <v>3365.171922371599</v>
-      </c>
-      <c r="K65" t="n">
-        <v>21528.19282</v>
+        <v>10.1762763748825</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>2015-09</t>
+          <t>2015-06</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>12.1</v>
+        <v>11.8130066342968</v>
       </c>
       <c r="C66" t="n">
-        <v>3802.8</v>
+        <v>3394.3075375</v>
       </c>
       <c r="D66" t="n">
-        <v>30237.3</v>
+        <v>19726.9078784774</v>
       </c>
       <c r="E66" t="n">
-        <v>11.7</v>
+        <v>11.5984818646379</v>
       </c>
       <c r="F66" t="n">
-        <v>10.7</v>
+        <v>10.4423643473231</v>
       </c>
       <c r="G66" t="n">
-        <v>21467.8</v>
+        <v>20885.96334</v>
       </c>
       <c r="H66" t="n">
-        <v>185842.6</v>
+        <v>121850.224375794</v>
       </c>
       <c r="I66" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="J66" t="n">
-        <v>3802.803320790499</v>
-      </c>
-      <c r="K66" t="n">
-        <v>21467.822064206</v>
+        <v>10.221794587985</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>2015-10</t>
+          <t>2015-07</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>12.2038056402043</v>
+        <v>11.9255191913319</v>
       </c>
       <c r="C67" t="n">
-        <v>3831.93960317683</v>
+        <v>3342.41687836049</v>
       </c>
       <c r="D67" t="n">
-        <v>34069.2268943075</v>
+        <v>23069.3247568379</v>
       </c>
       <c r="E67" t="n">
-        <v>11.7930767351186</v>
+        <v>11.6457464792568</v>
       </c>
       <c r="F67" t="n">
-        <v>10.8407334639675</v>
+        <v>10.2906419981768</v>
       </c>
       <c r="G67" t="n">
-        <v>24446.95002</v>
+        <v>20996.36074</v>
       </c>
       <c r="H67" t="n">
-        <v>210289.549635794</v>
+        <v>142846.585115794</v>
       </c>
       <c r="I67" t="n">
-        <v>10.3848752289372</v>
-      </c>
-      <c r="J67" t="n">
-        <v>3831.926894307504</v>
-      </c>
-      <c r="K67" t="n">
-        <v>24446.94963579401</v>
+        <v>10.2319087623001</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>2015-11</t>
+          <t>2015-08</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>12.1935996713585</v>
+        <v>11.9453933753401</v>
       </c>
       <c r="C68" t="n">
-        <v>3794.08162445686</v>
+        <v>3365.17192237167</v>
       </c>
       <c r="D68" t="n">
-        <v>37863.3085187644</v>
+        <v>26434.4966792095</v>
       </c>
       <c r="E68" t="n">
-        <v>11.8330820518005</v>
+        <v>11.6838030771723</v>
       </c>
       <c r="F68" t="n">
-        <v>11.013682897415</v>
+        <v>10.6142174203929</v>
       </c>
       <c r="G68" t="n">
-        <v>24143.26421</v>
+        <v>21528.19282</v>
       </c>
       <c r="H68" t="n">
-        <v>234432.813845794</v>
+        <v>164374.777935794</v>
       </c>
       <c r="I68" t="n">
-        <v>10.4493043030282</v>
-      </c>
-      <c r="J68" t="n">
-        <v>3794.0816244569</v>
-      </c>
-      <c r="K68" t="n">
-        <v>24143.26420999999</v>
+        <v>10.2818293327415</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>2015-12</t>
+          <t>2015-09</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="C69" t="n">
-        <v>4068.8</v>
+        <v>3802.8</v>
       </c>
       <c r="D69" t="n">
-        <v>41932.1</v>
+        <v>30237.3</v>
       </c>
       <c r="E69" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="F69" t="n">
-        <v>10.9</v>
+        <v>10.7</v>
       </c>
       <c r="G69" t="n">
-        <v>24565.9</v>
+        <v>21467.8</v>
       </c>
       <c r="H69" t="n">
-        <v>258998.7</v>
+        <v>185842.6</v>
       </c>
       <c r="I69" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="J69" t="n">
-        <v>4068.791481235596</v>
-      </c>
-      <c r="K69" t="n">
-        <v>24565.886154206</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>2016-02</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr"/>
-      <c r="C70" t="inlineStr"/>
+          <t>2016-10</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="C70" t="n">
+        <v>4226.1</v>
+      </c>
       <c r="D70" t="n">
-        <v>7606.9</v>
+        <v>37768.1</v>
       </c>
       <c r="E70" t="n">
         <v>10.9</v>
       </c>
-      <c r="F70" t="inlineStr"/>
-      <c r="G70" t="inlineStr"/>
+      <c r="F70" t="n">
+        <v>10</v>
+      </c>
+      <c r="G70" t="n">
+        <v>26893.1</v>
+      </c>
       <c r="H70" t="n">
-        <v>45303.4</v>
+        <v>231832.9</v>
       </c>
       <c r="I70" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="J70" t="n">
-        <v>7606.9</v>
-      </c>
-      <c r="K70" t="n">
-        <v>45303.4</v>
+        <v>10.2</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>2016-03</t>
+          <t>2016-11</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="C71" t="n">
-        <v>3498</v>
+        <v>4210.4</v>
       </c>
       <c r="D71" t="n">
-        <v>11104.9</v>
+        <v>41978.5</v>
       </c>
       <c r="E71" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="F71" t="n">
-        <v>10.4</v>
+        <v>10.8</v>
       </c>
       <c r="G71" t="n">
-        <v>21616.1</v>
+        <v>26748.2</v>
       </c>
       <c r="H71" t="n">
-        <v>66919.5</v>
+        <v>258581.1</v>
       </c>
       <c r="I71" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="J71" t="n">
-        <v>3498</v>
-      </c>
-      <c r="K71" t="n">
-        <v>21616.1</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>2016-04</t>
+          <t>2016-12</t>
         </is>
       </c>
       <c r="B72" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="C72" t="n">
+        <v>4524</v>
+      </c>
+      <c r="D72" t="n">
+        <v>46503</v>
+      </c>
+      <c r="E72" t="n">
         <v>10.9</v>
       </c>
-      <c r="C72" t="n">
-        <v>3371.6</v>
-      </c>
-      <c r="D72" t="n">
-        <v>14476.4</v>
-      </c>
-      <c r="E72" t="n">
-        <v>11</v>
-      </c>
       <c r="F72" t="n">
-        <v>10</v>
+        <v>10.9</v>
       </c>
       <c r="G72" t="n">
-        <v>21274.2</v>
+        <v>27233</v>
       </c>
       <c r="H72" t="n">
-        <v>88193.8</v>
+        <v>285814</v>
       </c>
       <c r="I72" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="J72" t="n">
-        <v>3371.5</v>
-      </c>
-      <c r="K72" t="n">
-        <v>21274.3</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>2016-05</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="C73" t="n">
-        <v>3637.8</v>
-      </c>
+          <t>2016-02</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr"/>
+      <c r="C73" t="inlineStr"/>
       <c r="D73" t="n">
-        <v>18114.2</v>
+        <v>7606.9</v>
       </c>
       <c r="E73" t="n">
         <v>10.9</v>
       </c>
-      <c r="F73" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="G73" t="n">
-        <v>22972.9</v>
-      </c>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
       <c r="H73" t="n">
-        <v>111166.7</v>
+        <v>45303.4</v>
       </c>
       <c r="I73" t="n">
         <v>10.1</v>
       </c>
-      <c r="J73" t="n">
-        <v>3637.800000000001</v>
-      </c>
-      <c r="K73" t="n">
-        <v>22972.89999999999</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>2016-06</t>
+          <t>2016-03</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="C74" t="n">
-        <v>3775.3</v>
+        <v>3498</v>
       </c>
       <c r="D74" t="n">
-        <v>21889.5</v>
+        <v>11104.9</v>
       </c>
       <c r="E74" t="n">
         <v>11</v>
       </c>
       <c r="F74" t="n">
-        <v>10.5</v>
+        <v>10.4</v>
       </c>
       <c r="G74" t="n">
-        <v>23082.1</v>
+        <v>21616.1</v>
       </c>
       <c r="H74" t="n">
-        <v>134248.8</v>
+        <v>66919.5</v>
       </c>
       <c r="I74" t="n">
         <v>10.2</v>
       </c>
-      <c r="J74" t="n">
-        <v>3775.299999999999</v>
-      </c>
-      <c r="K74" t="n">
-        <v>23082.09999999999</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>2016-07</t>
+          <t>2016-04</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>10.7</v>
+        <v>10.9</v>
       </c>
       <c r="C75" t="n">
-        <v>3701.4</v>
+        <v>3371.6</v>
       </c>
       <c r="D75" t="n">
-        <v>25590.9</v>
+        <v>14476.4</v>
       </c>
       <c r="E75" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="F75" t="n">
-        <v>10.1</v>
+        <v>10</v>
       </c>
       <c r="G75" t="n">
-        <v>23126.1</v>
+        <v>21274.2</v>
       </c>
       <c r="H75" t="n">
-        <v>157374.9</v>
+        <v>88193.8</v>
       </c>
       <c r="I75" t="n">
         <v>10.2</v>
       </c>
-      <c r="J75" t="n">
-        <v>3701.400000000001</v>
-      </c>
-      <c r="K75" t="n">
-        <v>23126.10000000001</v>
-      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>2016-08</t>
+          <t>2016-05</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>10.9</v>
+        <v>10.7</v>
       </c>
       <c r="C76" t="n">
-        <v>3731.9</v>
+        <v>3637.8</v>
       </c>
       <c r="D76" t="n">
-        <v>29322.8</v>
+        <v>18114.2</v>
       </c>
       <c r="E76" t="n">
         <v>10.9</v>
       </c>
       <c r="F76" t="n">
-        <v>10.6</v>
+        <v>9.9</v>
       </c>
       <c r="G76" t="n">
-        <v>23807.7</v>
+        <v>22972.9</v>
       </c>
       <c r="H76" t="n">
-        <v>181182.6</v>
+        <v>111166.7</v>
       </c>
       <c r="I76" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="J76" t="n">
-        <v>3731.899999999998</v>
-      </c>
-      <c r="K76" t="n">
-        <v>23807.70000000001</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>2016-09</t>
+          <t>2016-06</t>
         </is>
       </c>
       <c r="B77" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="C77" t="n">
+        <v>3775.3</v>
+      </c>
+      <c r="D77" t="n">
+        <v>21889.5</v>
+      </c>
+      <c r="E77" t="n">
         <v>11</v>
       </c>
-      <c r="C77" t="n">
-        <v>4219.2</v>
-      </c>
-      <c r="D77" t="n">
-        <v>33542</v>
-      </c>
-      <c r="E77" t="n">
-        <v>10.9</v>
-      </c>
       <c r="F77" t="n">
-        <v>10.7</v>
+        <v>10.5</v>
       </c>
       <c r="G77" t="n">
-        <v>23757.2</v>
+        <v>23082.1</v>
       </c>
       <c r="H77" t="n">
-        <v>204939.8</v>
+        <v>134248.8</v>
       </c>
       <c r="I77" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="J77" t="n">
-        <v>4219.200000000001</v>
-      </c>
-      <c r="K77" t="n">
-        <v>23757.19999999998</v>
+        <v>10.2</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>2016-10</t>
+          <t>2016-07</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>10.3</v>
+        <v>10.7</v>
       </c>
       <c r="C78" t="n">
-        <v>4226.1</v>
+        <v>3701.4</v>
       </c>
       <c r="D78" t="n">
-        <v>37768.1</v>
+        <v>25590.9</v>
       </c>
       <c r="E78" t="n">
         <v>10.9</v>
       </c>
       <c r="F78" t="n">
-        <v>10</v>
+        <v>10.1</v>
       </c>
       <c r="G78" t="n">
-        <v>26893.1</v>
+        <v>23126.1</v>
       </c>
       <c r="H78" t="n">
-        <v>231832.9</v>
+        <v>157374.9</v>
       </c>
       <c r="I78" t="n">
         <v>10.2</v>
       </c>
-      <c r="J78" t="n">
-        <v>4226.099999999999</v>
-      </c>
-      <c r="K78" t="n">
-        <v>26893.10000000001</v>
-      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>2016-11</t>
+          <t>2016-08</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="C79" t="n">
-        <v>4210.4</v>
+        <v>3731.9</v>
       </c>
       <c r="D79" t="n">
-        <v>41978.5</v>
+        <v>29322.8</v>
       </c>
       <c r="E79" t="n">
         <v>10.9</v>
       </c>
       <c r="F79" t="n">
-        <v>10.8</v>
+        <v>10.6</v>
       </c>
       <c r="G79" t="n">
-        <v>26748.2</v>
+        <v>23807.7</v>
       </c>
       <c r="H79" t="n">
-        <v>258581.1</v>
+        <v>181182.6</v>
       </c>
       <c r="I79" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="J79" t="n">
-        <v>4210.400000000001</v>
-      </c>
-      <c r="K79" t="n">
-        <v>26748.20000000001</v>
+        <v>10.2</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>2016-12</t>
+          <t>2016-09</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>11.2</v>
+        <v>11</v>
       </c>
       <c r="C80" t="n">
-        <v>4524</v>
+        <v>4219.2</v>
       </c>
       <c r="D80" t="n">
-        <v>46503</v>
+        <v>33542</v>
       </c>
       <c r="E80" t="n">
         <v>10.9</v>
       </c>
       <c r="F80" t="n">
-        <v>10.9</v>
+        <v>10.7</v>
       </c>
       <c r="G80" t="n">
-        <v>27233</v>
+        <v>23757.2</v>
       </c>
       <c r="H80" t="n">
-        <v>285814</v>
+        <v>204939.8</v>
       </c>
       <c r="I80" t="n">
-        <v>10.4</v>
-      </c>
-      <c r="J80" t="n">
-        <v>4524.5</v>
-      </c>
-      <c r="K80" t="n">
-        <v>27232.89999999999</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>2017-02</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr"/>
-      <c r="C81" t="inlineStr"/>
+          <t>2017-10</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="C81" t="n">
+        <v>4704.3</v>
+      </c>
       <c r="D81" t="n">
-        <v>8501.700000000001</v>
+        <v>42290.2</v>
       </c>
       <c r="E81" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F81" t="inlineStr"/>
-      <c r="G81" t="inlineStr"/>
+        <v>12</v>
+      </c>
+      <c r="F81" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="G81" t="n">
+        <v>29536.6</v>
+      </c>
       <c r="H81" t="n">
-        <v>49457.9</v>
+        <v>255129.1</v>
       </c>
       <c r="I81" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="J81" t="n">
-        <v>8501.700000000001</v>
-      </c>
-      <c r="K81" t="n">
-        <v>49457.9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>2017-03</t>
+          <t>2017-11</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>12.2</v>
+        <v>11.7</v>
       </c>
       <c r="C82" t="n">
-        <v>3923.9</v>
+        <v>4701.1</v>
       </c>
       <c r="D82" t="n">
-        <v>12425.6</v>
+        <v>46991.3</v>
       </c>
       <c r="E82" t="n">
         <v>11.9</v>
       </c>
       <c r="F82" t="n">
-        <v>10.7</v>
+        <v>9.9</v>
       </c>
       <c r="G82" t="n">
-        <v>23939.8</v>
+        <v>29407.1</v>
       </c>
       <c r="H82" t="n">
-        <v>73397.7</v>
+        <v>284536.1</v>
       </c>
       <c r="I82" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="J82" t="n">
-        <v>3923.9</v>
-      </c>
-      <c r="K82" t="n">
-        <v>23939.8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>2017-04</t>
+          <t>2017-12</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>12.6</v>
+        <v>10.1</v>
       </c>
       <c r="C83" t="n">
-        <v>3795.3</v>
+        <v>4980.6</v>
       </c>
       <c r="D83" t="n">
-        <v>16220.9</v>
+        <v>51971.9</v>
       </c>
       <c r="E83" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="F83" t="n">
-        <v>10.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="G83" t="n">
-        <v>23483.2</v>
+        <v>29753.5</v>
       </c>
       <c r="H83" t="n">
-        <v>96880.89999999999</v>
+        <v>314289.7</v>
       </c>
       <c r="I83" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="J83" t="n">
-        <v>3795.299999999999</v>
-      </c>
-      <c r="K83" t="n">
-        <v>23483.2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>2017-05</t>
-        </is>
-      </c>
-      <c r="B84" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="C84" t="n">
-        <v>4099.1</v>
-      </c>
+          <t>2017-02</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr"/>
+      <c r="C84" t="inlineStr"/>
       <c r="D84" t="n">
-        <v>20320</v>
+        <v>8501.700000000001</v>
       </c>
       <c r="E84" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F84" t="n">
-        <v>10.4</v>
-      </c>
-      <c r="G84" t="n">
-        <v>25360.1</v>
-      </c>
+        <v>11.8</v>
+      </c>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr"/>
       <c r="H84" t="n">
-        <v>122241</v>
+        <v>49457.9</v>
       </c>
       <c r="I84" t="n">
-        <v>10</v>
-      </c>
-      <c r="J84" t="n">
-        <v>4099.1</v>
-      </c>
-      <c r="K84" t="n">
-        <v>25360.10000000001</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>2017-06</t>
+          <t>2017-03</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>12.9</v>
+        <v>12.2</v>
       </c>
       <c r="C85" t="n">
-        <v>4262.8</v>
+        <v>3923.9</v>
       </c>
       <c r="D85" t="n">
-        <v>24582.8</v>
+        <v>12425.6</v>
       </c>
       <c r="E85" t="n">
-        <v>12.3</v>
+        <v>11.9</v>
       </c>
       <c r="F85" t="n">
         <v>10.7</v>
       </c>
       <c r="G85" t="n">
-        <v>25544.8</v>
+        <v>23939.8</v>
       </c>
       <c r="H85" t="n">
-        <v>147785.8</v>
+        <v>73397.7</v>
       </c>
       <c r="I85" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="J85" t="n">
-        <v>4262.799999999999</v>
-      </c>
-      <c r="K85" t="n">
-        <v>25544.79999999999</v>
+        <v>9.699999999999999</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>2017-07</t>
+          <t>2017-04</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>11.7</v>
+        <v>12.6</v>
       </c>
       <c r="C86" t="n">
-        <v>4136.3</v>
+        <v>3795.3</v>
       </c>
       <c r="D86" t="n">
-        <v>28719</v>
+        <v>16220.9</v>
       </c>
       <c r="E86" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="F86" t="n">
-        <v>10.2</v>
+        <v>10.4</v>
       </c>
       <c r="G86" t="n">
-        <v>25473.5</v>
+        <v>23483.2</v>
       </c>
       <c r="H86" t="n">
-        <v>173259.4</v>
+        <v>96880.89999999999</v>
       </c>
       <c r="I86" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="J86" t="n">
-        <v>4136.200000000001</v>
-      </c>
-      <c r="K86" t="n">
-        <v>25473.60000000001</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>2017-08</t>
+          <t>2017-05</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>11.5</v>
+        <v>12.7</v>
       </c>
       <c r="C87" t="n">
-        <v>4160.6</v>
+        <v>4099.1</v>
       </c>
       <c r="D87" t="n">
-        <v>32879.7</v>
+        <v>20320</v>
       </c>
       <c r="E87" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="F87" t="n">
-        <v>9.9</v>
+        <v>10.4</v>
       </c>
       <c r="G87" t="n">
-        <v>26169.1</v>
+        <v>25360.1</v>
       </c>
       <c r="H87" t="n">
-        <v>199428.4</v>
+        <v>122241</v>
       </c>
       <c r="I87" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="J87" t="n">
-        <v>4160.699999999997</v>
-      </c>
-      <c r="K87" t="n">
-        <v>26169</v>
+        <v>10</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>2017-09</t>
+          <t>2017-06</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>11.5</v>
+        <v>12.9</v>
       </c>
       <c r="C88" t="n">
-        <v>4706.2</v>
+        <v>4262.8</v>
       </c>
       <c r="D88" t="n">
-        <v>37585.9</v>
+        <v>24582.8</v>
       </c>
       <c r="E88" t="n">
-        <v>12.1</v>
+        <v>12.3</v>
       </c>
       <c r="F88" t="n">
-        <v>10.1</v>
+        <v>10.7</v>
       </c>
       <c r="G88" t="n">
-        <v>26164.1</v>
+        <v>25544.8</v>
       </c>
       <c r="H88" t="n">
-        <v>225592.5</v>
+        <v>147785.8</v>
       </c>
       <c r="I88" t="n">
         <v>10.1</v>
       </c>
-      <c r="J88" t="n">
-        <v>4706.200000000004</v>
-      </c>
-      <c r="K88" t="n">
-        <v>26164.10000000001</v>
-      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>2017-10</t>
+          <t>2017-07</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>11.3</v>
+        <v>11.7</v>
       </c>
       <c r="C89" t="n">
-        <v>4704.3</v>
+        <v>4136.3</v>
       </c>
       <c r="D89" t="n">
-        <v>42290.2</v>
+        <v>28719</v>
       </c>
       <c r="E89" t="n">
-        <v>12</v>
+        <v>12.2</v>
       </c>
       <c r="F89" t="n">
-        <v>9.800000000000001</v>
+        <v>10.2</v>
       </c>
       <c r="G89" t="n">
-        <v>29536.6</v>
+        <v>25473.5</v>
       </c>
       <c r="H89" t="n">
-        <v>255129.1</v>
+        <v>173259.4</v>
       </c>
       <c r="I89" t="n">
-        <v>10</v>
-      </c>
-      <c r="J89" t="n">
-        <v>4704.299999999996</v>
-      </c>
-      <c r="K89" t="n">
-        <v>29536.60000000001</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>2017-11</t>
+          <t>2017-08</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>11.7</v>
+        <v>11.5</v>
       </c>
       <c r="C90" t="n">
-        <v>4701.1</v>
+        <v>4160.6</v>
       </c>
       <c r="D90" t="n">
-        <v>46991.3</v>
+        <v>32879.7</v>
       </c>
       <c r="E90" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="F90" t="n">
         <v>9.9</v>
       </c>
       <c r="G90" t="n">
-        <v>29407.1</v>
+        <v>26169.1</v>
       </c>
       <c r="H90" t="n">
-        <v>284536.1</v>
+        <v>199428.4</v>
       </c>
       <c r="I90" t="n">
-        <v>10</v>
-      </c>
-      <c r="J90" t="n">
-        <v>4701.100000000006</v>
-      </c>
-      <c r="K90" t="n">
-        <v>29406.99999999997</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>2017-12</t>
+          <t>2017-09</t>
         </is>
       </c>
       <c r="B91" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="C91" t="n">
+        <v>4706.2</v>
+      </c>
+      <c r="D91" t="n">
+        <v>37585.9</v>
+      </c>
+      <c r="E91" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F91" t="n">
         <v>10.1</v>
       </c>
-      <c r="C91" t="n">
-        <v>4980.6</v>
-      </c>
-      <c r="D91" t="n">
-        <v>51971.9</v>
-      </c>
-      <c r="E91" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F91" t="n">
-        <v>9.300000000000001</v>
-      </c>
       <c r="G91" t="n">
-        <v>29753.5</v>
+        <v>26164.1</v>
       </c>
       <c r="H91" t="n">
-        <v>314289.7</v>
+        <v>225592.5</v>
       </c>
       <c r="I91" t="n">
-        <v>10</v>
-      </c>
-      <c r="J91" t="n">
-        <v>4980.599999999999</v>
-      </c>
-      <c r="K91" t="n">
-        <v>29753.60000000003</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>2018-02</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr"/>
-      <c r="C92" t="inlineStr"/>
+          <t>2018-10</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="C92" t="n">
+        <v>4933.8</v>
+      </c>
       <c r="D92" t="n">
-        <v>9035.6</v>
+        <v>44515.6</v>
       </c>
       <c r="E92" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="F92" t="inlineStr"/>
-      <c r="G92" t="inlineStr"/>
+        <v>10.3</v>
+      </c>
+      <c r="F92" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="G92" t="n">
+        <v>30600.6</v>
+      </c>
       <c r="H92" t="n">
-        <v>52046.2</v>
+        <v>265318</v>
       </c>
       <c r="I92" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="J92" t="n">
-        <v>9035.6</v>
-      </c>
-      <c r="K92" t="n">
-        <v>52046.2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>2018-03</t>
+          <t>2018-11</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>10.9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C93" t="n">
-        <v>4143.4</v>
+        <v>5269.7</v>
       </c>
       <c r="D93" t="n">
-        <v>13178.9</v>
+        <v>49785.3</v>
       </c>
       <c r="E93" t="n">
-        <v>10.7</v>
+        <v>10.2</v>
       </c>
       <c r="F93" t="n">
-        <v>9.9</v>
+        <v>7.9</v>
       </c>
       <c r="G93" t="n">
-        <v>25050.3</v>
+        <v>29990</v>
       </c>
       <c r="H93" t="n">
-        <v>77096.5</v>
+        <v>295308</v>
       </c>
       <c r="I93" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="J93" t="n">
-        <v>4143.299999999999</v>
-      </c>
-      <c r="K93" t="n">
-        <v>25050.3</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>2018-04</t>
+          <t>2018-12</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>10.6</v>
+        <v>9.3172962657</v>
       </c>
       <c r="C94" t="n">
-        <v>4014.2</v>
+        <v>5564.6310358266</v>
       </c>
       <c r="D94" t="n">
-        <v>17193.1</v>
+        <v>55349.9527985133</v>
       </c>
       <c r="E94" t="n">
-        <v>10.7</v>
+        <v>10.1188141254</v>
       </c>
       <c r="F94" t="n">
-        <v>9.199999999999999</v>
+        <v>7.9512778175</v>
       </c>
       <c r="G94" t="n">
-        <v>24527.7</v>
+        <v>30328.8673</v>
       </c>
       <c r="H94" t="n">
-        <v>101624.2</v>
+        <v>325636.899374254</v>
       </c>
       <c r="I94" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="J94" t="n">
-        <v>4014.199999999999</v>
-      </c>
-      <c r="K94" t="n">
-        <v>24527.7</v>
+        <v>8.7908494588</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>2018-05</t>
-        </is>
-      </c>
-      <c r="B95" t="n">
+          <t>2018-02</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr"/>
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="n">
+        <v>9035.6</v>
+      </c>
+      <c r="E95" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="n">
+        <v>52046.2</v>
+      </c>
+      <c r="I95" t="n">
         <v>9.6</v>
-      </c>
-      <c r="C95" t="n">
-        <v>4266.9</v>
-      </c>
-      <c r="D95" t="n">
-        <v>21460</v>
-      </c>
-      <c r="E95" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="F95" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="G95" t="n">
-        <v>26092.2</v>
-      </c>
-      <c r="H95" t="n">
-        <v>127716.4</v>
-      </c>
-      <c r="I95" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="J95" t="n">
-        <v>4266.900000000001</v>
-      </c>
-      <c r="K95" t="n">
-        <v>26092.2</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>2018-06</t>
+          <t>2018-03</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>10.4</v>
+        <v>10.9</v>
       </c>
       <c r="C96" t="n">
-        <v>4466.6</v>
+        <v>4143.4</v>
       </c>
       <c r="D96" t="n">
-        <v>25926.6</v>
+        <v>13178.9</v>
       </c>
       <c r="E96" t="n">
-        <v>10.5</v>
+        <v>10.7</v>
       </c>
       <c r="F96" t="n">
-        <v>8.800000000000001</v>
+        <v>9.9</v>
       </c>
       <c r="G96" t="n">
-        <v>26374.9</v>
+        <v>25050.3</v>
       </c>
       <c r="H96" t="n">
-        <v>154091.3</v>
+        <v>77096.5</v>
       </c>
       <c r="I96" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="J96" t="n">
-        <v>4466.599999999999</v>
-      </c>
-      <c r="K96" t="n">
-        <v>26374.89999999999</v>
+        <v>9.699999999999999</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>2018-07</t>
+          <t>2018-04</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>10.1</v>
+        <v>10.6</v>
       </c>
       <c r="C97" t="n">
-        <v>4345.5</v>
+        <v>4014.2</v>
       </c>
       <c r="D97" t="n">
-        <v>30272.1</v>
+        <v>17193.1</v>
       </c>
       <c r="E97" t="n">
-        <v>10.4</v>
+        <v>10.7</v>
       </c>
       <c r="F97" t="n">
-        <v>8.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="G97" t="n">
-        <v>26388.2</v>
+        <v>24527.7</v>
       </c>
       <c r="H97" t="n">
-        <v>180479.6</v>
+        <v>101624.2</v>
       </c>
       <c r="I97" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="J97" t="n">
-        <v>4345.5</v>
-      </c>
-      <c r="K97" t="n">
-        <v>26388.30000000002</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>2018-08</t>
+          <t>2018-05</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>10.2</v>
+        <v>9.6</v>
       </c>
       <c r="C98" t="n">
-        <v>4373.3</v>
+        <v>4266.9</v>
       </c>
       <c r="D98" t="n">
-        <v>34645.4</v>
+        <v>21460</v>
       </c>
       <c r="E98" t="n">
-        <v>10.4</v>
+        <v>10.5</v>
       </c>
       <c r="F98" t="n">
-        <v>8.800000000000001</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="G98" t="n">
-        <v>27169</v>
+        <v>26092.2</v>
       </c>
       <c r="H98" t="n">
-        <v>207648.5</v>
+        <v>127716.4</v>
       </c>
       <c r="I98" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="J98" t="n">
-        <v>4373.300000000003</v>
-      </c>
-      <c r="K98" t="n">
-        <v>27168.89999999999</v>
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>2018-09</t>
+          <t>2018-06</t>
         </is>
       </c>
       <c r="B99" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="C99" t="n">
+        <v>4466.6</v>
+      </c>
+      <c r="D99" t="n">
+        <v>25926.6</v>
+      </c>
+      <c r="E99" t="n">
         <v>10.5</v>
       </c>
-      <c r="C99" t="n">
-        <v>4936.4</v>
-      </c>
-      <c r="D99" t="n">
-        <v>39581.8</v>
-      </c>
-      <c r="E99" t="n">
-        <v>10.4</v>
-      </c>
       <c r="F99" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G99" t="n">
-        <v>27069</v>
+        <v>26374.9</v>
       </c>
       <c r="H99" t="n">
-        <v>234717.5</v>
+        <v>154091.3</v>
       </c>
       <c r="I99" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="J99" t="n">
-        <v>4936.400000000001</v>
-      </c>
-      <c r="K99" t="n">
-        <v>27069</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>2018-10</t>
+          <t>2018-07</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>9.699999999999999</v>
+        <v>10.1</v>
       </c>
       <c r="C100" t="n">
-        <v>4933.8</v>
+        <v>4345.5</v>
       </c>
       <c r="D100" t="n">
-        <v>44515.6</v>
+        <v>30272.1</v>
       </c>
       <c r="E100" t="n">
-        <v>10.3</v>
+        <v>10.4</v>
       </c>
       <c r="F100" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="G100" t="n">
-        <v>30600.6</v>
+        <v>26388.2</v>
       </c>
       <c r="H100" t="n">
-        <v>265318</v>
+        <v>180479.6</v>
       </c>
       <c r="I100" t="n">
-        <v>9</v>
-      </c>
-      <c r="J100" t="n">
-        <v>4933.799999999996</v>
-      </c>
-      <c r="K100" t="n">
-        <v>30600.5</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>2018-11</t>
+          <t>2018-08</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>9.300000000000001</v>
+        <v>10.2</v>
       </c>
       <c r="C101" t="n">
-        <v>5269.7</v>
+        <v>4373.3</v>
       </c>
       <c r="D101" t="n">
-        <v>49785.3</v>
+        <v>34645.4</v>
       </c>
       <c r="E101" t="n">
-        <v>10.2</v>
+        <v>10.4</v>
       </c>
       <c r="F101" t="n">
-        <v>7.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G101" t="n">
-        <v>29990</v>
+        <v>27169</v>
       </c>
       <c r="H101" t="n">
-        <v>295308</v>
+        <v>207648.5</v>
       </c>
       <c r="I101" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="J101" t="n">
-        <v>5269.700000000004</v>
-      </c>
-      <c r="K101" t="n">
-        <v>29990</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>2018-12</t>
+          <t>2018-09</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>9.3172962657</v>
+        <v>10.5</v>
       </c>
       <c r="C102" t="n">
-        <v>5564.6310358266</v>
+        <v>4936.4</v>
       </c>
       <c r="D102" t="n">
-        <v>55349.9527985133</v>
+        <v>39581.8</v>
       </c>
       <c r="E102" t="n">
-        <v>10.1188141254</v>
+        <v>10.4</v>
       </c>
       <c r="F102" t="n">
-        <v>7.9512778175</v>
+        <v>9</v>
       </c>
       <c r="G102" t="n">
-        <v>30328.8673</v>
+        <v>27069</v>
       </c>
       <c r="H102" t="n">
-        <v>325636.899374254</v>
+        <v>234717.5</v>
       </c>
       <c r="I102" t="n">
-        <v>8.7908494588</v>
-      </c>
-      <c r="J102" t="n">
-        <v>5564.6527985133</v>
-      </c>
-      <c r="K102" t="n">
-        <v>30328.89937425399</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>2019-02</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr"/>
-      <c r="C103" t="inlineStr"/>
+          <t>2019-10</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="C103" t="n">
+        <v>5360.2</v>
+      </c>
       <c r="D103" t="n">
-        <v>9854</v>
+        <v>48510.2</v>
       </c>
       <c r="E103" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="F103" t="inlineStr"/>
-      <c r="G103" t="inlineStr"/>
+        <v>9</v>
+      </c>
+      <c r="F103" t="n">
+        <v>7</v>
+      </c>
+      <c r="G103" t="n">
+        <v>32744.1</v>
+      </c>
       <c r="H103" t="n">
-        <v>56210</v>
+        <v>286268.3</v>
       </c>
       <c r="I103" t="n">
-        <v>8</v>
-      </c>
-      <c r="J103" t="n">
-        <v>9854</v>
-      </c>
-      <c r="K103" t="n">
-        <v>56210</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>2019-03</t>
+          <t>2019-11</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>9.4</v>
+        <v>9.1</v>
       </c>
       <c r="C104" t="n">
-        <v>4533.9</v>
+        <v>5748.4</v>
       </c>
       <c r="D104" t="n">
-        <v>14388</v>
+        <v>54258.6</v>
       </c>
       <c r="E104" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="F104" t="n">
-        <v>8.5</v>
+        <v>7.9</v>
       </c>
       <c r="G104" t="n">
-        <v>27191.8</v>
+        <v>32345.4</v>
       </c>
       <c r="H104" t="n">
-        <v>83401.7</v>
+        <v>318613.7</v>
       </c>
       <c r="I104" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="J104" t="n">
-        <v>4534</v>
-      </c>
-      <c r="K104" t="n">
-        <v>27191.7</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>2019-04</t>
+          <t>2019-12</t>
         </is>
       </c>
       <c r="B105" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="C105" t="n">
+        <v>6072.9</v>
+      </c>
+      <c r="D105" t="n">
+        <v>60331.5</v>
+      </c>
+      <c r="E105" t="n">
+        <v>9</v>
+      </c>
+      <c r="F105" t="n">
         <v>7.8</v>
       </c>
-      <c r="C105" t="n">
-        <v>4327.1</v>
-      </c>
-      <c r="D105" t="n">
-        <v>18715.1</v>
-      </c>
-      <c r="E105" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="F105" t="n">
-        <v>7.1</v>
-      </c>
       <c r="G105" t="n">
-        <v>26259</v>
+        <v>32703.8</v>
       </c>
       <c r="H105" t="n">
-        <v>109660.8</v>
+        <v>351317.5</v>
       </c>
       <c r="I105" t="n">
         <v>7.9</v>
       </c>
-      <c r="J105" t="n">
-        <v>4327.099999999999</v>
-      </c>
-      <c r="K105" t="n">
-        <v>26259.10000000001</v>
-      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>2019-05</t>
-        </is>
-      </c>
-      <c r="B106" t="n">
-        <v>9</v>
-      </c>
-      <c r="C106" t="n">
-        <v>4651.8</v>
-      </c>
+          <t>2019-02</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr"/>
+      <c r="C106" t="inlineStr"/>
       <c r="D106" t="n">
-        <v>23366.9</v>
+        <v>9854</v>
       </c>
       <c r="E106" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="F106" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="G106" t="n">
-        <v>28303.9</v>
-      </c>
+        <v>9.1</v>
+      </c>
+      <c r="F106" t="inlineStr"/>
+      <c r="G106" t="inlineStr"/>
       <c r="H106" t="n">
-        <v>137964.7</v>
+        <v>56210</v>
       </c>
       <c r="I106" t="n">
         <v>8</v>
       </c>
-      <c r="J106" t="n">
-        <v>4651.800000000003</v>
-      </c>
-      <c r="K106" t="n">
-        <v>28303.90000000001</v>
-      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>2019-06</t>
+          <t>2019-03</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>10.1</v>
+        <v>9.4</v>
       </c>
       <c r="C107" t="n">
-        <v>4919.2</v>
+        <v>4533.9</v>
       </c>
       <c r="D107" t="n">
-        <v>28286</v>
+        <v>14388</v>
       </c>
       <c r="E107" t="n">
-        <v>9.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="F107" t="n">
-        <v>9.800000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="G107" t="n">
-        <v>28959</v>
+        <v>27191.8</v>
       </c>
       <c r="H107" t="n">
-        <v>166923.7</v>
+        <v>83401.7</v>
       </c>
       <c r="I107" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="J107" t="n">
-        <v>4919.099999999999</v>
-      </c>
-      <c r="K107" t="n">
-        <v>28959</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>2019-07</t>
+          <t>2019-04</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>8.6</v>
+        <v>7.8</v>
       </c>
       <c r="C108" t="n">
-        <v>4719.5</v>
+        <v>4327.1</v>
       </c>
       <c r="D108" t="n">
-        <v>33005.5</v>
+        <v>18715.1</v>
       </c>
       <c r="E108" t="n">
-        <v>9</v>
+        <v>8.9</v>
       </c>
       <c r="F108" t="n">
-        <v>7.4</v>
+        <v>7.1</v>
       </c>
       <c r="G108" t="n">
-        <v>28353.8</v>
+        <v>26259</v>
       </c>
       <c r="H108" t="n">
-        <v>195277.5</v>
+        <v>109660.8</v>
       </c>
       <c r="I108" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="J108" t="n">
-        <v>4719.5</v>
-      </c>
-      <c r="K108" t="n">
-        <v>28353.79999999999</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>2019-08</t>
+          <t>2019-05</t>
         </is>
       </c>
       <c r="B109" t="n">
+        <v>9</v>
+      </c>
+      <c r="C109" t="n">
+        <v>4651.8</v>
+      </c>
+      <c r="D109" t="n">
+        <v>23366.9</v>
+      </c>
+      <c r="E109" t="n">
         <v>8.9</v>
       </c>
-      <c r="C109" t="n">
-        <v>4762.1</v>
-      </c>
-      <c r="D109" t="n">
-        <v>37767.6</v>
-      </c>
-      <c r="E109" t="n">
-        <v>9</v>
-      </c>
       <c r="F109" t="n">
-        <v>7.2</v>
+        <v>8.5</v>
       </c>
       <c r="G109" t="n">
-        <v>29134.3</v>
+        <v>28303.9</v>
       </c>
       <c r="H109" t="n">
-        <v>224411.7</v>
+        <v>137964.7</v>
       </c>
       <c r="I109" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="J109" t="n">
-        <v>4762.099999999999</v>
-      </c>
-      <c r="K109" t="n">
-        <v>29134.20000000001</v>
+        <v>8</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>2019-09</t>
+          <t>2019-06</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>9</v>
+        <v>10.1</v>
       </c>
       <c r="C110" t="n">
-        <v>5382.5</v>
+        <v>4919.2</v>
       </c>
       <c r="D110" t="n">
-        <v>43150</v>
+        <v>28286</v>
       </c>
       <c r="E110" t="n">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="F110" t="n">
-        <v>7.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="G110" t="n">
-        <v>29112.4</v>
+        <v>28959</v>
       </c>
       <c r="H110" t="n">
-        <v>253524.1</v>
+        <v>166923.7</v>
       </c>
       <c r="I110" t="n">
-        <v>8</v>
-      </c>
-      <c r="J110" t="n">
-        <v>5382.400000000001</v>
-      </c>
-      <c r="K110" t="n">
-        <v>29112.39999999999</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>2019-10</t>
+          <t>2019-07</t>
         </is>
       </c>
       <c r="B111" t="n">
         <v>8.6</v>
       </c>
       <c r="C111" t="n">
-        <v>5360.2</v>
+        <v>4719.5</v>
       </c>
       <c r="D111" t="n">
-        <v>48510.2</v>
+        <v>33005.5</v>
       </c>
       <c r="E111" t="n">
         <v>9</v>
       </c>
       <c r="F111" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="G111" t="n">
-        <v>32744.1</v>
+        <v>28353.8</v>
       </c>
       <c r="H111" t="n">
-        <v>286268.3</v>
+        <v>195277.5</v>
       </c>
       <c r="I111" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="J111" t="n">
-        <v>5360.199999999997</v>
-      </c>
-      <c r="K111" t="n">
-        <v>32744.19999999998</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>2019-11</t>
+          <t>2019-08</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>9.1</v>
+        <v>8.9</v>
       </c>
       <c r="C112" t="n">
-        <v>5748.4</v>
+        <v>4762.1</v>
       </c>
       <c r="D112" t="n">
-        <v>54258.6</v>
+        <v>37767.6</v>
       </c>
       <c r="E112" t="n">
         <v>9</v>
       </c>
       <c r="F112" t="n">
-        <v>7.9</v>
+        <v>7.2</v>
       </c>
       <c r="G112" t="n">
-        <v>32345.4</v>
+        <v>29134.3</v>
       </c>
       <c r="H112" t="n">
-        <v>318613.7</v>
+        <v>224411.7</v>
       </c>
       <c r="I112" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="J112" t="n">
-        <v>5748.400000000001</v>
-      </c>
-      <c r="K112" t="n">
-        <v>32345.40000000002</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>2019-12</t>
+          <t>2019-09</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="C113" t="n">
-        <v>6072.9</v>
+        <v>5382.5</v>
       </c>
       <c r="D113" t="n">
-        <v>60331.5</v>
+        <v>43150</v>
       </c>
       <c r="E113" t="n">
         <v>9</v>
       </c>
       <c r="F113" t="n">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
       <c r="G113" t="n">
-        <v>32703.8</v>
+        <v>29112.4</v>
       </c>
       <c r="H113" t="n">
-        <v>351317.5</v>
+        <v>253524.1</v>
       </c>
       <c r="I113" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="J113" t="n">
-        <v>6072.900000000001</v>
-      </c>
-      <c r="K113" t="n">
-        <v>32703.79999999999</v>
+        <v>8</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>2020-02</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr"/>
-      <c r="C114" t="inlineStr"/>
+          <t>2020-10</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="C114" t="n">
+        <v>5078.5</v>
+      </c>
       <c r="D114" t="n">
-        <v>7248.8</v>
+        <v>41559.4</v>
       </c>
       <c r="E114" t="n">
-        <v>-19</v>
-      </c>
-      <c r="F114" t="inlineStr"/>
-      <c r="G114" t="inlineStr"/>
+        <v>-5.4</v>
+      </c>
+      <c r="F114" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="G114" t="n">
+        <v>33498</v>
+      </c>
       <c r="H114" t="n">
-        <v>44881.1</v>
+        <v>270341.1</v>
       </c>
       <c r="I114" t="n">
-        <v>-20.7</v>
-      </c>
-      <c r="J114" t="n">
-        <v>7248.8</v>
-      </c>
-      <c r="K114" t="n">
-        <v>44881.1</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>2020-03</t>
+          <t>2020-11</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>-15.1</v>
+        <v>5.6</v>
       </c>
       <c r="C115" t="n">
-        <v>3475.9</v>
+        <v>5442.3</v>
       </c>
       <c r="D115" t="n">
-        <v>10724.7</v>
+        <v>47001.7</v>
       </c>
       <c r="E115" t="n">
-        <v>-17.7</v>
+        <v>-4.3</v>
       </c>
       <c r="F115" t="n">
-        <v>-15.9</v>
+        <v>4.9</v>
       </c>
       <c r="G115" t="n">
-        <v>22974</v>
+        <v>34071.9</v>
       </c>
       <c r="H115" t="n">
-        <v>67855</v>
+        <v>304413</v>
       </c>
       <c r="I115" t="n">
-        <v>-19.1</v>
-      </c>
-      <c r="J115" t="n">
-        <v>3475.900000000001</v>
-      </c>
-      <c r="K115" t="n">
-        <v>22973.9</v>
+        <v>-4.9</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>2020-04</t>
+          <t>2020-12</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>-7.7</v>
+        <v>5.9</v>
       </c>
       <c r="C116" t="n">
-        <v>3620.1</v>
+        <v>5860</v>
       </c>
       <c r="D116" t="n">
-        <v>14344.8</v>
+        <v>52861.7</v>
       </c>
       <c r="E116" t="n">
-        <v>-15.4</v>
+        <v>-3.2</v>
       </c>
       <c r="F116" t="n">
-        <v>-7.5</v>
+        <v>4.4</v>
       </c>
       <c r="G116" t="n">
-        <v>24557.7</v>
+        <v>34706</v>
       </c>
       <c r="H116" t="n">
-        <v>92412.7</v>
+        <v>339119</v>
       </c>
       <c r="I116" t="n">
-        <v>-16.3</v>
-      </c>
-      <c r="J116" t="n">
-        <v>3620.099999999999</v>
-      </c>
-      <c r="K116" t="n">
-        <v>24557.7</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>2020-05</t>
-        </is>
-      </c>
-      <c r="B117" t="n">
-        <v>-3.2</v>
-      </c>
-      <c r="C117" t="n">
-        <v>4091.8</v>
-      </c>
+          <t>2020-02</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
       <c r="D117" t="n">
-        <v>18436.6</v>
+        <v>7248.8</v>
       </c>
       <c r="E117" t="n">
-        <v>-13</v>
-      </c>
-      <c r="F117" t="n">
-        <v>-2.8</v>
-      </c>
-      <c r="G117" t="n">
-        <v>27880.9</v>
-      </c>
+        <v>-19</v>
+      </c>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
       <c r="H117" t="n">
-        <v>120293.7</v>
+        <v>44881.1</v>
       </c>
       <c r="I117" t="n">
-        <v>-13.5</v>
-      </c>
-      <c r="J117" t="n">
-        <v>4091.799999999999</v>
-      </c>
-      <c r="K117" t="n">
-        <v>27881</v>
+        <v>-20.7</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>2020-06</t>
+          <t>2020-03</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>-1.2</v>
+        <v>-15.1</v>
       </c>
       <c r="C118" t="n">
-        <v>4474.3</v>
+        <v>3475.9</v>
       </c>
       <c r="D118" t="n">
-        <v>22910.9</v>
+        <v>10724.7</v>
       </c>
       <c r="E118" t="n">
-        <v>-10.9</v>
+        <v>-17.7</v>
       </c>
       <c r="F118" t="n">
-        <v>-2</v>
+        <v>-15.9</v>
       </c>
       <c r="G118" t="n">
-        <v>29051.6</v>
+        <v>22974</v>
       </c>
       <c r="H118" t="n">
-        <v>149345.3</v>
+        <v>67855</v>
       </c>
       <c r="I118" t="n">
-        <v>-11.5</v>
-      </c>
-      <c r="J118" t="n">
-        <v>4474.300000000003</v>
-      </c>
-      <c r="K118" t="n">
-        <v>29051.59999999999</v>
+        <v>-19.1</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>2020-07</t>
+          <t>2020-04</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>-1.3</v>
+        <v>-7.7</v>
       </c>
       <c r="C119" t="n">
-        <v>4177.5</v>
+        <v>3620.1</v>
       </c>
       <c r="D119" t="n">
-        <v>27088.4</v>
+        <v>14344.8</v>
       </c>
       <c r="E119" t="n">
-        <v>-9.5</v>
+        <v>-15.4</v>
       </c>
       <c r="F119" t="n">
-        <v>-1.1</v>
+        <v>-7.5</v>
       </c>
       <c r="G119" t="n">
-        <v>28025</v>
+        <v>24557.7</v>
       </c>
       <c r="H119" t="n">
-        <v>177370.3</v>
+        <v>92412.7</v>
       </c>
       <c r="I119" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J119" t="n">
-        <v>4177.5</v>
-      </c>
-      <c r="K119" t="n">
-        <v>28025</v>
+        <v>-16.3</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>2020-08</t>
+          <t>2020-05</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0.7</v>
+        <v>-3.2</v>
       </c>
       <c r="C120" t="n">
-        <v>4297.9</v>
+        <v>4091.8</v>
       </c>
       <c r="D120" t="n">
-        <v>31386.4</v>
+        <v>18436.6</v>
       </c>
       <c r="E120" t="n">
-        <v>-8.300000000000001</v>
+        <v>-13</v>
       </c>
       <c r="F120" t="n">
-        <v>0.5</v>
+        <v>-2.8</v>
       </c>
       <c r="G120" t="n">
-        <v>29272.7</v>
+        <v>27880.9</v>
       </c>
       <c r="H120" t="n">
-        <v>206643</v>
+        <v>120293.7</v>
       </c>
       <c r="I120" t="n">
-        <v>-8.699999999999999</v>
-      </c>
-      <c r="J120" t="n">
-        <v>4298</v>
-      </c>
-      <c r="K120" t="n">
-        <v>29272.70000000001</v>
+        <v>-13.5</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>2020-09</t>
+          <t>2020-06</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>4</v>
+        <v>-1.2</v>
       </c>
       <c r="C121" t="n">
-        <v>5094.6</v>
+        <v>4474.3</v>
       </c>
       <c r="D121" t="n">
-        <v>36480.9</v>
+        <v>22910.9</v>
       </c>
       <c r="E121" t="n">
-        <v>-6.7</v>
+        <v>-10.9</v>
       </c>
       <c r="F121" t="n">
-        <v>3.2</v>
+        <v>-2</v>
       </c>
       <c r="G121" t="n">
-        <v>30200.1</v>
+        <v>29051.6</v>
       </c>
       <c r="H121" t="n">
-        <v>236843.1</v>
+        <v>149345.3</v>
       </c>
       <c r="I121" t="n">
-        <v>-7.3</v>
-      </c>
-      <c r="J121" t="n">
-        <v>5094.5</v>
-      </c>
-      <c r="K121" t="n">
-        <v>30200.10000000001</v>
+        <v>-11.5</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>2020-10</t>
+          <t>2020-07</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>5.1</v>
+        <v>-1.3</v>
       </c>
       <c r="C122" t="n">
-        <v>5078.5</v>
+        <v>4177.5</v>
       </c>
       <c r="D122" t="n">
-        <v>41559.4</v>
+        <v>27088.4</v>
       </c>
       <c r="E122" t="n">
-        <v>-5.4</v>
+        <v>-9.5</v>
       </c>
       <c r="F122" t="n">
-        <v>4.2</v>
+        <v>-1.1</v>
       </c>
       <c r="G122" t="n">
-        <v>33498</v>
+        <v>28025</v>
       </c>
       <c r="H122" t="n">
-        <v>270341.1</v>
+        <v>177370.3</v>
       </c>
       <c r="I122" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J122" t="n">
-        <v>5078.5</v>
-      </c>
-      <c r="K122" t="n">
-        <v>33497.99999999997</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>2020-11</t>
+          <t>2020-08</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>5.6</v>
+        <v>0.7</v>
       </c>
       <c r="C123" t="n">
-        <v>5442.3</v>
+        <v>4297.9</v>
       </c>
       <c r="D123" t="n">
-        <v>47001.7</v>
+        <v>31386.4</v>
       </c>
       <c r="E123" t="n">
-        <v>-4.3</v>
+        <v>-8.300000000000001</v>
       </c>
       <c r="F123" t="n">
-        <v>4.9</v>
+        <v>0.5</v>
       </c>
       <c r="G123" t="n">
-        <v>34071.9</v>
+        <v>29272.7</v>
       </c>
       <c r="H123" t="n">
-        <v>304413</v>
+        <v>206643</v>
       </c>
       <c r="I123" t="n">
-        <v>-4.9</v>
-      </c>
-      <c r="J123" t="n">
-        <v>5442.299999999996</v>
-      </c>
-      <c r="K123" t="n">
-        <v>34071.90000000002</v>
+        <v>-8.699999999999999</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>2020-12</t>
+          <t>2020-09</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>5.9</v>
+        <v>4</v>
       </c>
       <c r="C124" t="n">
-        <v>5860</v>
+        <v>5094.6</v>
       </c>
       <c r="D124" t="n">
-        <v>52861.7</v>
+        <v>36480.9</v>
       </c>
       <c r="E124" t="n">
-        <v>-3.2</v>
+        <v>-6.7</v>
       </c>
       <c r="F124" t="n">
-        <v>4.4</v>
+        <v>3.2</v>
       </c>
       <c r="G124" t="n">
-        <v>34706</v>
+        <v>30200.1</v>
       </c>
       <c r="H124" t="n">
-        <v>339119</v>
+        <v>236843.1</v>
       </c>
       <c r="I124" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J124" t="n">
-        <v>5860</v>
-      </c>
-      <c r="K124" t="n">
-        <v>34706</v>
+        <v>-7.3</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>2021-02</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr"/>
-      <c r="C125" t="inlineStr"/>
+          <t>2021-10</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="C125" t="n">
+        <v>5364</v>
+      </c>
       <c r="D125" t="n">
-        <v>9185.200000000001</v>
+        <v>47533</v>
       </c>
       <c r="E125" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="F125" t="inlineStr"/>
-      <c r="G125" t="inlineStr"/>
+        <v>14.4</v>
+      </c>
+      <c r="F125" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="G125" t="n">
+        <v>35089.9</v>
+      </c>
       <c r="H125" t="n">
-        <v>60551.6</v>
+        <v>310978.1</v>
       </c>
       <c r="I125" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="J125" t="n">
-        <v>9185.200000000001</v>
-      </c>
-      <c r="K125" t="n">
-        <v>60551.6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>2021-03</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>34.9</v>
+        <v>4.8</v>
       </c>
       <c r="C126" t="n">
-        <v>4690.2</v>
+        <v>5705.7</v>
       </c>
       <c r="D126" t="n">
-        <v>13875.4</v>
+        <v>53238.7</v>
       </c>
       <c r="E126" t="n">
-        <v>29.4</v>
+        <v>13.3</v>
       </c>
       <c r="F126" t="n">
-        <v>34</v>
+        <v>3.7</v>
       </c>
       <c r="G126" t="n">
-        <v>30793.8</v>
+        <v>35337.5</v>
       </c>
       <c r="H126" t="n">
-        <v>91345.39999999999</v>
+        <v>346315.6</v>
       </c>
       <c r="I126" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="J126" t="n">
-        <v>4690.199999999999</v>
-      </c>
-      <c r="K126" t="n">
-        <v>30793.8</v>
+        <v>13.8</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>2021-04</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>17.8</v>
+        <v>2.8</v>
       </c>
       <c r="C127" t="n">
-        <v>4264.6</v>
+        <v>6026.1</v>
       </c>
       <c r="D127" t="n">
-        <v>18140.1</v>
+        <v>59264.8</v>
       </c>
       <c r="E127" t="n">
-        <v>26.5</v>
+        <v>12.1</v>
       </c>
       <c r="F127" t="n">
-        <v>17.6</v>
+        <v>1.5</v>
       </c>
       <c r="G127" t="n">
-        <v>28888</v>
+        <v>35242.8</v>
       </c>
       <c r="H127" t="n">
-        <v>120233.4</v>
+        <v>381558.4</v>
       </c>
       <c r="I127" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="J127" t="n">
-        <v>4264.699999999999</v>
-      </c>
-      <c r="K127" t="n">
-        <v>28888</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>2021-05</t>
-        </is>
-      </c>
-      <c r="B128" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="C128" t="n">
-        <v>4632.4</v>
-      </c>
+          <t>2021-02</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr"/>
+      <c r="C128" t="inlineStr"/>
       <c r="D128" t="n">
-        <v>22772.5</v>
+        <v>9185.200000000001</v>
       </c>
       <c r="E128" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="F128" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="G128" t="n">
-        <v>31312.7</v>
-      </c>
+        <v>26.7</v>
+      </c>
+      <c r="F128" t="inlineStr"/>
+      <c r="G128" t="inlineStr"/>
       <c r="H128" t="n">
-        <v>151546.1</v>
+        <v>60551.6</v>
       </c>
       <c r="I128" t="n">
-        <v>26</v>
-      </c>
-      <c r="J128" t="n">
-        <v>4632.400000000001</v>
-      </c>
-      <c r="K128" t="n">
-        <v>31312.70000000001</v>
+        <v>34.9</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>2021-06</t>
+          <t>2021-03</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>12.5</v>
+        <v>34.9</v>
       </c>
       <c r="C129" t="n">
-        <v>5034.3</v>
+        <v>4690.2</v>
       </c>
       <c r="D129" t="n">
-        <v>27806.7</v>
+        <v>13875.4</v>
       </c>
       <c r="E129" t="n">
-        <v>21.4</v>
+        <v>29.4</v>
       </c>
       <c r="F129" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="G129" t="n">
-        <v>32551.5</v>
+        <v>30793.8</v>
       </c>
       <c r="H129" t="n">
-        <v>184097.6</v>
+        <v>91345.39999999999</v>
       </c>
       <c r="I129" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="J129" t="n">
-        <v>5034.200000000001</v>
-      </c>
-      <c r="K129" t="n">
-        <v>32551.5</v>
+        <v>34.6</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>2021-07</t>
+          <t>2021-04</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>8.800000000000001</v>
+        <v>17.8</v>
       </c>
       <c r="C130" t="n">
-        <v>4546.5</v>
+        <v>4264.6</v>
       </c>
       <c r="D130" t="n">
-        <v>32353.3</v>
+        <v>18140.1</v>
       </c>
       <c r="E130" t="n">
-        <v>19.4</v>
+        <v>26.5</v>
       </c>
       <c r="F130" t="n">
-        <v>8.4</v>
+        <v>17.6</v>
       </c>
       <c r="G130" t="n">
-        <v>30378.5</v>
+        <v>28888</v>
       </c>
       <c r="H130" t="n">
-        <v>214476.1</v>
+        <v>120233.4</v>
       </c>
       <c r="I130" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="J130" t="n">
-        <v>4546.599999999999</v>
-      </c>
-      <c r="K130" t="n">
-        <v>30378.5</v>
+        <v>30.1</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>2021-08</t>
+          <t>2021-05</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>3.4</v>
+        <v>13.2</v>
       </c>
       <c r="C131" t="n">
-        <v>4444.5</v>
+        <v>4632.4</v>
       </c>
       <c r="D131" t="n">
-        <v>36797.8</v>
+        <v>22772.5</v>
       </c>
       <c r="E131" t="n">
-        <v>17.2</v>
+        <v>23.5</v>
       </c>
       <c r="F131" t="n">
-        <v>2.3</v>
+        <v>12.3</v>
       </c>
       <c r="G131" t="n">
-        <v>29950.3</v>
+        <v>31312.7</v>
       </c>
       <c r="H131" t="n">
-        <v>244426.4</v>
+        <v>151546.1</v>
       </c>
       <c r="I131" t="n">
-        <v>18.3</v>
-      </c>
-      <c r="J131" t="n">
-        <v>4444.500000000004</v>
-      </c>
-      <c r="K131" t="n">
-        <v>29950.29999999999</v>
+        <v>26</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>2021-09</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>5.4</v>
+        <v>12.5</v>
       </c>
       <c r="C132" t="n">
-        <v>5371.2</v>
+        <v>5034.3</v>
       </c>
       <c r="D132" t="n">
-        <v>42169</v>
+        <v>27806.7</v>
       </c>
       <c r="E132" t="n">
-        <v>15.6</v>
+        <v>21.4</v>
       </c>
       <c r="F132" t="n">
-        <v>4.2</v>
+        <v>12</v>
       </c>
       <c r="G132" t="n">
-        <v>31461.8</v>
+        <v>32551.5</v>
       </c>
       <c r="H132" t="n">
-        <v>275888.2</v>
+        <v>184097.6</v>
       </c>
       <c r="I132" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="J132" t="n">
-        <v>5371.199999999997</v>
-      </c>
-      <c r="K132" t="n">
-        <v>31461.80000000002</v>
+        <v>23.3</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>2021-10</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>5.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="C133" t="n">
-        <v>5364</v>
+        <v>4546.5</v>
       </c>
       <c r="D133" t="n">
-        <v>47533</v>
+        <v>32353.3</v>
       </c>
       <c r="E133" t="n">
-        <v>14.4</v>
+        <v>19.4</v>
       </c>
       <c r="F133" t="n">
-        <v>4.8</v>
+        <v>8.4</v>
       </c>
       <c r="G133" t="n">
-        <v>35089.9</v>
+        <v>30378.5</v>
       </c>
       <c r="H133" t="n">
-        <v>310978.1</v>
+        <v>214476.1</v>
       </c>
       <c r="I133" t="n">
-        <v>15</v>
-      </c>
-      <c r="J133" t="n">
-        <v>5364</v>
-      </c>
-      <c r="K133" t="n">
-        <v>35089.89999999997</v>
+        <v>20.9</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>2021-11</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>4.8</v>
+        <v>3.4</v>
       </c>
       <c r="C134" t="n">
-        <v>5705.7</v>
+        <v>4444.5</v>
       </c>
       <c r="D134" t="n">
-        <v>53238.7</v>
+        <v>36797.8</v>
       </c>
       <c r="E134" t="n">
-        <v>13.3</v>
+        <v>17.2</v>
       </c>
       <c r="F134" t="n">
-        <v>3.7</v>
+        <v>2.3</v>
       </c>
       <c r="G134" t="n">
-        <v>35337.5</v>
+        <v>29950.3</v>
       </c>
       <c r="H134" t="n">
-        <v>346315.6</v>
+        <v>244426.4</v>
       </c>
       <c r="I134" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="J134" t="n">
-        <v>5705.699999999997</v>
-      </c>
-      <c r="K134" t="n">
-        <v>35337.5</v>
+        <v>18.3</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>2021-12</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>2.8</v>
+        <v>5.4</v>
       </c>
       <c r="C135" t="n">
-        <v>6026.1</v>
+        <v>5371.2</v>
       </c>
       <c r="D135" t="n">
-        <v>59264.8</v>
+        <v>42169</v>
       </c>
       <c r="E135" t="n">
-        <v>12.1</v>
+        <v>15.6</v>
       </c>
       <c r="F135" t="n">
-        <v>1.5</v>
+        <v>4.2</v>
       </c>
       <c r="G135" t="n">
-        <v>35242.8</v>
+        <v>31461.8</v>
       </c>
       <c r="H135" t="n">
-        <v>381558.4</v>
+        <v>275888.2</v>
       </c>
       <c r="I135" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="J135" t="n">
-        <v>6026.100000000006</v>
-      </c>
-      <c r="K135" t="n">
-        <v>35242.80000000005</v>
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="inlineStr">
+        <is>
+          <t>2022-10</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C136" t="n">
+        <v>5374.5</v>
+      </c>
+      <c r="D136" t="n">
+        <v>47926</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F136" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="G136" t="n">
+        <v>34896.1</v>
+      </c>
+      <c r="H136" t="n">
+        <v>312649.1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="inlineStr">
+        <is>
+          <t>2022-11</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>-5.2</v>
+      </c>
+      <c r="C137" t="n">
+        <v>5410.9</v>
+      </c>
+      <c r="D137" t="n">
+        <v>53336.9</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F137" t="n">
+        <v>-6</v>
+      </c>
+      <c r="G137" t="n">
+        <v>33204.2</v>
+      </c>
+      <c r="H137" t="n">
+        <v>345853.3</v>
+      </c>
+      <c r="I137" t="n">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="inlineStr">
+        <is>
+          <t>2022-12</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>-1.3</v>
+      </c>
+      <c r="C138" t="n">
+        <v>5947.9</v>
+      </c>
+      <c r="D138" t="n">
+        <v>59284.8</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0</v>
+      </c>
+      <c r="F138" t="n">
+        <v>-1.8</v>
+      </c>
+      <c r="G138" t="n">
+        <v>34594.4</v>
+      </c>
+      <c r="H138" t="n">
+        <v>380447.7</v>
+      </c>
+      <c r="I138" t="n">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="inlineStr">
+        <is>
+          <t>2022-02</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr"/>
+      <c r="C139" t="inlineStr"/>
+      <c r="D139" t="n">
+        <v>9832.9</v>
+      </c>
+      <c r="E139" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="F139" t="inlineStr"/>
+      <c r="G139" t="inlineStr"/>
+      <c r="H139" t="n">
+        <v>64593.1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="inlineStr">
+        <is>
+          <t>2022-03</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>-3.3376943964</v>
+      </c>
+      <c r="C140" t="n">
+        <v>4533.7</v>
+      </c>
+      <c r="D140" t="n">
+        <v>14366.6</v>
+      </c>
+      <c r="E140" t="n">
+        <v>3.5398787022</v>
+      </c>
+      <c r="F140" t="n">
+        <v>-3.5540028697</v>
+      </c>
+      <c r="G140" t="n">
+        <v>29699.4</v>
+      </c>
+      <c r="H140" t="n">
+        <v>94292.5</v>
+      </c>
+      <c r="I140" t="n">
+        <v>3.2263393086</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="inlineStr">
+        <is>
+          <t>2022-04</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>-9.800000000000001</v>
+      </c>
+      <c r="C141" t="n">
+        <v>3846.1</v>
+      </c>
+      <c r="D141" t="n">
+        <v>18212.8</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F141" t="n">
+        <v>-11.3</v>
+      </c>
+      <c r="G141" t="n">
+        <v>25637</v>
+      </c>
+      <c r="H141" t="n">
+        <v>119929.5</v>
+      </c>
+      <c r="I141" t="n">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="inlineStr">
+        <is>
+          <t>2022-05</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>-6.3</v>
+      </c>
+      <c r="C142" t="n">
+        <v>4342.2</v>
+      </c>
+      <c r="D142" t="n">
+        <v>22554.9</v>
+      </c>
+      <c r="E142" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F142" t="n">
+        <v>-6.7</v>
+      </c>
+      <c r="G142" t="n">
+        <v>29204.9</v>
+      </c>
+      <c r="H142" t="n">
+        <v>149134.3</v>
+      </c>
+      <c r="I142" t="n">
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="inlineStr">
+        <is>
+          <t>2022-06</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="C143" t="n">
+        <v>5171.2</v>
+      </c>
+      <c r="D143" t="n">
+        <v>27726.2</v>
+      </c>
+      <c r="E143" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="F143" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="G143" t="n">
+        <v>33571.2</v>
+      </c>
+      <c r="H143" t="n">
+        <v>182705.6</v>
+      </c>
+      <c r="I143" t="n">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="inlineStr">
+        <is>
+          <t>2022-07</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="C144" t="n">
+        <v>4665.3</v>
+      </c>
+      <c r="D144" t="n">
+        <v>32391.5</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F144" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="G144" t="n">
+        <v>31204.8</v>
+      </c>
+      <c r="H144" t="n">
+        <v>213910.4</v>
+      </c>
+      <c r="I144" t="n">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="inlineStr">
+        <is>
+          <t>2022-08</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>5</v>
+      </c>
+      <c r="C145" t="n">
+        <v>4664.7</v>
+      </c>
+      <c r="D145" t="n">
+        <v>37056.2</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F145" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="G145" t="n">
+        <v>31593.2</v>
+      </c>
+      <c r="H145" t="n">
+        <v>245503.5</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="inlineStr">
+        <is>
+          <t>2022-09</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="C146" t="n">
+        <v>5495.3</v>
+      </c>
+      <c r="D146" t="n">
+        <v>42551.5</v>
+      </c>
+      <c r="E146" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F146" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G146" t="n">
+        <v>32249.5</v>
+      </c>
+      <c r="H146" t="n">
+        <v>277753.1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="inlineStr">
+        <is>
+          <t>2023-02</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr"/>
+      <c r="C147" t="inlineStr"/>
+      <c r="D147" t="n">
+        <v>10270.7</v>
+      </c>
+      <c r="E147" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F147" t="inlineStr"/>
+      <c r="G147" t="inlineStr"/>
+      <c r="H147" t="n">
+        <v>66796.3</v>
+      </c>
+      <c r="I147" t="n">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="inlineStr">
+        <is>
+          <t>2023-03</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>10</v>
+      </c>
+      <c r="C148" t="n">
+        <v>4987.4</v>
+      </c>
+      <c r="D148" t="n">
+        <v>15258.1</v>
+      </c>
+      <c r="E148" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="F148" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="G148" t="n">
+        <v>32868</v>
+      </c>
+      <c r="H148" t="n">
+        <v>99664.3</v>
+      </c>
+      <c r="I148" t="n">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="inlineStr">
+        <is>
+          <t>2023-04</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="C149" t="n">
+        <v>4512.6</v>
+      </c>
+      <c r="D149" t="n">
+        <v>19770.7</v>
+      </c>
+      <c r="E149" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="F149" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="G149" t="n">
+        <v>30397.9</v>
+      </c>
+      <c r="H149" t="n">
+        <v>130062.2</v>
+      </c>
+      <c r="I149" t="n">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="inlineStr">
+        <is>
+          <t>2023-05</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="C150" t="n">
+        <v>4897.2</v>
+      </c>
+      <c r="D150" t="n">
+        <v>24668</v>
+      </c>
+      <c r="E150" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="F150" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="G150" t="n">
+        <v>32906.1</v>
+      </c>
+      <c r="H150" t="n">
+        <v>162968.3</v>
+      </c>
+      <c r="I150" t="n">
+        <v>9.300000000000001</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="inlineStr">
+        <is>
+          <t>2023-06</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="C151" t="n">
+        <v>5387.9</v>
+      </c>
+      <c r="D151" t="n">
+        <v>30055.9</v>
+      </c>
+      <c r="E151" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="F151" t="n">
+        <v>3</v>
+      </c>
+      <c r="G151" t="n">
+        <v>34563.5</v>
+      </c>
+      <c r="H151" t="n">
+        <v>197531.7</v>
+      </c>
+      <c r="I151" t="n">
+        <v>8.1</v>
       </c>
     </row>
   </sheetData>
